--- a/2023/croatia_prva-nl_2023-2024.xlsx
+++ b/2023/croatia_prva-nl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V49"/>
+  <dimension ref="A1:V50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2321,30 +2321,30 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Bijelo Brdo</t>
+          <t>Jarun</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Croatia Zmijavci</t>
+          <t>Sesvete</t>
         </is>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>2.03</v>
+        <v>1.9</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>01/09/2023 04:43</t>
+          <t>02/09/2023 13:42</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>2.42</v>
+        <v>2.22</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -2352,40 +2352,40 @@
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.16</v>
+        <v>3.57</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>01/09/2023 04:43</t>
+          <t>02/09/2023 13:42</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.18</v>
+        <v>3.56</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
+          <t>02/09/2023 16:23</t>
+        </is>
+      </c>
+      <c r="R21" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>02/09/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T21" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
           <t>02/09/2023 16:28</t>
         </is>
       </c>
-      <c r="R21" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>01/09/2023 04:43</t>
-        </is>
-      </c>
-      <c r="T21" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>02/09/2023 16:28</t>
-        </is>
-      </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/bijelo-brdo-croatia-zmijavci/rgN98fC9/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/jarun-sesvete/lhksjndr/</t>
         </is>
       </c>
     </row>
@@ -2413,22 +2413,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Vukovar 1991</t>
+          <t>Bijelo Brdo</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Cibalia</t>
+          <t>Croatia Zmijavci</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>2.07</v>
+        <v>2.03</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>1.98</v>
+        <v>2.42</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.14</v>
+        <v>3.16</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.32</v>
+        <v>3.18</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         </is>
       </c>
       <c r="R22" t="n">
-        <v>3.3</v>
+        <v>3.36</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>3.76</v>
+        <v>2.91</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/vukovar-1991-cibalia/Srlok6Bl/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/bijelo-brdo-croatia-zmijavci/rgN98fC9/</t>
         </is>
       </c>
     </row>
@@ -2505,30 +2505,30 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Jarun</t>
+          <t>Solin</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Sesvete</t>
+          <t>Orijent</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>1.9</v>
+        <v>2.08</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>02/09/2023 13:42</t>
+          <t>01/09/2023 04:43</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2.22</v>
+        <v>2.05</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -2536,31 +2536,31 @@
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.57</v>
+        <v>3.34</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>02/09/2023 13:42</t>
+          <t>01/09/2023 04:43</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.56</v>
+        <v>3.65</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>02/09/2023 16:23</t>
+          <t>02/09/2023 16:28</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>3.54</v>
+        <v>2.99</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>02/09/2023 13:42</t>
+          <t>01/09/2023 04:43</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>2.94</v>
+        <v>3.24</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/jarun-sesvete/lhksjndr/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/solin-orijent/A7wjlQQf/</t>
         </is>
       </c>
     </row>
@@ -2597,22 +2597,22 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Solin</t>
+          <t>Vukovar 1991</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Orijent</t>
+          <t>Cibalia</t>
         </is>
       </c>
       <c r="I24" t="n">
         <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -2628,7 +2628,7 @@
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.34</v>
+        <v>3.14</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2636,7 +2636,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.65</v>
+        <v>3.32</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         </is>
       </c>
       <c r="R24" t="n">
-        <v>2.99</v>
+        <v>3.3</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>3.24</v>
+        <v>3.76</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/solin-orijent/A7wjlQQf/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/vukovar-1991-cibalia/Srlok6Bl/</t>
         </is>
       </c>
     </row>
@@ -2873,71 +2873,71 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Zrinski Jurjevac</t>
+          <t>Orijent</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Bijelo Brdo</t>
+          <t>Sibenik</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J27" t="n">
-        <v>2.1</v>
+        <v>4.75</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>08/09/2023 04:42</t>
+          <t>09/09/2023 14:42</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>1.85</v>
+        <v>3.89</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
+          <t>09/09/2023 16:26</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>09/09/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P27" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
           <t>09/09/2023 16:23</t>
         </is>
       </c>
-      <c r="N27" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>08/09/2023 04:42</t>
-        </is>
-      </c>
-      <c r="P27" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>09/09/2023 16:23</t>
-        </is>
-      </c>
       <c r="R27" t="n">
-        <v>3.2</v>
+        <v>1.63</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>08/09/2023 04:42</t>
+          <t>09/09/2023 14:42</t>
         </is>
       </c>
       <c r="T27" t="n">
-        <v>4.23</v>
+        <v>1.84</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>09/09/2023 16:23</t>
+          <t>09/09/2023 16:26</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/zrinski-jurjevac-bijelo-brdo/IXtbn4e7/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/orijent-sibenik/dOu2oOAD/</t>
         </is>
       </c>
     </row>
@@ -2965,71 +2965,71 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Orijent</t>
+          <t>Dugopolje</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Sibenik</t>
+          <t>Jarun</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>4.75</v>
+        <v>1.7</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>09/09/2023 14:42</t>
+          <t>08/09/2023 04:42</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>3.89</v>
+        <v>1.78</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>09/09/2023 16:26</t>
+          <t>09/09/2023 16:21</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.9</v>
+        <v>3.62</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>09/09/2023 14:42</t>
+          <t>08/09/2023 04:42</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.68</v>
+        <v>3.67</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>09/09/2023 16:23</t>
+          <t>09/09/2023 16:21</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>1.63</v>
+        <v>3.95</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>09/09/2023 14:42</t>
+          <t>08/09/2023 04:42</t>
         </is>
       </c>
       <c r="T28" t="n">
-        <v>1.84</v>
+        <v>4.23</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>09/09/2023 16:26</t>
+          <t>09/09/2023 16:21</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/orijent-sibenik/dOu2oOAD/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/dugopolje-jarun/Gvap8oIQ/</t>
         </is>
       </c>
     </row>
@@ -3057,22 +3057,22 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Dugopolje</t>
+          <t>Zrinski Jurjevac</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Jarun</t>
+          <t>Bijelo Brdo</t>
         </is>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3080,15 +3080,15 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>09/09/2023 16:21</t>
+          <t>09/09/2023 16:23</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.62</v>
+        <v>3.17</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3096,15 +3096,15 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.67</v>
+        <v>3.4</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>09/09/2023 16:21</t>
+          <t>09/09/2023 16:23</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>3.95</v>
+        <v>3.2</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -3116,12 +3116,12 @@
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>09/09/2023 16:21</t>
+          <t>09/09/2023 16:23</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/dugopolje-jarun/Gvap8oIQ/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/zrinski-jurjevac-bijelo-brdo/IXtbn4e7/</t>
         </is>
       </c>
     </row>
@@ -3609,22 +3609,22 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Bijelo Brdo</t>
+          <t>Solin</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Dubrava</t>
+          <t>Sesvete</t>
         </is>
       </c>
       <c r="I35" t="n">
         <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3632,15 +3632,15 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>2.54</v>
+        <v>1.79</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>16/09/2023 16:29</t>
+          <t>16/09/2023 16:26</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.12</v>
+        <v>3.3</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3648,15 +3648,15 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.11</v>
+        <v>3.75</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>16/09/2023 16:29</t>
+          <t>16/09/2023 16:26</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>3</v>
+        <v>3.17</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
@@ -3664,16 +3664,16 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>2.81</v>
+        <v>4.08</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>16/09/2023 16:29</t>
+          <t>16/09/2023 16:26</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/bijelo-brdo-dubrava-zagreb/zPuH2Pul/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/solin-sesvete/MurTaNP6/</t>
         </is>
       </c>
     </row>
@@ -3701,22 +3701,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Solin</t>
+          <t>Bijelo Brdo</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Sesvete</t>
+          <t>Dubrava</t>
         </is>
       </c>
       <c r="I36" t="n">
         <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3724,15 +3724,15 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>1.79</v>
+        <v>2.54</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>16/09/2023 16:26</t>
+          <t>16/09/2023 16:29</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.3</v>
+        <v>3.12</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3740,15 +3740,15 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.75</v>
+        <v>3.11</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>16/09/2023 16:26</t>
+          <t>16/09/2023 16:29</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>3.17</v>
+        <v>3</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
@@ -3756,16 +3756,16 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>4.08</v>
+        <v>2.81</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>16/09/2023 16:26</t>
+          <t>16/09/2023 16:29</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/solin-sesvete/MurTaNP6/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/bijelo-brdo-dubrava-zagreb/zPuH2Pul/</t>
         </is>
       </c>
     </row>
@@ -4962,6 +4962,98 @@
       <c r="V49" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/croatia/prva-nl/sibenik-dugopolje/rFfJAvvP/</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>croatia</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>prva-nl</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>45205.625</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Sesvete</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>1</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Orijent</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>1</v>
+      </c>
+      <c r="J50" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>05/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>06/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>05/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P50" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>06/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="R50" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>05/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T50" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>06/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/sesvete-orijent/dMAZCUKh/</t>
         </is>
       </c>
     </row>

--- a/2023/croatia_prva-nl_2023-2024.xlsx
+++ b/2023/croatia_prva-nl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V50"/>
+  <dimension ref="A1:V53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -757,71 +757,71 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Sesvete</t>
+          <t>Orijent</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Dugopolje</t>
+          <t>Dubrava</t>
         </is>
       </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>2.49</v>
+        <v>2.12</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>12/08/2023 17:11</t>
+          <t>11/08/2023 05:43</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>2.26</v>
+        <v>2.01</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>12/08/2023 17:25</t>
+          <t>12/08/2023 17:29</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>2.94</v>
+        <v>3.2</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>12/08/2023 17:11</t>
+          <t>11/08/2023 05:43</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>3.14</v>
+        <v>3.38</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>12/08/2023 17:25</t>
+          <t>12/08/2023 17:29</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>2.65</v>
+        <v>3.12</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>12/08/2023 17:11</t>
+          <t>11/08/2023 05:43</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>3.23</v>
+        <v>3.59</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>12/08/2023 17:25</t>
+          <t>12/08/2023 17:29</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/sesvete-dugopolje/jNS5LRAt/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/orijent-dubrava-zagreb/Cdce1OPO/</t>
         </is>
       </c>
     </row>
@@ -849,7 +849,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Orijent</t>
+          <t>Cibalia</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -857,14 +857,14 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Dubrava</t>
+          <t>Croatia Zmijavci</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>2.12</v>
+        <v>1.65</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -872,15 +872,15 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>2.01</v>
+        <v>2.02</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>12/08/2023 17:29</t>
+          <t>12/08/2023 15:37</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.2</v>
+        <v>3.47</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -888,15 +888,15 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3.38</v>
+        <v>3.47</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>12/08/2023 17:29</t>
+          <t>12/08/2023 17:16</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>3.12</v>
+        <v>4.52</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
@@ -904,16 +904,16 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>3.59</v>
+        <v>3.45</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>12/08/2023 17:29</t>
+          <t>12/08/2023 17:16</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/orijent-dubrava-zagreb/Cdce1OPO/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/cibalia-croatia-zmijavci/E1yvQ72P/</t>
         </is>
       </c>
     </row>
@@ -941,71 +941,71 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Cibalia</t>
+          <t>Sesvete</t>
         </is>
       </c>
       <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Dugopolje</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
         <v>1</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Croatia Zmijavci</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
       <c r="J6" t="n">
-        <v>1.65</v>
+        <v>2.49</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>11/08/2023 05:43</t>
+          <t>12/08/2023 17:11</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>2.02</v>
+        <v>2.26</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>12/08/2023 15:37</t>
+          <t>12/08/2023 17:25</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.47</v>
+        <v>2.94</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>11/08/2023 05:43</t>
+          <t>12/08/2023 17:11</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.47</v>
+        <v>3.14</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>12/08/2023 17:16</t>
+          <t>12/08/2023 17:25</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>4.52</v>
+        <v>2.65</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>11/08/2023 05:43</t>
+          <t>12/08/2023 17:11</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>3.45</v>
+        <v>3.23</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>12/08/2023 17:16</t>
+          <t>12/08/2023 17:25</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/cibalia-croatia-zmijavci/E1yvQ72P/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/sesvete-dugopolje/jNS5LRAt/</t>
         </is>
       </c>
     </row>
@@ -2965,22 +2965,22 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Dugopolje</t>
+          <t>Zrinski Jurjevac</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Jarun</t>
+          <t>Bijelo Brdo</t>
         </is>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2988,15 +2988,15 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>09/09/2023 16:21</t>
+          <t>09/09/2023 16:23</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.62</v>
+        <v>3.17</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,15 +3004,15 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.67</v>
+        <v>3.4</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>09/09/2023 16:21</t>
+          <t>09/09/2023 16:23</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>3.95</v>
+        <v>3.2</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3024,12 +3024,12 @@
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>09/09/2023 16:21</t>
+          <t>09/09/2023 16:23</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/dugopolje-jarun/Gvap8oIQ/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/zrinski-jurjevac-bijelo-brdo/IXtbn4e7/</t>
         </is>
       </c>
     </row>
@@ -3057,22 +3057,22 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Zrinski Jurjevac</t>
+          <t>Dugopolje</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Bijelo Brdo</t>
+          <t>Jarun</t>
         </is>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3080,15 +3080,15 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>09/09/2023 16:23</t>
+          <t>09/09/2023 16:21</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.17</v>
+        <v>3.62</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3096,15 +3096,15 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.4</v>
+        <v>3.67</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>09/09/2023 16:23</t>
+          <t>09/09/2023 16:21</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>3.2</v>
+        <v>3.95</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -3116,12 +3116,12 @@
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>09/09/2023 16:23</t>
+          <t>09/09/2023 16:21</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/zrinski-jurjevac-bijelo-brdo/IXtbn4e7/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/dugopolje-jarun/Gvap8oIQ/</t>
         </is>
       </c>
     </row>
@@ -5054,6 +5054,282 @@
       <c r="V50" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/croatia/prva-nl/sesvete-orijent/dMAZCUKh/</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>croatia</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>prva-nl</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>45206.57638888889</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Jarun</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Vukovar 1991</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>3</v>
+      </c>
+      <c r="J51" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>06/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>07/10/2023 13:34</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>06/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P51" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>07/10/2023 13:34</t>
+        </is>
+      </c>
+      <c r="R51" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>06/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T51" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>07/10/2023 13:34</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/jarun-vukovar-1991/pdMk9nKH/</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>croatia</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>prva-nl</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>45206.625</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Cibalia</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Bijelo Brdo</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>1</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>06/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>07/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>06/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P52" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>07/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="R52" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>06/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T52" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>07/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/cibalia-bijelo-brdo/IVBVDA5n/</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>croatia</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>prva-nl</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>45206.625</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Dugopolje</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Zrinski Jurjevac</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>06/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>07/10/2023 14:02</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>06/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P53" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>07/10/2023 14:02</t>
+        </is>
+      </c>
+      <c r="R53" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>06/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T53" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>07/10/2023 14:02</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/dugopolje-zrinski-jurjevac/Ec5vClza/</t>
         </is>
       </c>
     </row>

--- a/2023/croatia_prva-nl_2023-2024.xlsx
+++ b/2023/croatia_prva-nl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V53"/>
+  <dimension ref="A1:V54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1861,22 +1861,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Orijent</t>
+          <t>Cibalia</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Vukovar 1991</t>
+          <t>Jarun</t>
         </is>
       </c>
       <c r="I16" t="n">
         <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>2.76</v>
+        <v>1.64</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1884,15 +1884,15 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>1.93</v>
+        <v>1.74</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>26/08/2023 16:55</t>
+          <t>26/08/2023 16:52</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.12</v>
+        <v>3.71</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.54</v>
+        <v>3.86</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         </is>
       </c>
       <c r="R16" t="n">
-        <v>2.31</v>
+        <v>4.42</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1916,16 +1916,16 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>3.68</v>
+        <v>4.19</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>26/08/2023 16:59</t>
+          <t>26/08/2023 16:52</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/orijent-vukovar-1991/d0sFnDkj/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/cibalia-jarun/zitJoX4d/</t>
         </is>
       </c>
     </row>
@@ -1953,22 +1953,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Cibalia</t>
+          <t>Orijent</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Jarun</t>
+          <t>Vukovar 1991</t>
         </is>
       </c>
       <c r="I17" t="n">
         <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>1.64</v>
+        <v>2.76</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1976,48 +1976,48 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>1.74</v>
+        <v>1.93</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
+          <t>26/08/2023 16:55</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>25/08/2023 05:12</t>
+        </is>
+      </c>
+      <c r="P17" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
           <t>26/08/2023 16:52</t>
         </is>
       </c>
-      <c r="N17" t="n">
-        <v>3.71</v>
-      </c>
-      <c r="O17" t="inlineStr">
+      <c r="R17" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="S17" t="inlineStr">
         <is>
           <t>25/08/2023 05:12</t>
         </is>
       </c>
-      <c r="P17" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>26/08/2023 16:52</t>
-        </is>
-      </c>
-      <c r="R17" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>25/08/2023 05:12</t>
-        </is>
-      </c>
       <c r="T17" t="n">
-        <v>4.19</v>
+        <v>3.68</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>26/08/2023 16:52</t>
+          <t>26/08/2023 16:59</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/cibalia-jarun/zitJoX4d/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/orijent-vukovar-1991/d0sFnDkj/</t>
         </is>
       </c>
     </row>
@@ -5330,6 +5330,98 @@
       <c r="V53" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/croatia/prva-nl/dugopolje-zrinski-jurjevac/Ec5vClza/</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>croatia</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>prva-nl</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>45207.625</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Croatia Zmijavci</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Sibenik</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>06/10/2023 10:42</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>06/10/2023 10:42</t>
+        </is>
+      </c>
+      <c r="P54" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="R54" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>06/10/2023 10:42</t>
+        </is>
+      </c>
+      <c r="T54" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/croatia-zmijavci-sibenik/hl4rB8k5/</t>
         </is>
       </c>
     </row>

--- a/2023/croatia_prva-nl_2023-2024.xlsx
+++ b/2023/croatia_prva-nl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V54"/>
+  <dimension ref="A1:V55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5425,6 +5425,98 @@
         </is>
       </c>
     </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>croatia</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>prva-nl</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>45208.625</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Dubrava</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>1</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Solin</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>1</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>06/10/2023 10:42</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:18</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>06/10/2023 10:42</t>
+        </is>
+      </c>
+      <c r="P55" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:50</t>
+        </is>
+      </c>
+      <c r="R55" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>06/10/2023 10:42</t>
+        </is>
+      </c>
+      <c r="T55" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:50</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/dubrava-zagreb-solin/nB3nAS4B/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/croatia_prva-nl_2023-2024.xlsx
+++ b/2023/croatia_prva-nl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V55"/>
+  <dimension ref="A1:V56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1861,22 +1861,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Cibalia</t>
+          <t>Orijent</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Jarun</t>
+          <t>Vukovar 1991</t>
         </is>
       </c>
       <c r="I16" t="n">
         <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>1.64</v>
+        <v>2.76</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1884,48 +1884,48 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>1.74</v>
+        <v>1.93</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
+          <t>26/08/2023 16:55</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>25/08/2023 05:12</t>
+        </is>
+      </c>
+      <c r="P16" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
           <t>26/08/2023 16:52</t>
         </is>
       </c>
-      <c r="N16" t="n">
-        <v>3.71</v>
-      </c>
-      <c r="O16" t="inlineStr">
+      <c r="R16" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="S16" t="inlineStr">
         <is>
           <t>25/08/2023 05:12</t>
         </is>
       </c>
-      <c r="P16" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>26/08/2023 16:52</t>
-        </is>
-      </c>
-      <c r="R16" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>25/08/2023 05:12</t>
-        </is>
-      </c>
       <c r="T16" t="n">
-        <v>4.19</v>
+        <v>3.68</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>26/08/2023 16:52</t>
+          <t>26/08/2023 16:59</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/cibalia-jarun/zitJoX4d/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/orijent-vukovar-1991/d0sFnDkj/</t>
         </is>
       </c>
     </row>
@@ -1953,22 +1953,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Orijent</t>
+          <t>Cibalia</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Vukovar 1991</t>
+          <t>Jarun</t>
         </is>
       </c>
       <c r="I17" t="n">
         <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>2.76</v>
+        <v>1.64</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1976,15 +1976,15 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>1.93</v>
+        <v>1.74</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>26/08/2023 16:55</t>
+          <t>26/08/2023 16:52</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.12</v>
+        <v>3.71</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.54</v>
+        <v>3.86</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -2000,7 +2000,7 @@
         </is>
       </c>
       <c r="R17" t="n">
-        <v>2.31</v>
+        <v>4.42</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2008,16 +2008,16 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>3.68</v>
+        <v>4.19</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>26/08/2023 16:59</t>
+          <t>26/08/2023 16:52</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/orijent-vukovar-1991/d0sFnDkj/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/cibalia-jarun/zitJoX4d/</t>
         </is>
       </c>
     </row>
@@ -2873,71 +2873,71 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Orijent</t>
+          <t>Dugopolje</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Sibenik</t>
+          <t>Jarun</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>4.75</v>
+        <v>1.7</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>09/09/2023 14:42</t>
+          <t>08/09/2023 04:42</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>3.89</v>
+        <v>1.78</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>09/09/2023 16:26</t>
+          <t>09/09/2023 16:21</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.9</v>
+        <v>3.62</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>09/09/2023 14:42</t>
+          <t>08/09/2023 04:42</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.68</v>
+        <v>3.67</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>09/09/2023 16:23</t>
+          <t>09/09/2023 16:21</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>1.63</v>
+        <v>3.95</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>09/09/2023 14:42</t>
+          <t>08/09/2023 04:42</t>
         </is>
       </c>
       <c r="T27" t="n">
-        <v>1.84</v>
+        <v>4.23</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>09/09/2023 16:26</t>
+          <t>09/09/2023 16:21</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/orijent-sibenik/dOu2oOAD/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/dugopolje-jarun/Gvap8oIQ/</t>
         </is>
       </c>
     </row>
@@ -3057,71 +3057,71 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Dugopolje</t>
+          <t>Orijent</t>
         </is>
       </c>
       <c r="G29" t="n">
+        <v>5</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Sibenik</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
         <v>4</v>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Jarun</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
       <c r="J29" t="n">
-        <v>1.7</v>
+        <v>4.75</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>08/09/2023 04:42</t>
+          <t>09/09/2023 14:42</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.78</v>
+        <v>3.89</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>09/09/2023 16:21</t>
+          <t>09/09/2023 16:26</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.62</v>
+        <v>3.9</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>08/09/2023 04:42</t>
+          <t>09/09/2023 14:42</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.67</v>
+        <v>3.68</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>09/09/2023 16:21</t>
+          <t>09/09/2023 16:23</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>3.95</v>
+        <v>1.63</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>08/09/2023 04:42</t>
+          <t>09/09/2023 14:42</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>4.23</v>
+        <v>1.84</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>09/09/2023 16:21</t>
+          <t>09/09/2023 16:26</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/dugopolje-jarun/Gvap8oIQ/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/orijent-sibenik/dOu2oOAD/</t>
         </is>
       </c>
     </row>
@@ -5514,6 +5514,98 @@
       <c r="V55" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/croatia/prva-nl/dubrava-zagreb-solin/nB3nAS4B/</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>croatia</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>prva-nl</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>45210.625</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Bijelo Brdo</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>1</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Vukovar 1991</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>3</v>
+      </c>
+      <c r="J56" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>10/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>11/10/2023 14:57</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>10/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P56" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>11/10/2023 14:57</t>
+        </is>
+      </c>
+      <c r="R56" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>10/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T56" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>11/10/2023 14:57</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/bijelo-brdo-vukovar-1991/SKBf86ZN/</t>
         </is>
       </c>
     </row>

--- a/2023/croatia_prva-nl_2023-2024.xlsx
+++ b/2023/croatia_prva-nl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V56"/>
+  <dimension ref="A1:V59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1769,22 +1769,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Zrinski Jurjevac</t>
+          <t>Orijent</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Solin</t>
+          <t>Vukovar 1991</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>1.95</v>
+        <v>2.76</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>2.22</v>
+        <v>1.93</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>26/08/2023 16:56</t>
+          <t>26/08/2023 16:55</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.34</v>
+        <v>3.12</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,15 +1808,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.32</v>
+        <v>3.54</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>26/08/2023 16:56</t>
+          <t>26/08/2023 16:52</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>3.29</v>
+        <v>2.31</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>3.12</v>
+        <v>3.68</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>26/08/2023 16:56</t>
+          <t>26/08/2023 16:59</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/zrinski-jurjevac-solin/vPnAmgzp/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/orijent-vukovar-1991/d0sFnDkj/</t>
         </is>
       </c>
     </row>
@@ -1861,22 +1861,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Orijent</t>
+          <t>Cibalia</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Vukovar 1991</t>
+          <t>Jarun</t>
         </is>
       </c>
       <c r="I16" t="n">
         <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>2.76</v>
+        <v>1.64</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1884,15 +1884,15 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>1.93</v>
+        <v>1.74</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>26/08/2023 16:55</t>
+          <t>26/08/2023 16:52</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.12</v>
+        <v>3.71</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.54</v>
+        <v>3.86</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         </is>
       </c>
       <c r="R16" t="n">
-        <v>2.31</v>
+        <v>4.42</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1916,16 +1916,16 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>3.68</v>
+        <v>4.19</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>26/08/2023 16:59</t>
+          <t>26/08/2023 16:52</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/orijent-vukovar-1991/d0sFnDkj/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/cibalia-jarun/zitJoX4d/</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Cibalia</t>
+          <t>Zrinski Jurjevac</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1961,14 +1961,14 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Jarun</t>
+          <t>Solin</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1.64</v>
+        <v>1.95</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1976,15 +1976,15 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>1.74</v>
+        <v>2.22</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>26/08/2023 16:52</t>
+          <t>26/08/2023 16:56</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.71</v>
+        <v>3.34</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1992,15 +1992,15 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.86</v>
+        <v>3.32</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>26/08/2023 16:52</t>
+          <t>26/08/2023 16:56</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>4.42</v>
+        <v>3.29</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2008,16 +2008,16 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>4.19</v>
+        <v>3.12</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>26/08/2023 16:52</t>
+          <t>26/08/2023 16:56</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/cibalia-jarun/zitJoX4d/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/zrinski-jurjevac-solin/vPnAmgzp/</t>
         </is>
       </c>
     </row>
@@ -2873,71 +2873,71 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Dugopolje</t>
+          <t>Orijent</t>
         </is>
       </c>
       <c r="G27" t="n">
+        <v>5</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Sibenik</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
         <v>4</v>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>Jarun</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
       <c r="J27" t="n">
-        <v>1.7</v>
+        <v>4.75</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>08/09/2023 04:42</t>
+          <t>09/09/2023 14:42</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>1.78</v>
+        <v>3.89</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>09/09/2023 16:21</t>
+          <t>09/09/2023 16:26</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.62</v>
+        <v>3.9</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>08/09/2023 04:42</t>
+          <t>09/09/2023 14:42</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.67</v>
+        <v>3.68</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>09/09/2023 16:21</t>
+          <t>09/09/2023 16:23</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>3.95</v>
+        <v>1.63</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>08/09/2023 04:42</t>
+          <t>09/09/2023 14:42</t>
         </is>
       </c>
       <c r="T27" t="n">
-        <v>4.23</v>
+        <v>1.84</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>09/09/2023 16:21</t>
+          <t>09/09/2023 16:26</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/dugopolje-jarun/Gvap8oIQ/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/orijent-sibenik/dOu2oOAD/</t>
         </is>
       </c>
     </row>
@@ -3057,71 +3057,71 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Orijent</t>
+          <t>Dugopolje</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Sibenik</t>
+          <t>Jarun</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>4.75</v>
+        <v>1.7</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>09/09/2023 14:42</t>
+          <t>08/09/2023 04:42</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>3.89</v>
+        <v>1.78</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>09/09/2023 16:26</t>
+          <t>09/09/2023 16:21</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.9</v>
+        <v>3.62</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>09/09/2023 14:42</t>
+          <t>08/09/2023 04:42</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.68</v>
+        <v>3.67</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>09/09/2023 16:23</t>
+          <t>09/09/2023 16:21</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>1.63</v>
+        <v>3.95</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>09/09/2023 14:42</t>
+          <t>08/09/2023 04:42</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>1.84</v>
+        <v>4.23</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>09/09/2023 16:26</t>
+          <t>09/09/2023 16:21</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/orijent-sibenik/dOu2oOAD/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/dugopolje-jarun/Gvap8oIQ/</t>
         </is>
       </c>
     </row>
@@ -5606,6 +5606,282 @@
       <c r="V56" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/croatia/prva-nl/bijelo-brdo-vukovar-1991/SKBf86ZN/</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>croatia</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>prva-nl</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>45213.625</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Cibalia</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Sesvete</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>1</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>13/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>14/10/2023 14:59</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>13/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P57" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>14/10/2023 14:59</t>
+        </is>
+      </c>
+      <c r="R57" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>13/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T57" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>14/10/2023 14:59</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/cibalia-sesvete/h2qHP74b/</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>croatia</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>prva-nl</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>45213.625</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Solin</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>1</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Jarun</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>1</v>
+      </c>
+      <c r="J58" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>13/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>14/10/2023 14:51</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>13/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P58" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>14/10/2023 14:51</t>
+        </is>
+      </c>
+      <c r="R58" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>13/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T58" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>14/10/2023 14:51</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/solin-jarun/6BAb7QlU/</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>croatia</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>prva-nl</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>45213.625</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Zrinski Jurjevac</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>4</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Croatia Zmijavci</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>13/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>14/10/2023 14:53</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>13/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P59" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>14/10/2023 14:53</t>
+        </is>
+      </c>
+      <c r="R59" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>13/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T59" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>14/10/2023 14:53</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/zrinski-jurjevac-croatia-zmijavci/dzj8RTZo/</t>
         </is>
       </c>
     </row>

--- a/2023/croatia_prva-nl_2023-2024.xlsx
+++ b/2023/croatia_prva-nl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V59"/>
+  <dimension ref="A1:V60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Cibalia</t>
+          <t>Zrinski Jurjevac</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1869,14 +1869,14 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Jarun</t>
+          <t>Solin</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1.64</v>
+        <v>1.95</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1884,15 +1884,15 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>1.74</v>
+        <v>2.22</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>26/08/2023 16:52</t>
+          <t>26/08/2023 16:56</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.71</v>
+        <v>3.34</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1900,15 +1900,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.86</v>
+        <v>3.32</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>26/08/2023 16:52</t>
+          <t>26/08/2023 16:56</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>4.42</v>
+        <v>3.29</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1916,16 +1916,16 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>4.19</v>
+        <v>3.12</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>26/08/2023 16:52</t>
+          <t>26/08/2023 16:56</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/cibalia-jarun/zitJoX4d/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/zrinski-jurjevac-solin/vPnAmgzp/</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Zrinski Jurjevac</t>
+          <t>Cibalia</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1961,14 +1961,14 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Solin</t>
+          <t>Jarun</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>1.95</v>
+        <v>1.64</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1976,15 +1976,15 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>2.22</v>
+        <v>1.74</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>26/08/2023 16:56</t>
+          <t>26/08/2023 16:52</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.34</v>
+        <v>3.71</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1992,15 +1992,15 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.32</v>
+        <v>3.86</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>26/08/2023 16:56</t>
+          <t>26/08/2023 16:52</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>3.29</v>
+        <v>4.42</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2008,16 +2008,16 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>3.12</v>
+        <v>4.19</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>26/08/2023 16:56</t>
+          <t>26/08/2023 16:52</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/zrinski-jurjevac-solin/vPnAmgzp/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/cibalia-jarun/zitJoX4d/</t>
         </is>
       </c>
     </row>
@@ -2321,30 +2321,30 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Jarun</t>
+          <t>Vukovar 1991</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Sesvete</t>
+          <t>Cibalia</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>1.9</v>
+        <v>2.07</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>02/09/2023 13:42</t>
+          <t>01/09/2023 04:43</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>2.22</v>
+        <v>1.98</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -2352,31 +2352,31 @@
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.57</v>
+        <v>3.14</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>02/09/2023 13:42</t>
+          <t>01/09/2023 04:43</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.56</v>
+        <v>3.32</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>02/09/2023 16:23</t>
+          <t>02/09/2023 16:28</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>3.54</v>
+        <v>3.3</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>02/09/2023 13:42</t>
+          <t>01/09/2023 04:43</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>2.94</v>
+        <v>3.76</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/jarun-sesvete/lhksjndr/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/vukovar-1991-cibalia/Srlok6Bl/</t>
         </is>
       </c>
     </row>
@@ -2413,22 +2413,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Bijelo Brdo</t>
+          <t>Solin</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Croatia Zmijavci</t>
+          <t>Orijent</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>2.03</v>
+        <v>2.08</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>2.42</v>
+        <v>2.05</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.16</v>
+        <v>3.34</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.18</v>
+        <v>3.65</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         </is>
       </c>
       <c r="R22" t="n">
-        <v>3.36</v>
+        <v>2.99</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>2.91</v>
+        <v>3.24</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/bijelo-brdo-croatia-zmijavci/rgN98fC9/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/solin-orijent/A7wjlQQf/</t>
         </is>
       </c>
     </row>
@@ -2505,30 +2505,30 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Solin</t>
+          <t>Jarun</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Orijent</t>
+          <t>Sesvete</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>2.08</v>
+        <v>1.9</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>01/09/2023 04:43</t>
+          <t>02/09/2023 13:42</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2.05</v>
+        <v>2.22</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -2536,40 +2536,40 @@
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.34</v>
+        <v>3.57</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>01/09/2023 04:43</t>
+          <t>02/09/2023 13:42</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.65</v>
+        <v>3.56</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
+          <t>02/09/2023 16:23</t>
+        </is>
+      </c>
+      <c r="R23" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>02/09/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T23" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
           <t>02/09/2023 16:28</t>
         </is>
       </c>
-      <c r="R23" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>01/09/2023 04:43</t>
-        </is>
-      </c>
-      <c r="T23" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>02/09/2023 16:28</t>
-        </is>
-      </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/solin-orijent/A7wjlQQf/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/jarun-sesvete/lhksjndr/</t>
         </is>
       </c>
     </row>
@@ -2597,22 +2597,22 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Vukovar 1991</t>
+          <t>Bijelo Brdo</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Cibalia</t>
+          <t>Croatia Zmijavci</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>2.07</v>
+        <v>2.03</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>1.98</v>
+        <v>2.42</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -2628,7 +2628,7 @@
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.14</v>
+        <v>3.16</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2636,7 +2636,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.32</v>
+        <v>3.18</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         </is>
       </c>
       <c r="R24" t="n">
-        <v>3.3</v>
+        <v>3.36</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>3.76</v>
+        <v>2.91</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/vukovar-1991-cibalia/Srlok6Bl/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/bijelo-brdo-croatia-zmijavci/rgN98fC9/</t>
         </is>
       </c>
     </row>
@@ -2873,46 +2873,46 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Orijent</t>
+          <t>Zrinski Jurjevac</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Sibenik</t>
+          <t>Bijelo Brdo</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>4.75</v>
+        <v>2.1</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>09/09/2023 14:42</t>
+          <t>08/09/2023 04:42</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>3.89</v>
+        <v>1.85</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>09/09/2023 16:26</t>
+          <t>09/09/2023 16:23</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.9</v>
+        <v>3.17</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>09/09/2023 14:42</t>
+          <t>08/09/2023 04:42</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.68</v>
+        <v>3.4</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2920,24 +2920,24 @@
         </is>
       </c>
       <c r="R27" t="n">
-        <v>1.63</v>
+        <v>3.2</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>09/09/2023 14:42</t>
+          <t>08/09/2023 04:42</t>
         </is>
       </c>
       <c r="T27" t="n">
-        <v>1.84</v>
+        <v>4.23</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>09/09/2023 16:26</t>
+          <t>09/09/2023 16:23</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/orijent-sibenik/dOu2oOAD/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/zrinski-jurjevac-bijelo-brdo/IXtbn4e7/</t>
         </is>
       </c>
     </row>
@@ -2965,71 +2965,71 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Zrinski Jurjevac</t>
+          <t>Orijent</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Bijelo Brdo</t>
+          <t>Sibenik</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J28" t="n">
-        <v>2.1</v>
+        <v>4.75</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>08/09/2023 04:42</t>
+          <t>09/09/2023 14:42</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>1.85</v>
+        <v>3.89</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
+          <t>09/09/2023 16:26</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>09/09/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P28" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
           <t>09/09/2023 16:23</t>
         </is>
       </c>
-      <c r="N28" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>08/09/2023 04:42</t>
-        </is>
-      </c>
-      <c r="P28" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>09/09/2023 16:23</t>
-        </is>
-      </c>
       <c r="R28" t="n">
-        <v>3.2</v>
+        <v>1.63</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>08/09/2023 04:42</t>
+          <t>09/09/2023 14:42</t>
         </is>
       </c>
       <c r="T28" t="n">
-        <v>4.23</v>
+        <v>1.84</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>09/09/2023 16:23</t>
+          <t>09/09/2023 16:26</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/zrinski-jurjevac-bijelo-brdo/IXtbn4e7/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/orijent-sibenik/dOu2oOAD/</t>
         </is>
       </c>
     </row>
@@ -5173,7 +5173,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Cibalia</t>
+          <t>Dugopolje</t>
         </is>
       </c>
       <c r="G52" t="n">
@@ -5181,14 +5181,14 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Bijelo Brdo</t>
+          <t>Zrinski Jurjevac</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>1.69</v>
+        <v>2.05</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5196,15 +5196,15 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>1.78</v>
+        <v>2.15</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>07/10/2023 14:42</t>
+          <t>07/10/2023 14:02</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.44</v>
+        <v>3.21</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5212,15 +5212,15 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.57</v>
+        <v>3.39</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>07/10/2023 14:42</t>
+          <t>07/10/2023 14:02</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>4.27</v>
+        <v>3.17</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>4.38</v>
+        <v>3.2</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>07/10/2023 14:42</t>
+          <t>07/10/2023 14:02</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/cibalia-bijelo-brdo/IVBVDA5n/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/dugopolje-zrinski-jurjevac/Ec5vClza/</t>
         </is>
       </c>
     </row>
@@ -5265,7 +5265,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Dugopolje</t>
+          <t>Cibalia</t>
         </is>
       </c>
       <c r="G53" t="n">
@@ -5273,14 +5273,14 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Zrinski Jurjevac</t>
+          <t>Bijelo Brdo</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>2.05</v>
+        <v>1.69</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -5288,15 +5288,15 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>2.15</v>
+        <v>1.78</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>07/10/2023 14:02</t>
+          <t>07/10/2023 14:42</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.21</v>
+        <v>3.44</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -5304,15 +5304,15 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.39</v>
+        <v>3.57</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>07/10/2023 14:02</t>
+          <t>07/10/2023 14:42</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>3.17</v>
+        <v>4.27</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
@@ -5320,16 +5320,16 @@
         </is>
       </c>
       <c r="T53" t="n">
-        <v>3.2</v>
+        <v>4.38</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>07/10/2023 14:02</t>
+          <t>07/10/2023 14:42</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/dugopolje-zrinski-jurjevac/Ec5vClza/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/cibalia-bijelo-brdo/IVBVDA5n/</t>
         </is>
       </c>
     </row>
@@ -5882,6 +5882,98 @@
       <c r="V59" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/croatia/prva-nl/zrinski-jurjevac-croatia-zmijavci/dzj8RTZo/</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>croatia</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>prva-nl</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>45213.75</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Sibenik</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>4</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Dubrava</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>13/10/2023 05:12</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>14/10/2023 17:45</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>13/10/2023 05:12</t>
+        </is>
+      </c>
+      <c r="P60" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>14/10/2023 17:45</t>
+        </is>
+      </c>
+      <c r="R60" t="n">
+        <v>6.94</v>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>13/10/2023 05:12</t>
+        </is>
+      </c>
+      <c r="T60" t="n">
+        <v>9.76</v>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>14/10/2023 17:45</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/sibenik-dubrava-zagreb/Iqi4S9Ku/</t>
         </is>
       </c>
     </row>

--- a/2023/croatia_prva-nl_2023-2024.xlsx
+++ b/2023/croatia_prva-nl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V60"/>
+  <dimension ref="A1:V61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5977,6 +5977,98 @@
         </is>
       </c>
     </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>croatia</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>prva-nl</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>45214.625</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Orijent</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>1</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Dugopolje</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>2</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>14/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>2</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>15/10/2023 14:55</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>14/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P61" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>15/10/2023 14:55</t>
+        </is>
+      </c>
+      <c r="R61" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>14/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T61" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>15/10/2023 14:55</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/orijent-dugopolje/vauDQmkh/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/croatia_prva-nl_2023-2024.xlsx
+++ b/2023/croatia_prva-nl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V61"/>
+  <dimension ref="A1:V62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2965,71 +2965,71 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Orijent</t>
+          <t>Dugopolje</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Sibenik</t>
+          <t>Jarun</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>4.75</v>
+        <v>1.7</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>09/09/2023 14:42</t>
+          <t>08/09/2023 04:42</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>3.89</v>
+        <v>1.78</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>09/09/2023 16:26</t>
+          <t>09/09/2023 16:21</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.9</v>
+        <v>3.62</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>09/09/2023 14:42</t>
+          <t>08/09/2023 04:42</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.68</v>
+        <v>3.67</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>09/09/2023 16:23</t>
+          <t>09/09/2023 16:21</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>1.63</v>
+        <v>3.95</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>09/09/2023 14:42</t>
+          <t>08/09/2023 04:42</t>
         </is>
       </c>
       <c r="T28" t="n">
-        <v>1.84</v>
+        <v>4.23</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>09/09/2023 16:26</t>
+          <t>09/09/2023 16:21</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/orijent-sibenik/dOu2oOAD/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/dugopolje-jarun/Gvap8oIQ/</t>
         </is>
       </c>
     </row>
@@ -3057,71 +3057,71 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Dugopolje</t>
+          <t>Orijent</t>
         </is>
       </c>
       <c r="G29" t="n">
+        <v>5</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Sibenik</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
         <v>4</v>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Jarun</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
       <c r="J29" t="n">
-        <v>1.7</v>
+        <v>4.75</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>08/09/2023 04:42</t>
+          <t>09/09/2023 14:42</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.78</v>
+        <v>3.89</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>09/09/2023 16:21</t>
+          <t>09/09/2023 16:26</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.62</v>
+        <v>3.9</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>08/09/2023 04:42</t>
+          <t>09/09/2023 14:42</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.67</v>
+        <v>3.68</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>09/09/2023 16:21</t>
+          <t>09/09/2023 16:23</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>3.95</v>
+        <v>1.63</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>08/09/2023 04:42</t>
+          <t>09/09/2023 14:42</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>4.23</v>
+        <v>1.84</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>09/09/2023 16:21</t>
+          <t>09/09/2023 16:26</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/dugopolje-jarun/Gvap8oIQ/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/orijent-sibenik/dOu2oOAD/</t>
         </is>
       </c>
     </row>
@@ -6066,6 +6066,98 @@
       <c r="V61" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/croatia/prva-nl/orijent-dugopolje/vauDQmkh/</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>croatia</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>prva-nl</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>45219.625</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Sesvete</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>2</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Bijelo Brdo</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>19/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>20/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>19/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P62" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>20/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="R62" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>19/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T62" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>20/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/sesvete-bijelo-brdo/nPrLORJ4/</t>
         </is>
       </c>
     </row>

--- a/2023/croatia_prva-nl_2023-2024.xlsx
+++ b/2023/croatia_prva-nl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V62"/>
+  <dimension ref="A1:V65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1769,22 +1769,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Orijent</t>
+          <t>Cibalia</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Vukovar 1991</t>
+          <t>Jarun</t>
         </is>
       </c>
       <c r="I15" t="n">
         <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>2.76</v>
+        <v>1.64</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.93</v>
+        <v>1.74</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>26/08/2023 16:55</t>
+          <t>26/08/2023 16:52</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.12</v>
+        <v>3.71</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,7 +1808,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.54</v>
+        <v>3.86</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1816,7 +1816,7 @@
         </is>
       </c>
       <c r="R15" t="n">
-        <v>2.31</v>
+        <v>4.42</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>3.68</v>
+        <v>4.19</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>26/08/2023 16:59</t>
+          <t>26/08/2023 16:52</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/orijent-vukovar-1991/d0sFnDkj/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/cibalia-jarun/zitJoX4d/</t>
         </is>
       </c>
     </row>
@@ -1953,22 +1953,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Cibalia</t>
+          <t>Orijent</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Jarun</t>
+          <t>Vukovar 1991</t>
         </is>
       </c>
       <c r="I17" t="n">
         <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>1.64</v>
+        <v>2.76</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1976,48 +1976,48 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>1.74</v>
+        <v>1.93</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
+          <t>26/08/2023 16:55</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>25/08/2023 05:12</t>
+        </is>
+      </c>
+      <c r="P17" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
           <t>26/08/2023 16:52</t>
         </is>
       </c>
-      <c r="N17" t="n">
-        <v>3.71</v>
-      </c>
-      <c r="O17" t="inlineStr">
+      <c r="R17" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="S17" t="inlineStr">
         <is>
           <t>25/08/2023 05:12</t>
         </is>
       </c>
-      <c r="P17" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>26/08/2023 16:52</t>
-        </is>
-      </c>
-      <c r="R17" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>25/08/2023 05:12</t>
-        </is>
-      </c>
       <c r="T17" t="n">
-        <v>4.19</v>
+        <v>3.68</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>26/08/2023 16:52</t>
+          <t>26/08/2023 16:59</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/cibalia-jarun/zitJoX4d/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/orijent-vukovar-1991/d0sFnDkj/</t>
         </is>
       </c>
     </row>
@@ -2965,71 +2965,71 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Dugopolje</t>
+          <t>Orijent</t>
         </is>
       </c>
       <c r="G28" t="n">
+        <v>5</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Sibenik</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
         <v>4</v>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Jarun</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
       <c r="J28" t="n">
-        <v>1.7</v>
+        <v>4.75</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>08/09/2023 04:42</t>
+          <t>09/09/2023 14:42</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>1.78</v>
+        <v>3.89</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>09/09/2023 16:21</t>
+          <t>09/09/2023 16:26</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.62</v>
+        <v>3.9</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>08/09/2023 04:42</t>
+          <t>09/09/2023 14:42</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.67</v>
+        <v>3.68</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>09/09/2023 16:21</t>
+          <t>09/09/2023 16:23</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>3.95</v>
+        <v>1.63</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>08/09/2023 04:42</t>
+          <t>09/09/2023 14:42</t>
         </is>
       </c>
       <c r="T28" t="n">
-        <v>4.23</v>
+        <v>1.84</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>09/09/2023 16:21</t>
+          <t>09/09/2023 16:26</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/dugopolje-jarun/Gvap8oIQ/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/orijent-sibenik/dOu2oOAD/</t>
         </is>
       </c>
     </row>
@@ -3057,71 +3057,71 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Orijent</t>
+          <t>Dugopolje</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Sibenik</t>
+          <t>Jarun</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>4.75</v>
+        <v>1.7</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>09/09/2023 14:42</t>
+          <t>08/09/2023 04:42</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>3.89</v>
+        <v>1.78</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>09/09/2023 16:26</t>
+          <t>09/09/2023 16:21</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.9</v>
+        <v>3.62</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>09/09/2023 14:42</t>
+          <t>08/09/2023 04:42</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.68</v>
+        <v>3.67</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>09/09/2023 16:23</t>
+          <t>09/09/2023 16:21</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>1.63</v>
+        <v>3.95</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>09/09/2023 14:42</t>
+          <t>08/09/2023 04:42</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>1.84</v>
+        <v>4.23</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>09/09/2023 16:26</t>
+          <t>09/09/2023 16:21</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/orijent-sibenik/dOu2oOAD/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/dugopolje-jarun/Gvap8oIQ/</t>
         </is>
       </c>
     </row>
@@ -5173,7 +5173,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Dugopolje</t>
+          <t>Cibalia</t>
         </is>
       </c>
       <c r="G52" t="n">
@@ -5181,14 +5181,14 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Zrinski Jurjevac</t>
+          <t>Bijelo Brdo</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>2.05</v>
+        <v>1.69</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5196,15 +5196,15 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>2.15</v>
+        <v>1.78</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>07/10/2023 14:02</t>
+          <t>07/10/2023 14:42</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.21</v>
+        <v>3.44</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5212,15 +5212,15 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.39</v>
+        <v>3.57</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>07/10/2023 14:02</t>
+          <t>07/10/2023 14:42</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>3.17</v>
+        <v>4.27</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>3.2</v>
+        <v>4.38</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>07/10/2023 14:02</t>
+          <t>07/10/2023 14:42</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/dugopolje-zrinski-jurjevac/Ec5vClza/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/cibalia-bijelo-brdo/IVBVDA5n/</t>
         </is>
       </c>
     </row>
@@ -5265,7 +5265,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Cibalia</t>
+          <t>Dugopolje</t>
         </is>
       </c>
       <c r="G53" t="n">
@@ -5273,14 +5273,14 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Bijelo Brdo</t>
+          <t>Zrinski Jurjevac</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>1.69</v>
+        <v>2.05</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -5288,15 +5288,15 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>1.78</v>
+        <v>2.15</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>07/10/2023 14:42</t>
+          <t>07/10/2023 14:02</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.44</v>
+        <v>3.21</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -5304,15 +5304,15 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.57</v>
+        <v>3.39</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>07/10/2023 14:42</t>
+          <t>07/10/2023 14:02</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>4.27</v>
+        <v>3.17</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
@@ -5320,16 +5320,16 @@
         </is>
       </c>
       <c r="T53" t="n">
-        <v>4.38</v>
+        <v>3.2</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>07/10/2023 14:42</t>
+          <t>07/10/2023 14:02</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/cibalia-bijelo-brdo/IVBVDA5n/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/dugopolje-zrinski-jurjevac/Ec5vClza/</t>
         </is>
       </c>
     </row>
@@ -6158,6 +6158,282 @@
       <c r="V62" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/croatia/prva-nl/sesvete-bijelo-brdo/nPrLORJ4/</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>croatia</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>prva-nl</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>45220.57638888889</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Dubrava</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Zrinski Jurjevac</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>1</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>20/10/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:49</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>20/10/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P63" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:49</t>
+        </is>
+      </c>
+      <c r="R63" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>20/10/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T63" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:49</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/dubrava-zagreb-zrinski-jurjevac/riMk5wJq/</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>croatia</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>prva-nl</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>45220.625</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Dugopolje</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>4</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Cibalia</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>20/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>21/10/2023 10:12</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>20/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P64" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:03</t>
+        </is>
+      </c>
+      <c r="R64" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>20/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T64" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:09</t>
+        </is>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/dugopolje-cibalia/QFsPNoZA/</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>croatia</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>prva-nl</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>45220.625</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Vukovar 1991</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>2</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Solin</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>2</v>
+      </c>
+      <c r="J65" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>20/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>20/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P65" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="R65" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>20/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T65" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:56</t>
+        </is>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/vukovar-1991-solin/jHPc3Hmd/</t>
         </is>
       </c>
     </row>

--- a/2023/croatia_prva-nl_2023-2024.xlsx
+++ b/2023/croatia_prva-nl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V65"/>
+  <dimension ref="A1:V67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3609,22 +3609,22 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Solin</t>
+          <t>Bijelo Brdo</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Sesvete</t>
+          <t>Dubrava</t>
         </is>
       </c>
       <c r="I35" t="n">
         <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3632,15 +3632,15 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>1.79</v>
+        <v>2.54</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>16/09/2023 16:26</t>
+          <t>16/09/2023 16:29</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.3</v>
+        <v>3.12</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3648,15 +3648,15 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.75</v>
+        <v>3.11</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>16/09/2023 16:26</t>
+          <t>16/09/2023 16:29</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>3.17</v>
+        <v>3</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
@@ -3664,16 +3664,16 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>4.08</v>
+        <v>2.81</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>16/09/2023 16:26</t>
+          <t>16/09/2023 16:29</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/solin-sesvete/MurTaNP6/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/bijelo-brdo-dubrava-zagreb/zPuH2Pul/</t>
         </is>
       </c>
     </row>
@@ -3701,22 +3701,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Bijelo Brdo</t>
+          <t>Solin</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Dubrava</t>
+          <t>Sesvete</t>
         </is>
       </c>
       <c r="I36" t="n">
         <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3724,15 +3724,15 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>2.54</v>
+        <v>1.79</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>16/09/2023 16:29</t>
+          <t>16/09/2023 16:26</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.12</v>
+        <v>3.3</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3740,15 +3740,15 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.11</v>
+        <v>3.75</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>16/09/2023 16:29</t>
+          <t>16/09/2023 16:26</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>3</v>
+        <v>3.17</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
@@ -3756,16 +3756,16 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>2.81</v>
+        <v>4.08</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>16/09/2023 16:29</t>
+          <t>16/09/2023 16:26</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/bijelo-brdo-dubrava-zagreb/zPuH2Pul/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/solin-sesvete/MurTaNP6/</t>
         </is>
       </c>
     </row>
@@ -6434,6 +6434,190 @@
       <c r="V65" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/croatia/prva-nl/vukovar-1991-solin/jHPc3Hmd/</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>croatia</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>prva-nl</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>45221.625</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Croatia Zmijavci</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>6</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Orijent</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>2</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>21/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>21/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P66" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="R66" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>21/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T66" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/croatia-zmijavci-orijent/6RbMM5lH/</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>croatia</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>prva-nl</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>45222.625</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Jarun</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Sibenik</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>3</v>
+      </c>
+      <c r="J67" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>22/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>23/10/2023 14:55</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>22/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P67" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>23/10/2023 14:57</t>
+        </is>
+      </c>
+      <c r="R67" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>22/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T67" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>23/10/2023 14:55</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/jarun-sibenik/xELg4cYk/</t>
         </is>
       </c>
     </row>

--- a/2023/croatia_prva-nl_2023-2024.xlsx
+++ b/2023/croatia_prva-nl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V67"/>
+  <dimension ref="A1:V73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Cibalia</t>
+          <t>Zrinski Jurjevac</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1777,14 +1777,14 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Jarun</t>
+          <t>Solin</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.64</v>
+        <v>1.95</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.74</v>
+        <v>2.22</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>26/08/2023 16:52</t>
+          <t>26/08/2023 16:56</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.71</v>
+        <v>3.34</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,15 +1808,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.86</v>
+        <v>3.32</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>26/08/2023 16:52</t>
+          <t>26/08/2023 16:56</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>4.42</v>
+        <v>3.29</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>4.19</v>
+        <v>3.12</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>26/08/2023 16:52</t>
+          <t>26/08/2023 16:56</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/cibalia-jarun/zitJoX4d/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/zrinski-jurjevac-solin/vPnAmgzp/</t>
         </is>
       </c>
     </row>
@@ -1861,22 +1861,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Zrinski Jurjevac</t>
+          <t>Orijent</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Solin</t>
+          <t>Vukovar 1991</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>1.95</v>
+        <v>2.76</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1884,15 +1884,15 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2.22</v>
+        <v>1.93</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>26/08/2023 16:56</t>
+          <t>26/08/2023 16:55</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.34</v>
+        <v>3.12</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1900,15 +1900,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.32</v>
+        <v>3.54</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>26/08/2023 16:56</t>
+          <t>26/08/2023 16:52</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>3.29</v>
+        <v>2.31</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1916,16 +1916,16 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>3.12</v>
+        <v>3.68</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>26/08/2023 16:56</t>
+          <t>26/08/2023 16:59</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/zrinski-jurjevac-solin/vPnAmgzp/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/orijent-vukovar-1991/d0sFnDkj/</t>
         </is>
       </c>
     </row>
@@ -1953,22 +1953,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Orijent</t>
+          <t>Cibalia</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Vukovar 1991</t>
+          <t>Jarun</t>
         </is>
       </c>
       <c r="I17" t="n">
         <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>2.76</v>
+        <v>1.64</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1976,15 +1976,15 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>1.93</v>
+        <v>1.74</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>26/08/2023 16:55</t>
+          <t>26/08/2023 16:52</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.12</v>
+        <v>3.71</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.54</v>
+        <v>3.86</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -2000,7 +2000,7 @@
         </is>
       </c>
       <c r="R17" t="n">
-        <v>2.31</v>
+        <v>4.42</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2008,16 +2008,16 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>3.68</v>
+        <v>4.19</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>26/08/2023 16:59</t>
+          <t>26/08/2023 16:52</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/orijent-vukovar-1991/d0sFnDkj/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/cibalia-jarun/zitJoX4d/</t>
         </is>
       </c>
     </row>
@@ -3609,22 +3609,22 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Bijelo Brdo</t>
+          <t>Solin</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Dubrava</t>
+          <t>Sesvete</t>
         </is>
       </c>
       <c r="I35" t="n">
         <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3632,15 +3632,15 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>2.54</v>
+        <v>1.79</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>16/09/2023 16:29</t>
+          <t>16/09/2023 16:26</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.12</v>
+        <v>3.3</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3648,15 +3648,15 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.11</v>
+        <v>3.75</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>16/09/2023 16:29</t>
+          <t>16/09/2023 16:26</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>3</v>
+        <v>3.17</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
@@ -3664,16 +3664,16 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>2.81</v>
+        <v>4.08</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>16/09/2023 16:29</t>
+          <t>16/09/2023 16:26</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/bijelo-brdo-dubrava-zagreb/zPuH2Pul/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/solin-sesvete/MurTaNP6/</t>
         </is>
       </c>
     </row>
@@ -3701,22 +3701,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Solin</t>
+          <t>Bijelo Brdo</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Sesvete</t>
+          <t>Dubrava</t>
         </is>
       </c>
       <c r="I36" t="n">
         <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3724,15 +3724,15 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>1.79</v>
+        <v>2.54</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>16/09/2023 16:26</t>
+          <t>16/09/2023 16:29</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.3</v>
+        <v>3.12</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3740,15 +3740,15 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.75</v>
+        <v>3.11</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>16/09/2023 16:26</t>
+          <t>16/09/2023 16:29</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>3.17</v>
+        <v>3</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
@@ -3756,16 +3756,16 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>4.08</v>
+        <v>2.81</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>16/09/2023 16:26</t>
+          <t>16/09/2023 16:29</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/solin-sesvete/MurTaNP6/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/bijelo-brdo-dubrava-zagreb/zPuH2Pul/</t>
         </is>
       </c>
     </row>
@@ -5633,22 +5633,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Cibalia</t>
+          <t>Zrinski Jurjevac</t>
         </is>
       </c>
       <c r="G57" t="n">
+        <v>4</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Croatia Zmijavci</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>Sesvete</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
-        <v>1</v>
-      </c>
       <c r="J57" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,15 +5656,15 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.75</v>
+        <v>1.58</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>14/10/2023 14:59</t>
+          <t>14/10/2023 14:53</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.53</v>
+        <v>3.61</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -5672,15 +5672,15 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.52</v>
+        <v>3.86</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>14/10/2023 14:59</t>
+          <t>14/10/2023 14:53</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>3.94</v>
+        <v>4.26</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
@@ -5688,16 +5688,16 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>4.64</v>
+        <v>5.57</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>14/10/2023 14:59</t>
+          <t>14/10/2023 14:53</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/cibalia-sesvete/h2qHP74b/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/zrinski-jurjevac-croatia-zmijavci/dzj8RTZo/</t>
         </is>
       </c>
     </row>
@@ -5817,22 +5817,22 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Zrinski Jurjevac</t>
+          <t>Cibalia</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Croatia Zmijavci</t>
+          <t>Sesvete</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -5840,15 +5840,15 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>1.58</v>
+        <v>1.75</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>14/10/2023 14:53</t>
+          <t>14/10/2023 14:59</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.61</v>
+        <v>3.53</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -5856,15 +5856,15 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>3.86</v>
+        <v>3.52</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>14/10/2023 14:53</t>
+          <t>14/10/2023 14:59</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>4.26</v>
+        <v>3.94</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
@@ -5872,16 +5872,16 @@
         </is>
       </c>
       <c r="T59" t="n">
-        <v>5.57</v>
+        <v>4.64</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>14/10/2023 14:53</t>
+          <t>14/10/2023 14:59</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/zrinski-jurjevac-croatia-zmijavci/dzj8RTZo/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/cibalia-sesvete/h2qHP74b/</t>
         </is>
       </c>
     </row>
@@ -6618,6 +6618,558 @@
       <c r="V67" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/croatia/prva-nl/jarun-sibenik/xELg4cYk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>croatia</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>prva-nl</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>45226.625</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Dubrava</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>3</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Orijent</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>2</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>26/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>27/10/2023 11:33</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>26/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P68" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>27/10/2023 13:04</t>
+        </is>
+      </c>
+      <c r="R68" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>26/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T68" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>27/10/2023 11:33</t>
+        </is>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/dubrava-zagreb-orijent/vw6hPbAF/</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>croatia</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>prva-nl</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>45227.57638888889</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Vukovar 1991</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>1</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Sibenik</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:48</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P69" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="R69" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T69" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:48</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/vukovar-1991-sibenik/WC2pRKu3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>croatia</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>prva-nl</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>45227.625</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Bijelo Brdo</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>1</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Solin</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>27/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>28/10/2023 14:57</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>27/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P70" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>28/10/2023 14:56</t>
+        </is>
+      </c>
+      <c r="R70" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>27/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T70" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>28/10/2023 14:57</t>
+        </is>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/bijelo-brdo-solin/hM3tS0Qd/</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>croatia</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>prva-nl</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>45227.625</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Dugopolje</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>1</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Sesvete</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>27/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>27/10/2023 13:14</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>27/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P71" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>28/10/2023 14:26</t>
+        </is>
+      </c>
+      <c r="R71" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>27/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T71" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>28/10/2023 14:26</t>
+        </is>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/dugopolje-sesvete/Yya1NxuS/</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>croatia</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>prva-nl</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>45228.58333333334</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Croatia Zmijavci</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>5</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Cibalia</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>1</v>
+      </c>
+      <c r="J72" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>28/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>2</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:59</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>28/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P72" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:59</t>
+        </is>
+      </c>
+      <c r="R72" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>28/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T72" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:59</t>
+        </is>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/croatia-zmijavci-cibalia/M1ecOIPL/</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>croatia</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>prva-nl</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>45229.58333333334</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Jarun</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Zrinski Jurjevac</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>1</v>
+      </c>
+      <c r="J73" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>29/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>30/10/2023 13:57</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>29/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P73" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>30/10/2023 13:57</t>
+        </is>
+      </c>
+      <c r="R73" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>29/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T73" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>30/10/2023 13:57</t>
+        </is>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/jarun-zrinski-jurjevac/0n7lQve9/</t>
         </is>
       </c>
     </row>

--- a/2023/croatia_prva-nl_2023-2024.xlsx
+++ b/2023/croatia_prva-nl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V73"/>
+  <dimension ref="A1:V74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5633,22 +5633,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Zrinski Jurjevac</t>
+          <t>Solin</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Croatia Zmijavci</t>
+          <t>Jarun</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>1.68</v>
+        <v>1.85</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,15 +5656,15 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.58</v>
+        <v>1.88</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>14/10/2023 14:53</t>
+          <t>14/10/2023 14:51</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.61</v>
+        <v>3.54</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -5672,15 +5672,15 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.86</v>
+        <v>3.62</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>14/10/2023 14:53</t>
+          <t>14/10/2023 14:51</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>4.26</v>
+        <v>3.41</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
@@ -5688,16 +5688,16 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>5.57</v>
+        <v>3.79</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>14/10/2023 14:53</t>
+          <t>14/10/2023 14:51</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/zrinski-jurjevac-croatia-zmijavci/dzj8RTZo/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/solin-jarun/6BAb7QlU/</t>
         </is>
       </c>
     </row>
@@ -5725,22 +5725,22 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Solin</t>
+          <t>Zrinski Jurjevac</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Jarun</t>
+          <t>Croatia Zmijavci</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>1.85</v>
+        <v>1.68</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -5748,15 +5748,15 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>1.88</v>
+        <v>1.58</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>14/10/2023 14:51</t>
+          <t>14/10/2023 14:53</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.54</v>
+        <v>3.61</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -5764,15 +5764,15 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.62</v>
+        <v>3.86</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>14/10/2023 14:51</t>
+          <t>14/10/2023 14:53</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>3.41</v>
+        <v>4.26</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
@@ -5780,16 +5780,16 @@
         </is>
       </c>
       <c r="T58" t="n">
-        <v>3.79</v>
+        <v>5.57</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>14/10/2023 14:51</t>
+          <t>14/10/2023 14:53</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/solin-jarun/6BAb7QlU/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/zrinski-jurjevac-croatia-zmijavci/dzj8RTZo/</t>
         </is>
       </c>
     </row>
@@ -7170,6 +7170,98 @@
       <c r="V73" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/croatia/prva-nl/jarun-zrinski-jurjevac/0n7lQve9/</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>croatia</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>prva-nl</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>45233.58333333334</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Sesvete</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>1</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Croatia Zmijavci</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>02/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>03/11/2023 13:51</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>02/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P74" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>03/11/2023 13:51</t>
+        </is>
+      </c>
+      <c r="R74" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>02/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T74" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>03/11/2023 13:51</t>
+        </is>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/sesvete-croatia-zmijavci/U7pXHG2k/</t>
         </is>
       </c>
     </row>

--- a/2023/croatia_prva-nl_2023-2024.xlsx
+++ b/2023/croatia_prva-nl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V74"/>
+  <dimension ref="A1:V78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,22 +665,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Solin</t>
+          <t>Orijent</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Bijelo Brdo</t>
+          <t>Dubrava</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>2.09</v>
+        <v>2.12</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -688,15 +688,15 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>2.1</v>
+        <v>2.01</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>12/08/2023 17:27</t>
+          <t>12/08/2023 17:29</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>3.27</v>
+        <v>3.2</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -704,11 +704,11 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3.53</v>
+        <v>3.38</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>12/08/2023 17:27</t>
+          <t>12/08/2023 17:29</t>
         </is>
       </c>
       <c r="R3" t="n">
@@ -720,16 +720,16 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>3.2</v>
+        <v>3.59</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>12/08/2023 17:27</t>
+          <t>12/08/2023 17:29</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/solin-bijelo-brdo/0vop4Qu6/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/orijent-dubrava-zagreb/Cdce1OPO/</t>
         </is>
       </c>
     </row>
@@ -757,7 +757,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Orijent</t>
+          <t>Cibalia</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -765,14 +765,14 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Dubrava</t>
+          <t>Croatia Zmijavci</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.12</v>
+        <v>1.65</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -780,15 +780,15 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>2.01</v>
+        <v>2.02</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>12/08/2023 17:29</t>
+          <t>12/08/2023 15:37</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>3.2</v>
+        <v>3.47</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -796,15 +796,15 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>3.38</v>
+        <v>3.47</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>12/08/2023 17:29</t>
+          <t>12/08/2023 17:16</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>3.12</v>
+        <v>4.52</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
@@ -812,16 +812,16 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>3.59</v>
+        <v>3.45</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>12/08/2023 17:29</t>
+          <t>12/08/2023 17:16</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/orijent-dubrava-zagreb/Cdce1OPO/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/cibalia-croatia-zmijavci/E1yvQ72P/</t>
         </is>
       </c>
     </row>
@@ -849,71 +849,71 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Cibalia</t>
+          <t>Sesvete</t>
         </is>
       </c>
       <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Dugopolje</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
         <v>1</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Croatia Zmijavci</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
       <c r="J5" t="n">
-        <v>1.65</v>
+        <v>2.49</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>11/08/2023 05:43</t>
+          <t>12/08/2023 17:11</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>2.02</v>
+        <v>2.26</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>12/08/2023 15:37</t>
+          <t>12/08/2023 17:25</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.47</v>
+        <v>2.94</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>11/08/2023 05:43</t>
+          <t>12/08/2023 17:11</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3.47</v>
+        <v>3.14</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>12/08/2023 17:16</t>
+          <t>12/08/2023 17:25</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>4.52</v>
+        <v>2.65</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>11/08/2023 05:43</t>
+          <t>12/08/2023 17:11</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>3.45</v>
+        <v>3.23</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>12/08/2023 17:16</t>
+          <t>12/08/2023 17:25</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/cibalia-croatia-zmijavci/E1yvQ72P/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/sesvete-dugopolje/jNS5LRAt/</t>
         </is>
       </c>
     </row>
@@ -941,7 +941,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Sesvete</t>
+          <t>Solin</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -949,63 +949,63 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Dugopolje</t>
+          <t>Bijelo Brdo</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>2.49</v>
+        <v>2.09</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>12/08/2023 17:11</t>
+          <t>11/08/2023 05:43</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>2.26</v>
+        <v>2.1</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>12/08/2023 17:25</t>
+          <t>12/08/2023 17:27</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>2.94</v>
+        <v>3.27</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>12/08/2023 17:11</t>
+          <t>11/08/2023 05:43</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.14</v>
+        <v>3.53</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>12/08/2023 17:25</t>
+          <t>12/08/2023 17:27</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>2.65</v>
+        <v>3.12</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>12/08/2023 17:11</t>
+          <t>11/08/2023 05:43</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>3.23</v>
+        <v>3.2</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>12/08/2023 17:25</t>
+          <t>12/08/2023 17:27</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/sesvete-dugopolje/jNS5LRAt/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/solin-bijelo-brdo/0vop4Qu6/</t>
         </is>
       </c>
     </row>
@@ -4069,7 +4069,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Orijent</t>
+          <t>Cibalia</t>
         </is>
       </c>
       <c r="G40" t="n">
@@ -4077,14 +4077,14 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Bijelo Brdo</t>
+          <t>Zrinski Jurjevac</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J40" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,15 +4092,15 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>1.95</v>
+        <v>2.33</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>23/09/2023 15:46</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.39</v>
+        <v>3.42</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4108,15 +4108,15 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.35</v>
+        <v>3.13</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>23/09/2023 15:55</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>3.29</v>
+        <v>3.84</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>3.85</v>
+        <v>3.1</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>23/09/2023 15:55</t>
+          <t>23/09/2023 15:56</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/orijent-bijelo-brdo/UsPJMpXJ/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/cibalia-zrinski-jurjevac/8YNNL4nQ/</t>
         </is>
       </c>
     </row>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Cibalia</t>
+          <t>Orijent</t>
         </is>
       </c>
       <c r="G41" t="n">
@@ -4169,14 +4169,14 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Zrinski Jurjevac</t>
+          <t>Bijelo Brdo</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>1.81</v>
+        <v>1.93</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,15 +4184,15 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>2.33</v>
+        <v>1.95</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>23/09/2023 15:59</t>
+          <t>23/09/2023 15:46</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.42</v>
+        <v>3.39</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4200,15 +4200,15 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>3.13</v>
+        <v>3.35</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>23/09/2023 15:59</t>
+          <t>23/09/2023 15:55</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>3.84</v>
+        <v>3.29</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -4216,16 +4216,16 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>3.1</v>
+        <v>3.85</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>23/09/2023 15:56</t>
+          <t>23/09/2023 15:55</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/cibalia-zrinski-jurjevac/8YNNL4nQ/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/orijent-bijelo-brdo/UsPJMpXJ/</t>
         </is>
       </c>
     </row>
@@ -5173,7 +5173,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Cibalia</t>
+          <t>Dugopolje</t>
         </is>
       </c>
       <c r="G52" t="n">
@@ -5181,14 +5181,14 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Bijelo Brdo</t>
+          <t>Zrinski Jurjevac</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>1.69</v>
+        <v>2.05</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5196,15 +5196,15 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>1.78</v>
+        <v>2.15</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>07/10/2023 14:42</t>
+          <t>07/10/2023 14:02</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.44</v>
+        <v>3.21</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5212,15 +5212,15 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.57</v>
+        <v>3.39</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>07/10/2023 14:42</t>
+          <t>07/10/2023 14:02</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>4.27</v>
+        <v>3.17</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>4.38</v>
+        <v>3.2</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>07/10/2023 14:42</t>
+          <t>07/10/2023 14:02</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/cibalia-bijelo-brdo/IVBVDA5n/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/dugopolje-zrinski-jurjevac/Ec5vClza/</t>
         </is>
       </c>
     </row>
@@ -5265,7 +5265,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Dugopolje</t>
+          <t>Cibalia</t>
         </is>
       </c>
       <c r="G53" t="n">
@@ -5273,14 +5273,14 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Zrinski Jurjevac</t>
+          <t>Bijelo Brdo</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>2.05</v>
+        <v>1.69</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -5288,15 +5288,15 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>2.15</v>
+        <v>1.78</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>07/10/2023 14:02</t>
+          <t>07/10/2023 14:42</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.21</v>
+        <v>3.44</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -5304,15 +5304,15 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.39</v>
+        <v>3.57</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>07/10/2023 14:02</t>
+          <t>07/10/2023 14:42</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>3.17</v>
+        <v>4.27</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
@@ -5320,16 +5320,16 @@
         </is>
       </c>
       <c r="T53" t="n">
-        <v>3.2</v>
+        <v>4.38</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>07/10/2023 14:02</t>
+          <t>07/10/2023 14:42</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/dugopolje-zrinski-jurjevac/Ec5vClza/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/cibalia-bijelo-brdo/IVBVDA5n/</t>
         </is>
       </c>
     </row>
@@ -5633,22 +5633,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Solin</t>
+          <t>Cibalia</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Jarun</t>
+          <t>Sesvete</t>
         </is>
       </c>
       <c r="I57" t="n">
         <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,15 +5656,15 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>14/10/2023 14:51</t>
+          <t>14/10/2023 14:59</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.54</v>
+        <v>3.53</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -5672,15 +5672,15 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.62</v>
+        <v>3.52</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>14/10/2023 14:51</t>
+          <t>14/10/2023 14:59</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>3.41</v>
+        <v>3.94</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
@@ -5688,16 +5688,16 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>3.79</v>
+        <v>4.64</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>14/10/2023 14:51</t>
+          <t>14/10/2023 14:59</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/solin-jarun/6BAb7QlU/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/cibalia-sesvete/h2qHP74b/</t>
         </is>
       </c>
     </row>
@@ -5725,22 +5725,22 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Zrinski Jurjevac</t>
+          <t>Solin</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Croatia Zmijavci</t>
+          <t>Jarun</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="n">
-        <v>1.68</v>
+        <v>1.85</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -5748,15 +5748,15 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>1.58</v>
+        <v>1.88</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>14/10/2023 14:53</t>
+          <t>14/10/2023 14:51</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.61</v>
+        <v>3.54</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -5764,15 +5764,15 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.86</v>
+        <v>3.62</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>14/10/2023 14:53</t>
+          <t>14/10/2023 14:51</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>4.26</v>
+        <v>3.41</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
@@ -5780,16 +5780,16 @@
         </is>
       </c>
       <c r="T58" t="n">
-        <v>5.57</v>
+        <v>3.79</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>14/10/2023 14:53</t>
+          <t>14/10/2023 14:51</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/zrinski-jurjevac-croatia-zmijavci/dzj8RTZo/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/solin-jarun/6BAb7QlU/</t>
         </is>
       </c>
     </row>
@@ -5817,22 +5817,22 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Cibalia</t>
+          <t>Zrinski Jurjevac</t>
         </is>
       </c>
       <c r="G59" t="n">
+        <v>4</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Croatia Zmijavci</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Sesvete</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
-        <v>1</v>
-      </c>
       <c r="J59" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -5840,15 +5840,15 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>1.75</v>
+        <v>1.58</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>14/10/2023 14:59</t>
+          <t>14/10/2023 14:53</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.53</v>
+        <v>3.61</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -5856,15 +5856,15 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>3.52</v>
+        <v>3.86</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>14/10/2023 14:59</t>
+          <t>14/10/2023 14:53</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>3.94</v>
+        <v>4.26</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
@@ -5872,16 +5872,16 @@
         </is>
       </c>
       <c r="T59" t="n">
-        <v>4.64</v>
+        <v>5.57</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>14/10/2023 14:59</t>
+          <t>14/10/2023 14:53</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/cibalia-sesvete/h2qHP74b/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/zrinski-jurjevac-croatia-zmijavci/dzj8RTZo/</t>
         </is>
       </c>
     </row>
@@ -6829,7 +6829,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Bijelo Brdo</t>
+          <t>Dugopolje</t>
         </is>
       </c>
       <c r="G70" t="n">
@@ -6837,14 +6837,14 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Solin</t>
+          <t>Sesvete</t>
         </is>
       </c>
       <c r="I70" t="n">
         <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>2.14</v>
+        <v>1.72</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>2.68</v>
+        <v>1.68</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>28/10/2023 14:57</t>
+          <t>27/10/2023 13:14</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.17</v>
+        <v>3.47</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,15 +6868,15 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>2.66</v>
+        <v>3.76</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>28/10/2023 14:56</t>
+          <t>28/10/2023 14:26</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>3.02</v>
+        <v>4.07</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>3.1</v>
+        <v>4.74</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>28/10/2023 14:57</t>
+          <t>28/10/2023 14:26</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/bijelo-brdo-solin/hM3tS0Qd/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/dugopolje-sesvete/Yya1NxuS/</t>
         </is>
       </c>
     </row>
@@ -6921,7 +6921,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Dugopolje</t>
+          <t>Bijelo Brdo</t>
         </is>
       </c>
       <c r="G71" t="n">
@@ -6929,14 +6929,14 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Sesvete</t>
+          <t>Solin</t>
         </is>
       </c>
       <c r="I71" t="n">
         <v>1</v>
       </c>
       <c r="J71" t="n">
-        <v>1.72</v>
+        <v>2.14</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -6944,15 +6944,15 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>1.68</v>
+        <v>2.68</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>27/10/2023 13:14</t>
+          <t>28/10/2023 14:57</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.47</v>
+        <v>3.17</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -6960,15 +6960,15 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>3.76</v>
+        <v>2.66</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>28/10/2023 14:26</t>
+          <t>28/10/2023 14:56</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>4.07</v>
+        <v>3.02</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
@@ -6976,16 +6976,16 @@
         </is>
       </c>
       <c r="T71" t="n">
-        <v>4.74</v>
+        <v>3.1</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>28/10/2023 14:26</t>
+          <t>28/10/2023 14:57</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/dugopolje-sesvete/Yya1NxuS/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/bijelo-brdo-solin/hM3tS0Qd/</t>
         </is>
       </c>
     </row>
@@ -7262,6 +7262,374 @@
       <c r="V74" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/croatia/prva-nl/sesvete-croatia-zmijavci/U7pXHG2k/</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>croatia</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>prva-nl</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>45234.57638888889</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Zrinski Jurjevac</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>1</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Vukovar 1991</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>03/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:40</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>03/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P75" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:40</t>
+        </is>
+      </c>
+      <c r="R75" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>03/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T75" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:40</t>
+        </is>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/zrinski-jurjevac-vukovar-1991/vwSNvvA2/</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>croatia</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>prva-nl</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>45234.58333333334</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Cibalia</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>1</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Dubrava</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>03/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:59</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>03/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:59</t>
+        </is>
+      </c>
+      <c r="R76" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>03/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T76" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:59</t>
+        </is>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/cibalia-dubrava-zagreb/nquxHzIe/</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>croatia</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>prva-nl</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>45234.58333333334</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Dugopolje</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>1</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Bijelo Brdo</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>1</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>03/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:59</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>03/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:59</t>
+        </is>
+      </c>
+      <c r="R77" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>03/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T77" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:59</t>
+        </is>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/dugopolje-bijelo-brdo/jHoTIdmq/</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>croatia</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>prva-nl</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>45234.58333333334</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Orijent</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Jarun</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>03/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:52</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>03/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P78" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:52</t>
+        </is>
+      </c>
+      <c r="R78" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>03/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T78" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:52</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/orijent-jarun/QZwtGfX1/</t>
         </is>
       </c>
     </row>

--- a/2023/croatia_prva-nl_2023-2024.xlsx
+++ b/2023/croatia_prva-nl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V78"/>
+  <dimension ref="A1:V79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7633,6 +7633,98 @@
         </is>
       </c>
     </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>croatia</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>prva-nl</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>45236.75</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Sibenik</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>1</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Solin</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>05/11/2023 06:12</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>06/11/2023 17:52</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>05/11/2023 06:12</t>
+        </is>
+      </c>
+      <c r="P79" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>06/11/2023 17:53</t>
+        </is>
+      </c>
+      <c r="R79" t="n">
+        <v>6.62</v>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>05/11/2023 06:12</t>
+        </is>
+      </c>
+      <c r="T79" t="n">
+        <v>12.21</v>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>06/11/2023 17:56</t>
+        </is>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/sibenik-solin/htWRwbP8/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/croatia_prva-nl_2023-2024.xlsx
+++ b/2023/croatia_prva-nl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V79"/>
+  <dimension ref="A1:V80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,71 +665,71 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Orijent</t>
+          <t>Sesvete</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Dubrava</t>
+          <t>Dugopolje</t>
         </is>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>2.12</v>
+        <v>2.49</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>11/08/2023 05:43</t>
+          <t>12/08/2023 17:11</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>2.01</v>
+        <v>2.26</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>12/08/2023 17:29</t>
+          <t>12/08/2023 17:25</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>3.2</v>
+        <v>2.94</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>11/08/2023 05:43</t>
+          <t>12/08/2023 17:11</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3.38</v>
+        <v>3.14</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>12/08/2023 17:29</t>
+          <t>12/08/2023 17:25</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>3.12</v>
+        <v>2.65</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>11/08/2023 05:43</t>
+          <t>12/08/2023 17:11</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>3.59</v>
+        <v>3.23</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>12/08/2023 17:29</t>
+          <t>12/08/2023 17:25</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/orijent-dubrava-zagreb/Cdce1OPO/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/sesvete-dugopolje/jNS5LRAt/</t>
         </is>
       </c>
     </row>
@@ -757,7 +757,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Cibalia</t>
+          <t>Orijent</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -765,14 +765,14 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Croatia Zmijavci</t>
+          <t>Dubrava</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>1.65</v>
+        <v>2.12</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -780,15 +780,15 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>2.02</v>
+        <v>2.01</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>12/08/2023 15:37</t>
+          <t>12/08/2023 17:29</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>3.47</v>
+        <v>3.2</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -796,15 +796,15 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>3.47</v>
+        <v>3.38</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>12/08/2023 17:16</t>
+          <t>12/08/2023 17:29</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>4.52</v>
+        <v>3.12</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
@@ -812,16 +812,16 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>3.45</v>
+        <v>3.59</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>12/08/2023 17:16</t>
+          <t>12/08/2023 17:29</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/cibalia-croatia-zmijavci/E1yvQ72P/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/orijent-dubrava-zagreb/Cdce1OPO/</t>
         </is>
       </c>
     </row>
@@ -849,71 +849,71 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Sesvete</t>
+          <t>Cibalia</t>
         </is>
       </c>
       <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Croatia Zmijavci</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Dugopolje</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
       <c r="J5" t="n">
-        <v>2.49</v>
+        <v>1.65</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>12/08/2023 17:11</t>
+          <t>11/08/2023 05:43</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>2.26</v>
+        <v>2.02</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>12/08/2023 17:25</t>
+          <t>12/08/2023 15:37</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>2.94</v>
+        <v>3.47</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>12/08/2023 17:11</t>
+          <t>11/08/2023 05:43</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3.14</v>
+        <v>3.47</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>12/08/2023 17:25</t>
+          <t>12/08/2023 17:16</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>2.65</v>
+        <v>4.52</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>12/08/2023 17:11</t>
+          <t>11/08/2023 05:43</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>3.23</v>
+        <v>3.45</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>12/08/2023 17:25</t>
+          <t>12/08/2023 17:16</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/sesvete-dugopolje/jNS5LRAt/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/cibalia-croatia-zmijavci/E1yvQ72P/</t>
         </is>
       </c>
     </row>
@@ -7722,6 +7722,98 @@
       <c r="V79" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/croatia/prva-nl/sibenik-solin/htWRwbP8/</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>croatia</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>prva-nl</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>45240.58333333334</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Solin</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>1</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Zrinski Jurjevac</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>2</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>09/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>10/11/2023 13:20</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>09/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P80" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>10/11/2023 13:20</t>
+        </is>
+      </c>
+      <c r="R80" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>09/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T80" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>10/11/2023 13:20</t>
+        </is>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/solin-zrinski-jurjevac/EeKzxxfL/</t>
         </is>
       </c>
     </row>

--- a/2023/croatia_prva-nl_2023-2024.xlsx
+++ b/2023/croatia_prva-nl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V80"/>
+  <dimension ref="A1:V83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,71 +665,71 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Sesvete</t>
+          <t>Orijent</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Dugopolje</t>
+          <t>Dubrava</t>
         </is>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>2.49</v>
+        <v>2.12</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>12/08/2023 17:11</t>
+          <t>11/08/2023 05:43</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>2.26</v>
+        <v>2.01</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>12/08/2023 17:25</t>
+          <t>12/08/2023 17:29</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>2.94</v>
+        <v>3.2</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>12/08/2023 17:11</t>
+          <t>11/08/2023 05:43</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3.14</v>
+        <v>3.38</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>12/08/2023 17:25</t>
+          <t>12/08/2023 17:29</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>2.65</v>
+        <v>3.12</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>12/08/2023 17:11</t>
+          <t>11/08/2023 05:43</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>3.23</v>
+        <v>3.59</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>12/08/2023 17:25</t>
+          <t>12/08/2023 17:29</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/sesvete-dugopolje/jNS5LRAt/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/orijent-dubrava-zagreb/Cdce1OPO/</t>
         </is>
       </c>
     </row>
@@ -757,7 +757,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Orijent</t>
+          <t>Cibalia</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -765,14 +765,14 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Dubrava</t>
+          <t>Croatia Zmijavci</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.12</v>
+        <v>1.65</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -780,15 +780,15 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>2.01</v>
+        <v>2.02</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>12/08/2023 17:29</t>
+          <t>12/08/2023 15:37</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>3.2</v>
+        <v>3.47</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -796,15 +796,15 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>3.38</v>
+        <v>3.47</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>12/08/2023 17:29</t>
+          <t>12/08/2023 17:16</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>3.12</v>
+        <v>4.52</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
@@ -812,16 +812,16 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>3.59</v>
+        <v>3.45</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>12/08/2023 17:29</t>
+          <t>12/08/2023 17:16</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/orijent-dubrava-zagreb/Cdce1OPO/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/cibalia-croatia-zmijavci/E1yvQ72P/</t>
         </is>
       </c>
     </row>
@@ -849,71 +849,71 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Cibalia</t>
+          <t>Sesvete</t>
         </is>
       </c>
       <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Dugopolje</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
         <v>1</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Croatia Zmijavci</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
       <c r="J5" t="n">
-        <v>1.65</v>
+        <v>2.49</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>11/08/2023 05:43</t>
+          <t>12/08/2023 17:11</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>2.02</v>
+        <v>2.26</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>12/08/2023 15:37</t>
+          <t>12/08/2023 17:25</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.47</v>
+        <v>2.94</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>11/08/2023 05:43</t>
+          <t>12/08/2023 17:11</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3.47</v>
+        <v>3.14</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>12/08/2023 17:16</t>
+          <t>12/08/2023 17:25</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>4.52</v>
+        <v>2.65</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>11/08/2023 05:43</t>
+          <t>12/08/2023 17:11</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>3.45</v>
+        <v>3.23</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>12/08/2023 17:16</t>
+          <t>12/08/2023 17:25</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/cibalia-croatia-zmijavci/E1yvQ72P/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/sesvete-dugopolje/jNS5LRAt/</t>
         </is>
       </c>
     </row>
@@ -6829,7 +6829,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Dugopolje</t>
+          <t>Bijelo Brdo</t>
         </is>
       </c>
       <c r="G70" t="n">
@@ -6837,14 +6837,14 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Sesvete</t>
+          <t>Solin</t>
         </is>
       </c>
       <c r="I70" t="n">
         <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>1.72</v>
+        <v>2.14</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>1.68</v>
+        <v>2.68</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>27/10/2023 13:14</t>
+          <t>28/10/2023 14:57</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.47</v>
+        <v>3.17</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,15 +6868,15 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.76</v>
+        <v>2.66</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>28/10/2023 14:26</t>
+          <t>28/10/2023 14:56</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>4.07</v>
+        <v>3.02</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>4.74</v>
+        <v>3.1</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>28/10/2023 14:26</t>
+          <t>28/10/2023 14:57</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/dugopolje-sesvete/Yya1NxuS/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/bijelo-brdo-solin/hM3tS0Qd/</t>
         </is>
       </c>
     </row>
@@ -6921,7 +6921,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Bijelo Brdo</t>
+          <t>Dugopolje</t>
         </is>
       </c>
       <c r="G71" t="n">
@@ -6929,14 +6929,14 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Solin</t>
+          <t>Sesvete</t>
         </is>
       </c>
       <c r="I71" t="n">
         <v>1</v>
       </c>
       <c r="J71" t="n">
-        <v>2.14</v>
+        <v>1.72</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -6944,15 +6944,15 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>2.68</v>
+        <v>1.68</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>28/10/2023 14:57</t>
+          <t>27/10/2023 13:14</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.17</v>
+        <v>3.47</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -6960,15 +6960,15 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>2.66</v>
+        <v>3.76</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>28/10/2023 14:56</t>
+          <t>28/10/2023 14:26</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>3.02</v>
+        <v>4.07</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
@@ -6976,16 +6976,16 @@
         </is>
       </c>
       <c r="T71" t="n">
-        <v>3.1</v>
+        <v>4.74</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>28/10/2023 14:57</t>
+          <t>28/10/2023 14:26</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/bijelo-brdo-solin/hM3tS0Qd/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/dugopolje-sesvete/Yya1NxuS/</t>
         </is>
       </c>
     </row>
@@ -7814,6 +7814,282 @@
       <c r="V80" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/croatia/prva-nl/solin-zrinski-jurjevac/EeKzxxfL/</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>croatia</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>prva-nl</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>45241.57638888889</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Dubrava</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Sesvete</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>2</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>10/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:46</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>10/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P81" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:43</t>
+        </is>
+      </c>
+      <c r="R81" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>10/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T81" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:46</t>
+        </is>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/dubrava-zagreb-sesvete/h4AAVZWl/</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>croatia</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>prva-nl</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>45241.58333333334</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Bijelo Brdo</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Sibenik</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>1</v>
+      </c>
+      <c r="J82" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>10/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:52</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>10/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P82" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:52</t>
+        </is>
+      </c>
+      <c r="R82" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>10/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T82" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:51</t>
+        </is>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/bijelo-brdo-sibenik/z5LWxIvF/</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>croatia</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>prva-nl</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>45241.58333333334</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Vukovar 1991</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>2</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Orijent</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>10/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:54</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>10/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P83" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:54</t>
+        </is>
+      </c>
+      <c r="R83" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>10/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T83" t="n">
+        <v>5</v>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:54</t>
+        </is>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/vukovar-1991-orijent/8WYwyd9R/</t>
         </is>
       </c>
     </row>

--- a/2023/croatia_prva-nl_2023-2024.xlsx
+++ b/2023/croatia_prva-nl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V83"/>
+  <dimension ref="A1:V84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5173,7 +5173,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Dugopolje</t>
+          <t>Cibalia</t>
         </is>
       </c>
       <c r="G52" t="n">
@@ -5181,14 +5181,14 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Zrinski Jurjevac</t>
+          <t>Bijelo Brdo</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>2.05</v>
+        <v>1.69</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5196,15 +5196,15 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>2.15</v>
+        <v>1.78</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>07/10/2023 14:02</t>
+          <t>07/10/2023 14:42</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.21</v>
+        <v>3.44</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5212,15 +5212,15 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.39</v>
+        <v>3.57</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>07/10/2023 14:02</t>
+          <t>07/10/2023 14:42</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>3.17</v>
+        <v>4.27</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>3.2</v>
+        <v>4.38</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>07/10/2023 14:02</t>
+          <t>07/10/2023 14:42</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/dugopolje-zrinski-jurjevac/Ec5vClza/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/cibalia-bijelo-brdo/IVBVDA5n/</t>
         </is>
       </c>
     </row>
@@ -5265,7 +5265,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Cibalia</t>
+          <t>Dugopolje</t>
         </is>
       </c>
       <c r="G53" t="n">
@@ -5273,14 +5273,14 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Bijelo Brdo</t>
+          <t>Zrinski Jurjevac</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>1.69</v>
+        <v>2.05</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -5288,15 +5288,15 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>1.78</v>
+        <v>2.15</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>07/10/2023 14:42</t>
+          <t>07/10/2023 14:02</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.44</v>
+        <v>3.21</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -5304,15 +5304,15 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.57</v>
+        <v>3.39</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>07/10/2023 14:42</t>
+          <t>07/10/2023 14:02</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>4.27</v>
+        <v>3.17</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
@@ -5320,16 +5320,16 @@
         </is>
       </c>
       <c r="T53" t="n">
-        <v>4.38</v>
+        <v>3.2</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>07/10/2023 14:42</t>
+          <t>07/10/2023 14:02</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/cibalia-bijelo-brdo/IVBVDA5n/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/dugopolje-zrinski-jurjevac/Ec5vClza/</t>
         </is>
       </c>
     </row>
@@ -6277,22 +6277,22 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Dugopolje</t>
+          <t>Vukovar 1991</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Cibalia</t>
+          <t>Solin</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J64" t="n">
-        <v>1.94</v>
+        <v>1.5</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,15 +6300,15 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>21/10/2023 10:12</t>
+          <t>21/10/2023 14:58</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.21</v>
+        <v>4.02</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -6316,15 +6316,15 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.45</v>
+        <v>4.19</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>21/10/2023 13:03</t>
+          <t>21/10/2023 14:58</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>3.45</v>
+        <v>4.93</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
@@ -6332,16 +6332,16 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>5.04</v>
+        <v>4.78</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>21/10/2023 14:09</t>
+          <t>21/10/2023 14:56</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/dugopolje-cibalia/QFsPNoZA/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/vukovar-1991-solin/jHPc3Hmd/</t>
         </is>
       </c>
     </row>
@@ -6369,22 +6369,22 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Vukovar 1991</t>
+          <t>Dugopolje</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Solin</t>
+          <t>Cibalia</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>1.5</v>
+        <v>1.94</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -6392,15 +6392,15 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>1.6</v>
+        <v>1.71</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>21/10/2023 14:58</t>
+          <t>21/10/2023 10:12</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>4.02</v>
+        <v>3.21</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -6408,15 +6408,15 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>4.19</v>
+        <v>3.45</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>21/10/2023 14:58</t>
+          <t>21/10/2023 13:03</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>4.93</v>
+        <v>3.45</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
@@ -6424,16 +6424,16 @@
         </is>
       </c>
       <c r="T65" t="n">
-        <v>4.78</v>
+        <v>5.04</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>21/10/2023 14:56</t>
+          <t>21/10/2023 14:09</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/vukovar-1991-solin/jHPc3Hmd/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/dugopolje-cibalia/QFsPNoZA/</t>
         </is>
       </c>
     </row>
@@ -7381,22 +7381,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Cibalia</t>
+          <t>Orijent</t>
         </is>
       </c>
       <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Jarun</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
         <v>1</v>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>Dubrava</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
       <c r="J76" t="n">
-        <v>1.98</v>
+        <v>1.79</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,15 +7404,15 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>2.56</v>
+        <v>1.79</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>04/11/2023 13:59</t>
+          <t>04/11/2023 13:52</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.32</v>
+        <v>3.62</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,15 +7420,15 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.28</v>
+        <v>4.01</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>04/11/2023 13:59</t>
+          <t>04/11/2023 13:52</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>2.67</v>
+        <v>3.79</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>04/11/2023 13:59</t>
+          <t>04/11/2023 13:52</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/cibalia-dubrava-zagreb/nquxHzIe/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/orijent-jarun/QZwtGfX1/</t>
         </is>
       </c>
     </row>
@@ -7473,7 +7473,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Dugopolje</t>
+          <t>Cibalia</t>
         </is>
       </c>
       <c r="G77" t="n">
@@ -7481,14 +7481,14 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Bijelo Brdo</t>
+          <t>Dubrava</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>1.62</v>
+        <v>1.98</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>1.92</v>
+        <v>2.56</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.57</v>
+        <v>3.32</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.03</v>
+        <v>3.28</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         </is>
       </c>
       <c r="R77" t="n">
-        <v>4.6</v>
+        <v>3.25</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>4.54</v>
+        <v>2.67</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/dugopolje-bijelo-brdo/jHoTIdmq/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/cibalia-dubrava-zagreb/nquxHzIe/</t>
         </is>
       </c>
     </row>
@@ -7565,22 +7565,22 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Orijent</t>
+          <t>Dugopolje</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Jarun</t>
+          <t>Bijelo Brdo</t>
         </is>
       </c>
       <c r="I78" t="n">
         <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>1.79</v>
+        <v>1.62</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -7588,15 +7588,15 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>1.79</v>
+        <v>1.92</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>04/11/2023 13:52</t>
+          <t>04/11/2023 13:59</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.62</v>
+        <v>3.57</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -7604,15 +7604,15 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>4.01</v>
+        <v>3.03</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>04/11/2023 13:52</t>
+          <t>04/11/2023 13:59</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>3.55</v>
+        <v>4.6</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
@@ -7620,16 +7620,16 @@
         </is>
       </c>
       <c r="T78" t="n">
-        <v>3.79</v>
+        <v>4.54</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>04/11/2023 13:52</t>
+          <t>04/11/2023 13:59</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/orijent-jarun/QZwtGfX1/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/dugopolje-bijelo-brdo/jHoTIdmq/</t>
         </is>
       </c>
     </row>
@@ -7933,22 +7933,22 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Bijelo Brdo</t>
+          <t>Vukovar 1991</t>
         </is>
       </c>
       <c r="G82" t="n">
+        <v>2</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Orijent</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>Sibenik</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
-        <v>1</v>
-      </c>
       <c r="J82" t="n">
-        <v>4.54</v>
+        <v>1.47</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -7956,15 +7956,15 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>5.86</v>
+        <v>1.53</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>11/11/2023 13:52</t>
+          <t>11/11/2023 13:54</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>3.58</v>
+        <v>4.22</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -7972,15 +7972,15 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>4.01</v>
+        <v>4.56</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>11/11/2023 13:52</t>
+          <t>11/11/2023 13:54</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>1.63</v>
+        <v>5.03</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
@@ -7988,16 +7988,16 @@
         </is>
       </c>
       <c r="T82" t="n">
-        <v>1.54</v>
+        <v>5</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>11/11/2023 13:51</t>
+          <t>11/11/2023 13:54</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/bijelo-brdo-sibenik/z5LWxIvF/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/vukovar-1991-orijent/8WYwyd9R/</t>
         </is>
       </c>
     </row>
@@ -8025,22 +8025,22 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Vukovar 1991</t>
+          <t>Bijelo Brdo</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Orijent</t>
+          <t>Sibenik</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>1.47</v>
+        <v>4.54</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -8048,15 +8048,15 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>1.53</v>
+        <v>5.86</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>11/11/2023 13:54</t>
+          <t>11/11/2023 13:52</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>4.22</v>
+        <v>3.58</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -8064,15 +8064,15 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>4.56</v>
+        <v>4.01</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>11/11/2023 13:54</t>
+          <t>11/11/2023 13:52</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>5.03</v>
+        <v>1.63</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
@@ -8080,16 +8080,108 @@
         </is>
       </c>
       <c r="T83" t="n">
-        <v>5</v>
+        <v>1.54</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>11/11/2023 13:54</t>
+          <t>11/11/2023 13:51</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/vukovar-1991-orijent/8WYwyd9R/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/bijelo-brdo-sibenik/z5LWxIvF/</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>croatia</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>prva-nl</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>45242.58333333334</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Croatia Zmijavci</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>4</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Dugopolje</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>1</v>
+      </c>
+      <c r="J84" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>11/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:43</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>11/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P84" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:43</t>
+        </is>
+      </c>
+      <c r="R84" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>11/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T84" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:43</t>
+        </is>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/croatia-zmijavci-dugopolje/67EEUgne/</t>
         </is>
       </c>
     </row>

--- a/2023/croatia_prva-nl_2023-2024.xlsx
+++ b/2023/croatia_prva-nl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V84"/>
+  <dimension ref="A1:V85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7933,22 +7933,22 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Vukovar 1991</t>
+          <t>Bijelo Brdo</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Orijent</t>
+          <t>Sibenik</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>1.47</v>
+        <v>4.54</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -7956,15 +7956,15 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>1.53</v>
+        <v>5.86</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>11/11/2023 13:54</t>
+          <t>11/11/2023 13:52</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>4.22</v>
+        <v>3.58</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -7972,15 +7972,15 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>4.56</v>
+        <v>4.01</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>11/11/2023 13:54</t>
+          <t>11/11/2023 13:52</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>5.03</v>
+        <v>1.63</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
@@ -7988,16 +7988,16 @@
         </is>
       </c>
       <c r="T82" t="n">
-        <v>5</v>
+        <v>1.54</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>11/11/2023 13:54</t>
+          <t>11/11/2023 13:51</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/vukovar-1991-orijent/8WYwyd9R/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/bijelo-brdo-sibenik/z5LWxIvF/</t>
         </is>
       </c>
     </row>
@@ -8025,22 +8025,22 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Bijelo Brdo</t>
+          <t>Vukovar 1991</t>
         </is>
       </c>
       <c r="G83" t="n">
+        <v>2</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Orijent</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>Sibenik</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
       <c r="J83" t="n">
-        <v>4.54</v>
+        <v>1.47</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -8048,15 +8048,15 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>5.86</v>
+        <v>1.53</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>11/11/2023 13:52</t>
+          <t>11/11/2023 13:54</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.58</v>
+        <v>4.22</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -8064,15 +8064,15 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>4.01</v>
+        <v>4.56</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>11/11/2023 13:52</t>
+          <t>11/11/2023 13:54</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>1.63</v>
+        <v>5.03</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
@@ -8080,16 +8080,16 @@
         </is>
       </c>
       <c r="T83" t="n">
-        <v>1.54</v>
+        <v>5</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>11/11/2023 13:51</t>
+          <t>11/11/2023 13:54</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/bijelo-brdo-sibenik/z5LWxIvF/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/vukovar-1991-orijent/8WYwyd9R/</t>
         </is>
       </c>
     </row>
@@ -8182,6 +8182,98 @@
       <c r="V84" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/croatia/prva-nl/croatia-zmijavci-dugopolje/67EEUgne/</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>croatia</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>prva-nl</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>45243.58333333334</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Jarun</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>2</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Cibalia</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>12/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>13/11/2023 13:55</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>12/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P85" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>13/11/2023 13:55</t>
+        </is>
+      </c>
+      <c r="R85" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>12/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T85" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>13/11/2023 13:55</t>
+        </is>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/jarun-cibalia/AuL5WFHr/</t>
         </is>
       </c>
     </row>

--- a/2023/croatia_prva-nl_2023-2024.xlsx
+++ b/2023/croatia_prva-nl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V85"/>
+  <dimension ref="A1:V87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,22 +665,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Orijent</t>
+          <t>Solin</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Dubrava</t>
+          <t>Bijelo Brdo</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.12</v>
+        <v>2.09</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -688,15 +688,15 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>2.01</v>
+        <v>2.1</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>12/08/2023 17:29</t>
+          <t>12/08/2023 17:27</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>3.2</v>
+        <v>3.27</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -704,11 +704,11 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3.38</v>
+        <v>3.53</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>12/08/2023 17:29</t>
+          <t>12/08/2023 17:27</t>
         </is>
       </c>
       <c r="R3" t="n">
@@ -720,16 +720,16 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>3.59</v>
+        <v>3.2</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>12/08/2023 17:29</t>
+          <t>12/08/2023 17:27</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/orijent-dubrava-zagreb/Cdce1OPO/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/solin-bijelo-brdo/0vop4Qu6/</t>
         </is>
       </c>
     </row>
@@ -757,71 +757,71 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Cibalia</t>
+          <t>Sesvete</t>
         </is>
       </c>
       <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Dugopolje</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
         <v>1</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Croatia Zmijavci</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
       <c r="J4" t="n">
-        <v>1.65</v>
+        <v>2.49</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>11/08/2023 05:43</t>
+          <t>12/08/2023 17:11</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>2.02</v>
+        <v>2.26</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>12/08/2023 15:37</t>
+          <t>12/08/2023 17:25</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>3.47</v>
+        <v>2.94</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>11/08/2023 05:43</t>
+          <t>12/08/2023 17:11</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>3.47</v>
+        <v>3.14</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>12/08/2023 17:16</t>
+          <t>12/08/2023 17:25</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>4.52</v>
+        <v>2.65</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>11/08/2023 05:43</t>
+          <t>12/08/2023 17:11</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>3.45</v>
+        <v>3.23</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>12/08/2023 17:16</t>
+          <t>12/08/2023 17:25</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/cibalia-croatia-zmijavci/E1yvQ72P/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/sesvete-dugopolje/jNS5LRAt/</t>
         </is>
       </c>
     </row>
@@ -849,71 +849,71 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Sesvete</t>
+          <t>Orijent</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Dugopolje</t>
+          <t>Dubrava</t>
         </is>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>2.49</v>
+        <v>2.12</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>12/08/2023 17:11</t>
+          <t>11/08/2023 05:43</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>2.26</v>
+        <v>2.01</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>12/08/2023 17:25</t>
+          <t>12/08/2023 17:29</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>2.94</v>
+        <v>3.2</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>12/08/2023 17:11</t>
+          <t>11/08/2023 05:43</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3.14</v>
+        <v>3.38</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>12/08/2023 17:25</t>
+          <t>12/08/2023 17:29</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>2.65</v>
+        <v>3.12</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>12/08/2023 17:11</t>
+          <t>11/08/2023 05:43</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>3.23</v>
+        <v>3.59</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>12/08/2023 17:25</t>
+          <t>12/08/2023 17:29</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/sesvete-dugopolje/jNS5LRAt/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/orijent-dubrava-zagreb/Cdce1OPO/</t>
         </is>
       </c>
     </row>
@@ -941,22 +941,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Solin</t>
+          <t>Cibalia</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Bijelo Brdo</t>
+          <t>Croatia Zmijavci</t>
         </is>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>2.09</v>
+        <v>1.65</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -964,15 +964,15 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>12/08/2023 17:27</t>
+          <t>12/08/2023 15:37</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.27</v>
+        <v>3.47</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -980,15 +980,15 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.53</v>
+        <v>3.47</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>12/08/2023 17:27</t>
+          <t>12/08/2023 17:16</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>3.12</v>
+        <v>4.52</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>12/08/2023 17:27</t>
+          <t>12/08/2023 17:16</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/solin-bijelo-brdo/0vop4Qu6/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/cibalia-croatia-zmijavci/E1yvQ72P/</t>
         </is>
       </c>
     </row>
@@ -2321,22 +2321,22 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Vukovar 1991</t>
+          <t>Bijelo Brdo</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Cibalia</t>
+          <t>Croatia Zmijavci</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>2.07</v>
+        <v>2.03</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>1.98</v>
+        <v>2.42</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.14</v>
+        <v>3.16</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.32</v>
+        <v>3.18</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         </is>
       </c>
       <c r="R21" t="n">
-        <v>3.3</v>
+        <v>3.36</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>3.76</v>
+        <v>2.91</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/vukovar-1991-cibalia/Srlok6Bl/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/bijelo-brdo-croatia-zmijavci/rgN98fC9/</t>
         </is>
       </c>
     </row>
@@ -2413,22 +2413,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Solin</t>
+          <t>Vukovar 1991</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Orijent</t>
+          <t>Cibalia</t>
         </is>
       </c>
       <c r="I22" t="n">
         <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.34</v>
+        <v>3.14</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.65</v>
+        <v>3.32</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         </is>
       </c>
       <c r="R22" t="n">
-        <v>2.99</v>
+        <v>3.3</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>3.24</v>
+        <v>3.76</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/solin-orijent/A7wjlQQf/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/vukovar-1991-cibalia/Srlok6Bl/</t>
         </is>
       </c>
     </row>
@@ -2597,22 +2597,22 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Bijelo Brdo</t>
+          <t>Solin</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Croatia Zmijavci</t>
+          <t>Orijent</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>2.03</v>
+        <v>2.08</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2.42</v>
+        <v>2.05</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -2628,7 +2628,7 @@
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.16</v>
+        <v>3.34</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2636,7 +2636,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.18</v>
+        <v>3.65</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         </is>
       </c>
       <c r="R24" t="n">
-        <v>3.36</v>
+        <v>2.99</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>2.91</v>
+        <v>3.24</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/bijelo-brdo-croatia-zmijavci/rgN98fC9/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/solin-orijent/A7wjlQQf/</t>
         </is>
       </c>
     </row>
@@ -3609,22 +3609,22 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Solin</t>
+          <t>Bijelo Brdo</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Sesvete</t>
+          <t>Dubrava</t>
         </is>
       </c>
       <c r="I35" t="n">
         <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3632,15 +3632,15 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>1.79</v>
+        <v>2.54</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>16/09/2023 16:26</t>
+          <t>16/09/2023 16:29</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.3</v>
+        <v>3.12</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3648,15 +3648,15 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.75</v>
+        <v>3.11</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>16/09/2023 16:26</t>
+          <t>16/09/2023 16:29</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>3.17</v>
+        <v>3</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
@@ -3664,16 +3664,16 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>4.08</v>
+        <v>2.81</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>16/09/2023 16:26</t>
+          <t>16/09/2023 16:29</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/solin-sesvete/MurTaNP6/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/bijelo-brdo-dubrava-zagreb/zPuH2Pul/</t>
         </is>
       </c>
     </row>
@@ -3701,22 +3701,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Bijelo Brdo</t>
+          <t>Solin</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Dubrava</t>
+          <t>Sesvete</t>
         </is>
       </c>
       <c r="I36" t="n">
         <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3724,15 +3724,15 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>2.54</v>
+        <v>1.79</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>16/09/2023 16:29</t>
+          <t>16/09/2023 16:26</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.12</v>
+        <v>3.3</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3740,15 +3740,15 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.11</v>
+        <v>3.75</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>16/09/2023 16:29</t>
+          <t>16/09/2023 16:26</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>3</v>
+        <v>3.17</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
@@ -3756,16 +3756,16 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>2.81</v>
+        <v>4.08</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>16/09/2023 16:29</t>
+          <t>16/09/2023 16:26</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/bijelo-brdo-dubrava-zagreb/zPuH2Pul/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/solin-sesvete/MurTaNP6/</t>
         </is>
       </c>
     </row>
@@ -4069,7 +4069,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Cibalia</t>
+          <t>Orijent</t>
         </is>
       </c>
       <c r="G40" t="n">
@@ -4077,14 +4077,14 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Zrinski Jurjevac</t>
+          <t>Bijelo Brdo</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>1.81</v>
+        <v>1.93</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,15 +4092,15 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>2.33</v>
+        <v>1.95</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>23/09/2023 15:59</t>
+          <t>23/09/2023 15:46</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.42</v>
+        <v>3.39</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4108,15 +4108,15 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.13</v>
+        <v>3.35</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>23/09/2023 15:59</t>
+          <t>23/09/2023 15:55</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>3.84</v>
+        <v>3.29</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>3.1</v>
+        <v>3.85</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>23/09/2023 15:56</t>
+          <t>23/09/2023 15:55</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/cibalia-zrinski-jurjevac/8YNNL4nQ/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/orijent-bijelo-brdo/UsPJMpXJ/</t>
         </is>
       </c>
     </row>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Orijent</t>
+          <t>Cibalia</t>
         </is>
       </c>
       <c r="G41" t="n">
@@ -4169,14 +4169,14 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Bijelo Brdo</t>
+          <t>Zrinski Jurjevac</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J41" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,15 +4184,15 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>1.95</v>
+        <v>2.33</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>23/09/2023 15:46</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.39</v>
+        <v>3.42</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4200,15 +4200,15 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>3.35</v>
+        <v>3.13</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>23/09/2023 15:55</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>3.29</v>
+        <v>3.84</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -4216,16 +4216,16 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>3.85</v>
+        <v>3.1</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>23/09/2023 15:55</t>
+          <t>23/09/2023 15:56</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/orijent-bijelo-brdo/UsPJMpXJ/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/cibalia-zrinski-jurjevac/8YNNL4nQ/</t>
         </is>
       </c>
     </row>
@@ -6277,22 +6277,22 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Vukovar 1991</t>
+          <t>Dugopolje</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Solin</t>
+          <t>Cibalia</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>1.5</v>
+        <v>1.94</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,15 +6300,15 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>1.6</v>
+        <v>1.71</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>21/10/2023 14:58</t>
+          <t>21/10/2023 10:12</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>4.02</v>
+        <v>3.21</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -6316,15 +6316,15 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>4.19</v>
+        <v>3.45</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>21/10/2023 14:58</t>
+          <t>21/10/2023 13:03</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>4.93</v>
+        <v>3.45</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
@@ -6332,16 +6332,16 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>4.78</v>
+        <v>5.04</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>21/10/2023 14:56</t>
+          <t>21/10/2023 14:09</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/vukovar-1991-solin/jHPc3Hmd/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/dugopolje-cibalia/QFsPNoZA/</t>
         </is>
       </c>
     </row>
@@ -6369,22 +6369,22 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Dugopolje</t>
+          <t>Vukovar 1991</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Cibalia</t>
+          <t>Solin</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J65" t="n">
-        <v>1.94</v>
+        <v>1.5</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -6392,15 +6392,15 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>21/10/2023 10:12</t>
+          <t>21/10/2023 14:58</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>3.21</v>
+        <v>4.02</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -6408,15 +6408,15 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3.45</v>
+        <v>4.19</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>21/10/2023 13:03</t>
+          <t>21/10/2023 14:58</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>3.45</v>
+        <v>4.93</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
@@ -6424,16 +6424,16 @@
         </is>
       </c>
       <c r="T65" t="n">
-        <v>5.04</v>
+        <v>4.78</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>21/10/2023 14:09</t>
+          <t>21/10/2023 14:56</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/dugopolje-cibalia/QFsPNoZA/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/vukovar-1991-solin/jHPc3Hmd/</t>
         </is>
       </c>
     </row>
@@ -7381,22 +7381,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Orijent</t>
+          <t>Cibalia</t>
         </is>
       </c>
       <c r="G76" t="n">
+        <v>1</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Dubrava</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>Jarun</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
-        <v>1</v>
-      </c>
       <c r="J76" t="n">
-        <v>1.79</v>
+        <v>1.98</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,15 +7404,15 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>1.79</v>
+        <v>2.56</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>04/11/2023 13:52</t>
+          <t>04/11/2023 13:59</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.62</v>
+        <v>3.32</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,15 +7420,15 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>4.01</v>
+        <v>3.28</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>04/11/2023 13:52</t>
+          <t>04/11/2023 13:59</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>3.55</v>
+        <v>3.25</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>3.79</v>
+        <v>2.67</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>04/11/2023 13:52</t>
+          <t>04/11/2023 13:59</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/orijent-jarun/QZwtGfX1/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/cibalia-dubrava-zagreb/nquxHzIe/</t>
         </is>
       </c>
     </row>
@@ -7473,7 +7473,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Cibalia</t>
+          <t>Dugopolje</t>
         </is>
       </c>
       <c r="G77" t="n">
@@ -7481,14 +7481,14 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Dubrava</t>
+          <t>Bijelo Brdo</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>1.98</v>
+        <v>1.62</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>2.56</v>
+        <v>1.92</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.32</v>
+        <v>3.57</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.28</v>
+        <v>3.03</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         </is>
       </c>
       <c r="R77" t="n">
-        <v>3.25</v>
+        <v>4.6</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>2.67</v>
+        <v>4.54</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/cibalia-dubrava-zagreb/nquxHzIe/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/dugopolje-bijelo-brdo/jHoTIdmq/</t>
         </is>
       </c>
     </row>
@@ -7565,22 +7565,22 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Dugopolje</t>
+          <t>Orijent</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Bijelo Brdo</t>
+          <t>Jarun</t>
         </is>
       </c>
       <c r="I78" t="n">
         <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>1.62</v>
+        <v>1.79</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -7588,15 +7588,15 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>04/11/2023 13:59</t>
+          <t>04/11/2023 13:52</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.57</v>
+        <v>3.62</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -7604,15 +7604,15 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.03</v>
+        <v>4.01</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>04/11/2023 13:59</t>
+          <t>04/11/2023 13:52</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>4.6</v>
+        <v>3.55</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
@@ -7620,16 +7620,16 @@
         </is>
       </c>
       <c r="T78" t="n">
-        <v>4.54</v>
+        <v>3.79</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>04/11/2023 13:59</t>
+          <t>04/11/2023 13:52</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/dugopolje-bijelo-brdo/jHoTIdmq/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/orijent-jarun/QZwtGfX1/</t>
         </is>
       </c>
     </row>
@@ -8274,6 +8274,190 @@
       <c r="V85" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/croatia/prva-nl/jarun-cibalia/AuL5WFHr/</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>croatia</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>prva-nl</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>45247.5625</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Cibalia</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Vukovar 1991</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>1</v>
+      </c>
+      <c r="J86" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>16/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>17/11/2023 13:25</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>16/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P86" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>17/11/2023 13:25</t>
+        </is>
+      </c>
+      <c r="R86" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>16/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T86" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>17/11/2023 13:25</t>
+        </is>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/cibalia-vukovar-1991/fTf9jy9E/</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>croatia</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>prva-nl</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>45247.5625</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Sesvete</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>2</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Jarun</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>1</v>
+      </c>
+      <c r="J87" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>16/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>17/11/2023 13:29</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>16/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P87" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>17/11/2023 13:29</t>
+        </is>
+      </c>
+      <c r="R87" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>16/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T87" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>17/11/2023 13:29</t>
+        </is>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/sesvete-jarun/Gxd5iHg8/</t>
         </is>
       </c>
     </row>

--- a/2023/croatia_prva-nl_2023-2024.xlsx
+++ b/2023/croatia_prva-nl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V87"/>
+  <dimension ref="A1:V91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1769,22 +1769,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Zrinski Jurjevac</t>
+          <t>Orijent</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Solin</t>
+          <t>Vukovar 1991</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>1.95</v>
+        <v>2.76</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>2.22</v>
+        <v>1.93</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>26/08/2023 16:56</t>
+          <t>26/08/2023 16:55</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.34</v>
+        <v>3.12</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,15 +1808,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.32</v>
+        <v>3.54</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>26/08/2023 16:56</t>
+          <t>26/08/2023 16:52</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>3.29</v>
+        <v>2.31</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>3.12</v>
+        <v>3.68</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>26/08/2023 16:56</t>
+          <t>26/08/2023 16:59</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/zrinski-jurjevac-solin/vPnAmgzp/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/orijent-vukovar-1991/d0sFnDkj/</t>
         </is>
       </c>
     </row>
@@ -1861,22 +1861,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Orijent</t>
+          <t>Cibalia</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Vukovar 1991</t>
+          <t>Jarun</t>
         </is>
       </c>
       <c r="I16" t="n">
         <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>2.76</v>
+        <v>1.64</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1884,15 +1884,15 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>1.93</v>
+        <v>1.74</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>26/08/2023 16:55</t>
+          <t>26/08/2023 16:52</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.12</v>
+        <v>3.71</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.54</v>
+        <v>3.86</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         </is>
       </c>
       <c r="R16" t="n">
-        <v>2.31</v>
+        <v>4.42</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1916,16 +1916,16 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>3.68</v>
+        <v>4.19</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>26/08/2023 16:59</t>
+          <t>26/08/2023 16:52</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/orijent-vukovar-1991/d0sFnDkj/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/cibalia-jarun/zitJoX4d/</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Cibalia</t>
+          <t>Zrinski Jurjevac</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1961,14 +1961,14 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Jarun</t>
+          <t>Solin</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1.64</v>
+        <v>1.95</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1976,15 +1976,15 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>1.74</v>
+        <v>2.22</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>26/08/2023 16:52</t>
+          <t>26/08/2023 16:56</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.71</v>
+        <v>3.34</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1992,15 +1992,15 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.86</v>
+        <v>3.32</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>26/08/2023 16:52</t>
+          <t>26/08/2023 16:56</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>4.42</v>
+        <v>3.29</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2008,16 +2008,16 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>4.19</v>
+        <v>3.12</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>26/08/2023 16:52</t>
+          <t>26/08/2023 16:56</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/cibalia-jarun/zitJoX4d/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/zrinski-jurjevac-solin/vPnAmgzp/</t>
         </is>
       </c>
     </row>
@@ -2321,22 +2321,22 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Bijelo Brdo</t>
+          <t>Vukovar 1991</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Croatia Zmijavci</t>
+          <t>Cibalia</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>2.03</v>
+        <v>2.07</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>2.42</v>
+        <v>1.98</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.16</v>
+        <v>3.14</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.18</v>
+        <v>3.32</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         </is>
       </c>
       <c r="R21" t="n">
-        <v>3.36</v>
+        <v>3.3</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>2.91</v>
+        <v>3.76</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/bijelo-brdo-croatia-zmijavci/rgN98fC9/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/vukovar-1991-cibalia/Srlok6Bl/</t>
         </is>
       </c>
     </row>
@@ -2413,22 +2413,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Vukovar 1991</t>
+          <t>Solin</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Cibalia</t>
+          <t>Orijent</t>
         </is>
       </c>
       <c r="I22" t="n">
         <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.14</v>
+        <v>3.34</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.32</v>
+        <v>3.65</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         </is>
       </c>
       <c r="R22" t="n">
-        <v>3.3</v>
+        <v>2.99</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>3.76</v>
+        <v>3.24</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/vukovar-1991-cibalia/Srlok6Bl/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/solin-orijent/A7wjlQQf/</t>
         </is>
       </c>
     </row>
@@ -2597,22 +2597,22 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Solin</t>
+          <t>Bijelo Brdo</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Orijent</t>
+          <t>Croatia Zmijavci</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>2.08</v>
+        <v>2.03</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2.05</v>
+        <v>2.42</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -2628,7 +2628,7 @@
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.34</v>
+        <v>3.16</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2636,7 +2636,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.65</v>
+        <v>3.18</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         </is>
       </c>
       <c r="R24" t="n">
-        <v>2.99</v>
+        <v>3.36</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>3.24</v>
+        <v>2.91</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/solin-orijent/A7wjlQQf/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/bijelo-brdo-croatia-zmijavci/rgN98fC9/</t>
         </is>
       </c>
     </row>
@@ -2873,71 +2873,71 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Zrinski Jurjevac</t>
+          <t>Orijent</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Bijelo Brdo</t>
+          <t>Sibenik</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J27" t="n">
-        <v>2.1</v>
+        <v>4.75</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>08/09/2023 04:42</t>
+          <t>09/09/2023 14:42</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>1.85</v>
+        <v>3.89</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
+          <t>09/09/2023 16:26</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>09/09/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P27" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
           <t>09/09/2023 16:23</t>
         </is>
       </c>
-      <c r="N27" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>08/09/2023 04:42</t>
-        </is>
-      </c>
-      <c r="P27" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>09/09/2023 16:23</t>
-        </is>
-      </c>
       <c r="R27" t="n">
-        <v>3.2</v>
+        <v>1.63</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>08/09/2023 04:42</t>
+          <t>09/09/2023 14:42</t>
         </is>
       </c>
       <c r="T27" t="n">
-        <v>4.23</v>
+        <v>1.84</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>09/09/2023 16:23</t>
+          <t>09/09/2023 16:26</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/zrinski-jurjevac-bijelo-brdo/IXtbn4e7/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/orijent-sibenik/dOu2oOAD/</t>
         </is>
       </c>
     </row>
@@ -2965,71 +2965,71 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Orijent</t>
+          <t>Dugopolje</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Sibenik</t>
+          <t>Jarun</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>4.75</v>
+        <v>1.7</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>09/09/2023 14:42</t>
+          <t>08/09/2023 04:42</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>3.89</v>
+        <v>1.78</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>09/09/2023 16:26</t>
+          <t>09/09/2023 16:21</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.9</v>
+        <v>3.62</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>09/09/2023 14:42</t>
+          <t>08/09/2023 04:42</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.68</v>
+        <v>3.67</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>09/09/2023 16:23</t>
+          <t>09/09/2023 16:21</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>1.63</v>
+        <v>3.95</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>09/09/2023 14:42</t>
+          <t>08/09/2023 04:42</t>
         </is>
       </c>
       <c r="T28" t="n">
-        <v>1.84</v>
+        <v>4.23</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>09/09/2023 16:26</t>
+          <t>09/09/2023 16:21</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/orijent-sibenik/dOu2oOAD/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/dugopolje-jarun/Gvap8oIQ/</t>
         </is>
       </c>
     </row>
@@ -3057,22 +3057,22 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Dugopolje</t>
+          <t>Zrinski Jurjevac</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Jarun</t>
+          <t>Bijelo Brdo</t>
         </is>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3080,15 +3080,15 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>09/09/2023 16:21</t>
+          <t>09/09/2023 16:23</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.62</v>
+        <v>3.17</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3096,15 +3096,15 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.67</v>
+        <v>3.4</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>09/09/2023 16:21</t>
+          <t>09/09/2023 16:23</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>3.95</v>
+        <v>3.2</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -3116,12 +3116,12 @@
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>09/09/2023 16:21</t>
+          <t>09/09/2023 16:23</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/dugopolje-jarun/Gvap8oIQ/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/zrinski-jurjevac-bijelo-brdo/IXtbn4e7/</t>
         </is>
       </c>
     </row>
@@ -4621,7 +4621,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Bijelo Brdo</t>
+          <t>Solin</t>
         </is>
       </c>
       <c r="G46" t="n">
@@ -4629,14 +4629,14 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Jarun</t>
+          <t>Croatia Zmijavci</t>
         </is>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4644,15 +4644,15 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>2.22</v>
+        <v>1.79</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>30/09/2023 15:19</t>
+          <t>30/09/2023 15:29</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3.38</v>
+        <v>3.4</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4660,15 +4660,15 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>3.27</v>
+        <v>3.71</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>30/09/2023 15:19</t>
+          <t>30/09/2023 15:29</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>3.3</v>
+        <v>3.41</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
@@ -4676,16 +4676,16 @@
         </is>
       </c>
       <c r="T46" t="n">
-        <v>3.16</v>
+        <v>4.1</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>30/09/2023 15:19</t>
+          <t>30/09/2023 15:29</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/bijelo-brdo-jarun/I7c7Dtf6/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/solin-croatia-zmijavci/4OeFBKOI/</t>
         </is>
       </c>
     </row>
@@ -4713,22 +4713,22 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Solin</t>
+          <t>Vukovar 1991</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Croatia Zmijavci</t>
+          <t>Dubrava</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J47" t="n">
-        <v>1.89</v>
+        <v>1.61</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4736,15 +4736,15 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>1.79</v>
+        <v>1.84</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>30/09/2023 15:29</t>
+          <t>30/09/2023 15:15</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4752,15 +4752,15 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>3.71</v>
+        <v>3.83</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>30/09/2023 15:29</t>
+          <t>30/09/2023 15:15</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>3.41</v>
+        <v>4.43</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
@@ -4768,16 +4768,16 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>30/09/2023 15:29</t>
+          <t>30/09/2023 15:15</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/solin-croatia-zmijavci/4OeFBKOI/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/vukovar-1991-dubrava-zagreb/dbdBC09C/</t>
         </is>
       </c>
     </row>
@@ -4805,22 +4805,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Vukovar 1991</t>
+          <t>Bijelo Brdo</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Dubrava</t>
+          <t>Jarun</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>1.61</v>
+        <v>1.93</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>1.84</v>
+        <v>2.22</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>30/09/2023 15:15</t>
+          <t>30/09/2023 15:19</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.7</v>
+        <v>3.38</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.83</v>
+        <v>3.27</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>30/09/2023 15:15</t>
+          <t>30/09/2023 15:19</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>4.43</v>
+        <v>3.3</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>3.75</v>
+        <v>3.16</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>30/09/2023 15:15</t>
+          <t>30/09/2023 15:19</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/vukovar-1991-dubrava-zagreb/dbdBC09C/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/bijelo-brdo-jarun/I7c7Dtf6/</t>
         </is>
       </c>
     </row>
@@ -5633,22 +5633,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Cibalia</t>
+          <t>Solin</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Sesvete</t>
+          <t>Jarun</t>
         </is>
       </c>
       <c r="I57" t="n">
         <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,15 +5656,15 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>14/10/2023 14:59</t>
+          <t>14/10/2023 14:51</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.53</v>
+        <v>3.54</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -5672,15 +5672,15 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.52</v>
+        <v>3.62</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>14/10/2023 14:59</t>
+          <t>14/10/2023 14:51</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>3.94</v>
+        <v>3.41</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
@@ -5688,16 +5688,16 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>4.64</v>
+        <v>3.79</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>14/10/2023 14:59</t>
+          <t>14/10/2023 14:51</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/cibalia-sesvete/h2qHP74b/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/solin-jarun/6BAb7QlU/</t>
         </is>
       </c>
     </row>
@@ -5725,22 +5725,22 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Solin</t>
+          <t>Zrinski Jurjevac</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Jarun</t>
+          <t>Croatia Zmijavci</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>1.85</v>
+        <v>1.68</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -5748,15 +5748,15 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>1.88</v>
+        <v>1.58</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>14/10/2023 14:51</t>
+          <t>14/10/2023 14:53</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.54</v>
+        <v>3.61</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -5764,15 +5764,15 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.62</v>
+        <v>3.86</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>14/10/2023 14:51</t>
+          <t>14/10/2023 14:53</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>3.41</v>
+        <v>4.26</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
@@ -5780,16 +5780,16 @@
         </is>
       </c>
       <c r="T58" t="n">
-        <v>3.79</v>
+        <v>5.57</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>14/10/2023 14:51</t>
+          <t>14/10/2023 14:53</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/solin-jarun/6BAb7QlU/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/zrinski-jurjevac-croatia-zmijavci/dzj8RTZo/</t>
         </is>
       </c>
     </row>
@@ -5817,22 +5817,22 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Zrinski Jurjevac</t>
+          <t>Cibalia</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Croatia Zmijavci</t>
+          <t>Sesvete</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -5840,15 +5840,15 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>1.58</v>
+        <v>1.75</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>14/10/2023 14:53</t>
+          <t>14/10/2023 14:59</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.61</v>
+        <v>3.53</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -5856,15 +5856,15 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>3.86</v>
+        <v>3.52</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>14/10/2023 14:53</t>
+          <t>14/10/2023 14:59</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>4.26</v>
+        <v>3.94</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
@@ -5872,16 +5872,16 @@
         </is>
       </c>
       <c r="T59" t="n">
-        <v>5.57</v>
+        <v>4.64</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>14/10/2023 14:53</t>
+          <t>14/10/2023 14:59</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/zrinski-jurjevac-croatia-zmijavci/dzj8RTZo/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/cibalia-sesvete/h2qHP74b/</t>
         </is>
       </c>
     </row>
@@ -6829,7 +6829,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Bijelo Brdo</t>
+          <t>Dugopolje</t>
         </is>
       </c>
       <c r="G70" t="n">
@@ -6837,14 +6837,14 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Solin</t>
+          <t>Sesvete</t>
         </is>
       </c>
       <c r="I70" t="n">
         <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>2.14</v>
+        <v>1.72</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>2.68</v>
+        <v>1.68</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>28/10/2023 14:57</t>
+          <t>27/10/2023 13:14</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.17</v>
+        <v>3.47</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,15 +6868,15 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>2.66</v>
+        <v>3.76</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>28/10/2023 14:56</t>
+          <t>28/10/2023 14:26</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>3.02</v>
+        <v>4.07</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>3.1</v>
+        <v>4.74</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>28/10/2023 14:57</t>
+          <t>28/10/2023 14:26</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/bijelo-brdo-solin/hM3tS0Qd/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/dugopolje-sesvete/Yya1NxuS/</t>
         </is>
       </c>
     </row>
@@ -6921,7 +6921,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Dugopolje</t>
+          <t>Bijelo Brdo</t>
         </is>
       </c>
       <c r="G71" t="n">
@@ -6929,14 +6929,14 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Sesvete</t>
+          <t>Solin</t>
         </is>
       </c>
       <c r="I71" t="n">
         <v>1</v>
       </c>
       <c r="J71" t="n">
-        <v>1.72</v>
+        <v>2.14</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -6944,15 +6944,15 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>1.68</v>
+        <v>2.68</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>27/10/2023 13:14</t>
+          <t>28/10/2023 14:57</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.47</v>
+        <v>3.17</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -6960,15 +6960,15 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>3.76</v>
+        <v>2.66</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>28/10/2023 14:26</t>
+          <t>28/10/2023 14:56</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>4.07</v>
+        <v>3.02</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
@@ -6976,16 +6976,16 @@
         </is>
       </c>
       <c r="T71" t="n">
-        <v>4.74</v>
+        <v>3.1</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>28/10/2023 14:26</t>
+          <t>28/10/2023 14:57</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/dugopolje-sesvete/Yya1NxuS/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/bijelo-brdo-solin/hM3tS0Qd/</t>
         </is>
       </c>
     </row>
@@ -8458,6 +8458,374 @@
       <c r="V87" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/croatia/prva-nl/sesvete-jarun/Gxd5iHg8/</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>croatia</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>prva-nl</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>45248.5625</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Dugopolje</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>1</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Dubrava</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>2</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>17/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>18/11/2023 13:21</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>17/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P88" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>18/11/2023 13:21</t>
+        </is>
+      </c>
+      <c r="R88" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>17/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T88" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>18/11/2023 13:21</t>
+        </is>
+      </c>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/dugopolje-dubrava-zagreb/vLCMSXG7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>croatia</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>prva-nl</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>45248.5625</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Orijent</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>1</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Solin</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>1</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>17/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>18/11/2023 13:25</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>17/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P89" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>18/11/2023 13:25</t>
+        </is>
+      </c>
+      <c r="R89" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>17/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T89" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>18/11/2023 13:25</t>
+        </is>
+      </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/orijent-solin/ljfDkeOK/</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>croatia</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>prva-nl</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>45249.5625</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Croatia Zmijavci</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>1</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Bijelo Brdo</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>1</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>18/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>19/11/2023 13:23</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>18/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P90" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>19/11/2023 13:23</t>
+        </is>
+      </c>
+      <c r="R90" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>18/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T90" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>19/11/2023 13:24</t>
+        </is>
+      </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/croatia-zmijavci-bijelo-brdo/0UDITD11/</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>croatia</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>prva-nl</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>45249.5625</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Zrinski Jurjevac</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>2</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Sibenik</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>18/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>19/11/2023 13:27</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>18/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P91" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>19/11/2023 13:27</t>
+        </is>
+      </c>
+      <c r="R91" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>18/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T91" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>19/11/2023 13:27</t>
+        </is>
+      </c>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/zrinski-jurjevac-sibenik/0QcHlFwR/</t>
         </is>
       </c>
     </row>

--- a/2023/croatia_prva-nl_2023-2024.xlsx
+++ b/2023/croatia_prva-nl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V91"/>
+  <dimension ref="A1:V92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2321,22 +2321,22 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Vukovar 1991</t>
+          <t>Solin</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Cibalia</t>
+          <t>Orijent</t>
         </is>
       </c>
       <c r="I21" t="n">
         <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.14</v>
+        <v>3.34</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.32</v>
+        <v>3.65</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         </is>
       </c>
       <c r="R21" t="n">
-        <v>3.3</v>
+        <v>2.99</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>3.76</v>
+        <v>3.24</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/vukovar-1991-cibalia/Srlok6Bl/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/solin-orijent/A7wjlQQf/</t>
         </is>
       </c>
     </row>
@@ -2413,22 +2413,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Solin</t>
+          <t>Vukovar 1991</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Orijent</t>
+          <t>Cibalia</t>
         </is>
       </c>
       <c r="I22" t="n">
         <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.34</v>
+        <v>3.14</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.65</v>
+        <v>3.32</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         </is>
       </c>
       <c r="R22" t="n">
-        <v>2.99</v>
+        <v>3.3</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>3.24</v>
+        <v>3.76</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/solin-orijent/A7wjlQQf/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/vukovar-1991-cibalia/Srlok6Bl/</t>
         </is>
       </c>
     </row>
@@ -4621,22 +4621,22 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Solin</t>
+          <t>Vukovar 1991</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Croatia Zmijavci</t>
+          <t>Dubrava</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J46" t="n">
-        <v>1.89</v>
+        <v>1.61</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4644,15 +4644,15 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>1.79</v>
+        <v>1.84</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>30/09/2023 15:29</t>
+          <t>30/09/2023 15:15</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4660,15 +4660,15 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>3.71</v>
+        <v>3.83</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>30/09/2023 15:29</t>
+          <t>30/09/2023 15:15</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>3.41</v>
+        <v>4.43</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
@@ -4676,16 +4676,16 @@
         </is>
       </c>
       <c r="T46" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>30/09/2023 15:29</t>
+          <t>30/09/2023 15:15</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/solin-croatia-zmijavci/4OeFBKOI/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/vukovar-1991-dubrava-zagreb/dbdBC09C/</t>
         </is>
       </c>
     </row>
@@ -4713,22 +4713,22 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Vukovar 1991</t>
+          <t>Solin</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Dubrava</t>
+          <t>Croatia Zmijavci</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>1.61</v>
+        <v>1.89</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4736,15 +4736,15 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>1.84</v>
+        <v>1.79</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>30/09/2023 15:15</t>
+          <t>30/09/2023 15:29</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4752,15 +4752,15 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>3.83</v>
+        <v>3.71</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>30/09/2023 15:15</t>
+          <t>30/09/2023 15:29</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>4.43</v>
+        <v>3.41</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
@@ -4768,16 +4768,16 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>30/09/2023 15:15</t>
+          <t>30/09/2023 15:29</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/vukovar-1991-dubrava-zagreb/dbdBC09C/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/solin-croatia-zmijavci/4OeFBKOI/</t>
         </is>
       </c>
     </row>
@@ -7933,22 +7933,22 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Bijelo Brdo</t>
+          <t>Vukovar 1991</t>
         </is>
       </c>
       <c r="G82" t="n">
+        <v>2</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Orijent</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>Sibenik</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
-        <v>1</v>
-      </c>
       <c r="J82" t="n">
-        <v>4.54</v>
+        <v>1.47</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -7956,15 +7956,15 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>5.86</v>
+        <v>1.53</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>11/11/2023 13:52</t>
+          <t>11/11/2023 13:54</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>3.58</v>
+        <v>4.22</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -7972,15 +7972,15 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>4.01</v>
+        <v>4.56</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>11/11/2023 13:52</t>
+          <t>11/11/2023 13:54</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>1.63</v>
+        <v>5.03</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
@@ -7988,16 +7988,16 @@
         </is>
       </c>
       <c r="T82" t="n">
-        <v>1.54</v>
+        <v>5</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>11/11/2023 13:51</t>
+          <t>11/11/2023 13:54</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/bijelo-brdo-sibenik/z5LWxIvF/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/vukovar-1991-orijent/8WYwyd9R/</t>
         </is>
       </c>
     </row>
@@ -8025,22 +8025,22 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Vukovar 1991</t>
+          <t>Bijelo Brdo</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Orijent</t>
+          <t>Sibenik</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>1.47</v>
+        <v>4.54</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -8048,15 +8048,15 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>1.53</v>
+        <v>5.86</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>11/11/2023 13:54</t>
+          <t>11/11/2023 13:52</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>4.22</v>
+        <v>3.58</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -8064,15 +8064,15 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>4.56</v>
+        <v>4.01</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>11/11/2023 13:54</t>
+          <t>11/11/2023 13:52</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>5.03</v>
+        <v>1.63</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
@@ -8080,16 +8080,16 @@
         </is>
       </c>
       <c r="T83" t="n">
-        <v>5</v>
+        <v>1.54</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>11/11/2023 13:54</t>
+          <t>11/11/2023 13:51</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/vukovar-1991-orijent/8WYwyd9R/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/bijelo-brdo-sibenik/z5LWxIvF/</t>
         </is>
       </c>
     </row>
@@ -8669,22 +8669,22 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Croatia Zmijavci</t>
+          <t>Zrinski Jurjevac</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Bijelo Brdo</t>
+          <t>Sibenik</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>1.72</v>
+        <v>2.88</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -8692,15 +8692,15 @@
         </is>
       </c>
       <c r="L90" t="n">
-        <v>1.63</v>
+        <v>3.22</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>19/11/2023 13:23</t>
+          <t>19/11/2023 13:27</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>3.47</v>
+        <v>3.08</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -8708,15 +8708,15 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>3.41</v>
+        <v>2.68</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>19/11/2023 13:23</t>
+          <t>19/11/2023 13:27</t>
         </is>
       </c>
       <c r="R90" t="n">
-        <v>4.07</v>
+        <v>2.26</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
@@ -8724,16 +8724,16 @@
         </is>
       </c>
       <c r="T90" t="n">
-        <v>6.12</v>
+        <v>2.58</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>19/11/2023 13:24</t>
+          <t>19/11/2023 13:27</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/croatia-zmijavci-bijelo-brdo/0UDITD11/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/zrinski-jurjevac-sibenik/0QcHlFwR/</t>
         </is>
       </c>
     </row>
@@ -8761,22 +8761,22 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Zrinski Jurjevac</t>
+          <t>Croatia Zmijavci</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Sibenik</t>
+          <t>Bijelo Brdo</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="n">
-        <v>2.88</v>
+        <v>1.72</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -8784,15 +8784,15 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>3.22</v>
+        <v>1.63</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>19/11/2023 13:27</t>
+          <t>19/11/2023 13:23</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.08</v>
+        <v>3.47</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -8800,15 +8800,15 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>2.68</v>
+        <v>3.41</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>19/11/2023 13:27</t>
+          <t>19/11/2023 13:23</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>2.26</v>
+        <v>4.07</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
@@ -8816,16 +8816,108 @@
         </is>
       </c>
       <c r="T91" t="n">
-        <v>2.58</v>
+        <v>6.12</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>19/11/2023 13:27</t>
+          <t>19/11/2023 13:24</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/zrinski-jurjevac-sibenik/0QcHlFwR/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/croatia-zmijavci-bijelo-brdo/0UDITD11/</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>croatia</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>prva-nl</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>45254.5625</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Vukovar 1991</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>3</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Sesvete</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>1</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>23/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>24/11/2023 13:29</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>23/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P92" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>24/11/2023 13:29</t>
+        </is>
+      </c>
+      <c r="R92" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>23/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T92" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>24/11/2023 13:29</t>
+        </is>
+      </c>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/vukovar-1991-sesvete/hOxdsXV0/</t>
         </is>
       </c>
     </row>

--- a/2023/croatia_prva-nl_2023-2024.xlsx
+++ b/2023/croatia_prva-nl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V92"/>
+  <dimension ref="A1:V96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,22 +665,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Solin</t>
+          <t>Cibalia</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Bijelo Brdo</t>
+          <t>Croatia Zmijavci</t>
         </is>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.09</v>
+        <v>1.65</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -688,15 +688,15 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>12/08/2023 17:27</t>
+          <t>12/08/2023 15:37</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>3.27</v>
+        <v>3.47</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -704,15 +704,15 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3.53</v>
+        <v>3.47</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>12/08/2023 17:27</t>
+          <t>12/08/2023 17:16</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>3.12</v>
+        <v>4.52</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
@@ -720,16 +720,16 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>12/08/2023 17:27</t>
+          <t>12/08/2023 17:16</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/solin-bijelo-brdo/0vop4Qu6/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/cibalia-croatia-zmijavci/E1yvQ72P/</t>
         </is>
       </c>
     </row>
@@ -757,7 +757,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Sesvete</t>
+          <t>Solin</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -765,63 +765,63 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Dugopolje</t>
+          <t>Bijelo Brdo</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.49</v>
+        <v>2.09</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>12/08/2023 17:11</t>
+          <t>11/08/2023 05:43</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>2.26</v>
+        <v>2.1</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>12/08/2023 17:25</t>
+          <t>12/08/2023 17:27</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>2.94</v>
+        <v>3.27</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>12/08/2023 17:11</t>
+          <t>11/08/2023 05:43</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>3.14</v>
+        <v>3.53</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>12/08/2023 17:25</t>
+          <t>12/08/2023 17:27</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>2.65</v>
+        <v>3.12</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>12/08/2023 17:11</t>
+          <t>11/08/2023 05:43</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>3.23</v>
+        <v>3.2</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>12/08/2023 17:25</t>
+          <t>12/08/2023 17:27</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/sesvete-dugopolje/jNS5LRAt/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/solin-bijelo-brdo/0vop4Qu6/</t>
         </is>
       </c>
     </row>
@@ -849,71 +849,71 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Orijent</t>
+          <t>Sesvete</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Dubrava</t>
+          <t>Dugopolje</t>
         </is>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>2.12</v>
+        <v>2.49</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>11/08/2023 05:43</t>
+          <t>12/08/2023 17:11</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>2.01</v>
+        <v>2.26</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>12/08/2023 17:29</t>
+          <t>12/08/2023 17:25</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.2</v>
+        <v>2.94</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>11/08/2023 05:43</t>
+          <t>12/08/2023 17:11</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3.38</v>
+        <v>3.14</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>12/08/2023 17:29</t>
+          <t>12/08/2023 17:25</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>3.12</v>
+        <v>2.65</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>11/08/2023 05:43</t>
+          <t>12/08/2023 17:11</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>3.59</v>
+        <v>3.23</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>12/08/2023 17:29</t>
+          <t>12/08/2023 17:25</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/orijent-dubrava-zagreb/Cdce1OPO/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/sesvete-dugopolje/jNS5LRAt/</t>
         </is>
       </c>
     </row>
@@ -941,7 +941,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Cibalia</t>
+          <t>Orijent</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -949,14 +949,14 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Croatia Zmijavci</t>
+          <t>Dubrava</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>1.65</v>
+        <v>2.12</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -964,15 +964,15 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>2.02</v>
+        <v>2.01</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>12/08/2023 15:37</t>
+          <t>12/08/2023 17:29</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.47</v>
+        <v>3.2</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -980,15 +980,15 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.47</v>
+        <v>3.38</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>12/08/2023 17:16</t>
+          <t>12/08/2023 17:29</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>4.52</v>
+        <v>3.12</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>3.45</v>
+        <v>3.59</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>12/08/2023 17:16</t>
+          <t>12/08/2023 17:29</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/cibalia-croatia-zmijavci/E1yvQ72P/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/orijent-dubrava-zagreb/Cdce1OPO/</t>
         </is>
       </c>
     </row>
@@ -1769,22 +1769,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Orijent</t>
+          <t>Zrinski Jurjevac</t>
         </is>
       </c>
       <c r="G15" t="n">
+        <v>3</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Solin</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Vukovar 1991</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
       <c r="J15" t="n">
-        <v>2.76</v>
+        <v>1.95</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,48 +1792,48 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.93</v>
+        <v>2.22</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>26/08/2023 16:55</t>
+          <t>26/08/2023 16:56</t>
         </is>
       </c>
       <c r="N15" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>25/08/2023 05:12</t>
+        </is>
+      </c>
+      <c r="P15" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>26/08/2023 16:56</t>
+        </is>
+      </c>
+      <c r="R15" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>25/08/2023 05:12</t>
+        </is>
+      </c>
+      <c r="T15" t="n">
         <v>3.12</v>
       </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>25/08/2023 05:12</t>
-        </is>
-      </c>
-      <c r="P15" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>26/08/2023 16:52</t>
-        </is>
-      </c>
-      <c r="R15" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>25/08/2023 05:12</t>
-        </is>
-      </c>
-      <c r="T15" t="n">
-        <v>3.68</v>
-      </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>26/08/2023 16:59</t>
+          <t>26/08/2023 16:56</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/orijent-vukovar-1991/d0sFnDkj/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/zrinski-jurjevac-solin/vPnAmgzp/</t>
         </is>
       </c>
     </row>
@@ -1861,22 +1861,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Cibalia</t>
+          <t>Orijent</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Jarun</t>
+          <t>Vukovar 1991</t>
         </is>
       </c>
       <c r="I16" t="n">
         <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>1.64</v>
+        <v>2.76</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1884,48 +1884,48 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>1.74</v>
+        <v>1.93</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
+          <t>26/08/2023 16:55</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>25/08/2023 05:12</t>
+        </is>
+      </c>
+      <c r="P16" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
           <t>26/08/2023 16:52</t>
         </is>
       </c>
-      <c r="N16" t="n">
-        <v>3.71</v>
-      </c>
-      <c r="O16" t="inlineStr">
+      <c r="R16" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="S16" t="inlineStr">
         <is>
           <t>25/08/2023 05:12</t>
         </is>
       </c>
-      <c r="P16" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>26/08/2023 16:52</t>
-        </is>
-      </c>
-      <c r="R16" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>25/08/2023 05:12</t>
-        </is>
-      </c>
       <c r="T16" t="n">
-        <v>4.19</v>
+        <v>3.68</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>26/08/2023 16:52</t>
+          <t>26/08/2023 16:59</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/cibalia-jarun/zitJoX4d/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/orijent-vukovar-1991/d0sFnDkj/</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Zrinski Jurjevac</t>
+          <t>Cibalia</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1961,14 +1961,14 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Solin</t>
+          <t>Jarun</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>1.95</v>
+        <v>1.64</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1976,15 +1976,15 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>2.22</v>
+        <v>1.74</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>26/08/2023 16:56</t>
+          <t>26/08/2023 16:52</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.34</v>
+        <v>3.71</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1992,15 +1992,15 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.32</v>
+        <v>3.86</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>26/08/2023 16:56</t>
+          <t>26/08/2023 16:52</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>3.29</v>
+        <v>4.42</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2008,16 +2008,16 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>3.12</v>
+        <v>4.19</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>26/08/2023 16:56</t>
+          <t>26/08/2023 16:52</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/zrinski-jurjevac-solin/vPnAmgzp/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/cibalia-jarun/zitJoX4d/</t>
         </is>
       </c>
     </row>
@@ -2321,22 +2321,22 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Solin</t>
+          <t>Vukovar 1991</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Orijent</t>
+          <t>Cibalia</t>
         </is>
       </c>
       <c r="I21" t="n">
         <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.34</v>
+        <v>3.14</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.65</v>
+        <v>3.32</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         </is>
       </c>
       <c r="R21" t="n">
-        <v>2.99</v>
+        <v>3.3</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>3.24</v>
+        <v>3.76</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/solin-orijent/A7wjlQQf/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/vukovar-1991-cibalia/Srlok6Bl/</t>
         </is>
       </c>
     </row>
@@ -2413,22 +2413,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Vukovar 1991</t>
+          <t>Solin</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Cibalia</t>
+          <t>Orijent</t>
         </is>
       </c>
       <c r="I22" t="n">
         <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.14</v>
+        <v>3.34</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.32</v>
+        <v>3.65</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         </is>
       </c>
       <c r="R22" t="n">
-        <v>3.3</v>
+        <v>2.99</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>3.76</v>
+        <v>3.24</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/vukovar-1991-cibalia/Srlok6Bl/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/solin-orijent/A7wjlQQf/</t>
         </is>
       </c>
     </row>
@@ -2873,46 +2873,46 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Orijent</t>
+          <t>Zrinski Jurjevac</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Sibenik</t>
+          <t>Bijelo Brdo</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>4.75</v>
+        <v>2.1</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>09/09/2023 14:42</t>
+          <t>08/09/2023 04:42</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>3.89</v>
+        <v>1.85</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>09/09/2023 16:26</t>
+          <t>09/09/2023 16:23</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.9</v>
+        <v>3.17</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>09/09/2023 14:42</t>
+          <t>08/09/2023 04:42</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.68</v>
+        <v>3.4</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2920,24 +2920,24 @@
         </is>
       </c>
       <c r="R27" t="n">
-        <v>1.63</v>
+        <v>3.2</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>09/09/2023 14:42</t>
+          <t>08/09/2023 04:42</t>
         </is>
       </c>
       <c r="T27" t="n">
-        <v>1.84</v>
+        <v>4.23</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>09/09/2023 16:26</t>
+          <t>09/09/2023 16:23</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/orijent-sibenik/dOu2oOAD/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/zrinski-jurjevac-bijelo-brdo/IXtbn4e7/</t>
         </is>
       </c>
     </row>
@@ -2965,71 +2965,71 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Dugopolje</t>
+          <t>Orijent</t>
         </is>
       </c>
       <c r="G28" t="n">
+        <v>5</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Sibenik</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
         <v>4</v>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Jarun</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
       <c r="J28" t="n">
-        <v>1.7</v>
+        <v>4.75</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>08/09/2023 04:42</t>
+          <t>09/09/2023 14:42</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>1.78</v>
+        <v>3.89</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>09/09/2023 16:21</t>
+          <t>09/09/2023 16:26</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.62</v>
+        <v>3.9</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>08/09/2023 04:42</t>
+          <t>09/09/2023 14:42</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.67</v>
+        <v>3.68</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>09/09/2023 16:21</t>
+          <t>09/09/2023 16:23</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>3.95</v>
+        <v>1.63</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>08/09/2023 04:42</t>
+          <t>09/09/2023 14:42</t>
         </is>
       </c>
       <c r="T28" t="n">
-        <v>4.23</v>
+        <v>1.84</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>09/09/2023 16:21</t>
+          <t>09/09/2023 16:26</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/dugopolje-jarun/Gvap8oIQ/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/orijent-sibenik/dOu2oOAD/</t>
         </is>
       </c>
     </row>
@@ -3057,22 +3057,22 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Zrinski Jurjevac</t>
+          <t>Dugopolje</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Bijelo Brdo</t>
+          <t>Jarun</t>
         </is>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3080,15 +3080,15 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>09/09/2023 16:23</t>
+          <t>09/09/2023 16:21</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.17</v>
+        <v>3.62</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3096,15 +3096,15 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.4</v>
+        <v>3.67</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>09/09/2023 16:23</t>
+          <t>09/09/2023 16:21</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>3.2</v>
+        <v>3.95</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -3116,12 +3116,12 @@
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>09/09/2023 16:23</t>
+          <t>09/09/2023 16:21</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/zrinski-jurjevac-bijelo-brdo/IXtbn4e7/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/dugopolje-jarun/Gvap8oIQ/</t>
         </is>
       </c>
     </row>
@@ -3609,22 +3609,22 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Bijelo Brdo</t>
+          <t>Solin</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Dubrava</t>
+          <t>Sesvete</t>
         </is>
       </c>
       <c r="I35" t="n">
         <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3632,15 +3632,15 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>2.54</v>
+        <v>1.79</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>16/09/2023 16:29</t>
+          <t>16/09/2023 16:26</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.12</v>
+        <v>3.3</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3648,15 +3648,15 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.11</v>
+        <v>3.75</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>16/09/2023 16:29</t>
+          <t>16/09/2023 16:26</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>3</v>
+        <v>3.17</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
@@ -3664,16 +3664,16 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>2.81</v>
+        <v>4.08</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>16/09/2023 16:29</t>
+          <t>16/09/2023 16:26</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/bijelo-brdo-dubrava-zagreb/zPuH2Pul/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/solin-sesvete/MurTaNP6/</t>
         </is>
       </c>
     </row>
@@ -3701,22 +3701,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Solin</t>
+          <t>Bijelo Brdo</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Sesvete</t>
+          <t>Dubrava</t>
         </is>
       </c>
       <c r="I36" t="n">
         <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3724,15 +3724,15 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>1.79</v>
+        <v>2.54</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>16/09/2023 16:26</t>
+          <t>16/09/2023 16:29</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.3</v>
+        <v>3.12</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3740,15 +3740,15 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.75</v>
+        <v>3.11</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>16/09/2023 16:26</t>
+          <t>16/09/2023 16:29</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>3.17</v>
+        <v>3</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
@@ -3756,16 +3756,16 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>4.08</v>
+        <v>2.81</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>16/09/2023 16:26</t>
+          <t>16/09/2023 16:29</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/solin-sesvete/MurTaNP6/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/bijelo-brdo-dubrava-zagreb/zPuH2Pul/</t>
         </is>
       </c>
     </row>
@@ -4621,22 +4621,22 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Vukovar 1991</t>
+          <t>Bijelo Brdo</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Dubrava</t>
+          <t>Jarun</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>1.61</v>
+        <v>1.93</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4644,15 +4644,15 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>1.84</v>
+        <v>2.22</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>30/09/2023 15:15</t>
+          <t>30/09/2023 15:19</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3.7</v>
+        <v>3.38</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4660,15 +4660,15 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>3.83</v>
+        <v>3.27</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>30/09/2023 15:15</t>
+          <t>30/09/2023 15:19</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>4.43</v>
+        <v>3.3</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
@@ -4676,16 +4676,16 @@
         </is>
       </c>
       <c r="T46" t="n">
-        <v>3.75</v>
+        <v>3.16</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>30/09/2023 15:15</t>
+          <t>30/09/2023 15:19</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/vukovar-1991-dubrava-zagreb/dbdBC09C/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/bijelo-brdo-jarun/I7c7Dtf6/</t>
         </is>
       </c>
     </row>
@@ -4805,22 +4805,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Bijelo Brdo</t>
+          <t>Vukovar 1991</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Jarun</t>
+          <t>Dubrava</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J48" t="n">
-        <v>1.93</v>
+        <v>1.61</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>2.22</v>
+        <v>1.84</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>30/09/2023 15:19</t>
+          <t>30/09/2023 15:15</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.38</v>
+        <v>3.7</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.27</v>
+        <v>3.83</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>30/09/2023 15:19</t>
+          <t>30/09/2023 15:15</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>3.3</v>
+        <v>4.43</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>3.16</v>
+        <v>3.75</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>30/09/2023 15:19</t>
+          <t>30/09/2023 15:15</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/bijelo-brdo-jarun/I7c7Dtf6/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/vukovar-1991-dubrava-zagreb/dbdBC09C/</t>
         </is>
       </c>
     </row>
@@ -5633,22 +5633,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Solin</t>
+          <t>Zrinski Jurjevac</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Jarun</t>
+          <t>Croatia Zmijavci</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>1.85</v>
+        <v>1.68</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,15 +5656,15 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.88</v>
+        <v>1.58</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>14/10/2023 14:51</t>
+          <t>14/10/2023 14:53</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.54</v>
+        <v>3.61</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -5672,15 +5672,15 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.62</v>
+        <v>3.86</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>14/10/2023 14:51</t>
+          <t>14/10/2023 14:53</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>3.41</v>
+        <v>4.26</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
@@ -5688,16 +5688,16 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>3.79</v>
+        <v>5.57</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>14/10/2023 14:51</t>
+          <t>14/10/2023 14:53</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/solin-jarun/6BAb7QlU/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/zrinski-jurjevac-croatia-zmijavci/dzj8RTZo/</t>
         </is>
       </c>
     </row>
@@ -5725,22 +5725,22 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Zrinski Jurjevac</t>
+          <t>Cibalia</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Croatia Zmijavci</t>
+          <t>Sesvete</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -5748,15 +5748,15 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>1.58</v>
+        <v>1.75</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>14/10/2023 14:53</t>
+          <t>14/10/2023 14:59</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.61</v>
+        <v>3.53</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -5764,15 +5764,15 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.86</v>
+        <v>3.52</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>14/10/2023 14:53</t>
+          <t>14/10/2023 14:59</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>4.26</v>
+        <v>3.94</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
@@ -5780,16 +5780,16 @@
         </is>
       </c>
       <c r="T58" t="n">
-        <v>5.57</v>
+        <v>4.64</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>14/10/2023 14:53</t>
+          <t>14/10/2023 14:59</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/zrinski-jurjevac-croatia-zmijavci/dzj8RTZo/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/cibalia-sesvete/h2qHP74b/</t>
         </is>
       </c>
     </row>
@@ -5817,22 +5817,22 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Cibalia</t>
+          <t>Solin</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Sesvete</t>
+          <t>Jarun</t>
         </is>
       </c>
       <c r="I59" t="n">
         <v>1</v>
       </c>
       <c r="J59" t="n">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -5840,15 +5840,15 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>14/10/2023 14:59</t>
+          <t>14/10/2023 14:51</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.53</v>
+        <v>3.54</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -5856,15 +5856,15 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>3.52</v>
+        <v>3.62</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>14/10/2023 14:59</t>
+          <t>14/10/2023 14:51</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>3.94</v>
+        <v>3.41</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
@@ -5872,16 +5872,16 @@
         </is>
       </c>
       <c r="T59" t="n">
-        <v>4.64</v>
+        <v>3.79</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>14/10/2023 14:59</t>
+          <t>14/10/2023 14:51</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/cibalia-sesvete/h2qHP74b/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/solin-jarun/6BAb7QlU/</t>
         </is>
       </c>
     </row>
@@ -7933,22 +7933,22 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Vukovar 1991</t>
+          <t>Bijelo Brdo</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Orijent</t>
+          <t>Sibenik</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>1.47</v>
+        <v>4.54</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -7956,15 +7956,15 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>1.53</v>
+        <v>5.86</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>11/11/2023 13:54</t>
+          <t>11/11/2023 13:52</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>4.22</v>
+        <v>3.58</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -7972,15 +7972,15 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>4.56</v>
+        <v>4.01</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>11/11/2023 13:54</t>
+          <t>11/11/2023 13:52</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>5.03</v>
+        <v>1.63</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
@@ -7988,16 +7988,16 @@
         </is>
       </c>
       <c r="T82" t="n">
-        <v>5</v>
+        <v>1.54</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>11/11/2023 13:54</t>
+          <t>11/11/2023 13:51</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/vukovar-1991-orijent/8WYwyd9R/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/bijelo-brdo-sibenik/z5LWxIvF/</t>
         </is>
       </c>
     </row>
@@ -8025,22 +8025,22 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Bijelo Brdo</t>
+          <t>Vukovar 1991</t>
         </is>
       </c>
       <c r="G83" t="n">
+        <v>2</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Orijent</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>Sibenik</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
       <c r="J83" t="n">
-        <v>4.54</v>
+        <v>1.47</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -8048,15 +8048,15 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>5.86</v>
+        <v>1.53</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>11/11/2023 13:52</t>
+          <t>11/11/2023 13:54</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.58</v>
+        <v>4.22</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -8064,15 +8064,15 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>4.01</v>
+        <v>4.56</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>11/11/2023 13:52</t>
+          <t>11/11/2023 13:54</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>1.63</v>
+        <v>5.03</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
@@ -8080,16 +8080,16 @@
         </is>
       </c>
       <c r="T83" t="n">
-        <v>1.54</v>
+        <v>5</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>11/11/2023 13:51</t>
+          <t>11/11/2023 13:54</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/bijelo-brdo-sibenik/z5LWxIvF/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/vukovar-1991-orijent/8WYwyd9R/</t>
         </is>
       </c>
     </row>
@@ -8669,22 +8669,22 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Zrinski Jurjevac</t>
+          <t>Croatia Zmijavci</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Sibenik</t>
+          <t>Bijelo Brdo</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="n">
-        <v>2.88</v>
+        <v>1.72</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -8692,15 +8692,15 @@
         </is>
       </c>
       <c r="L90" t="n">
-        <v>3.22</v>
+        <v>1.63</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>19/11/2023 13:27</t>
+          <t>19/11/2023 13:23</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>3.08</v>
+        <v>3.47</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -8708,15 +8708,15 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>2.68</v>
+        <v>3.41</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>19/11/2023 13:27</t>
+          <t>19/11/2023 13:23</t>
         </is>
       </c>
       <c r="R90" t="n">
-        <v>2.26</v>
+        <v>4.07</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
@@ -8724,16 +8724,16 @@
         </is>
       </c>
       <c r="T90" t="n">
-        <v>2.58</v>
+        <v>6.12</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>19/11/2023 13:27</t>
+          <t>19/11/2023 13:24</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/zrinski-jurjevac-sibenik/0QcHlFwR/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/croatia-zmijavci-bijelo-brdo/0UDITD11/</t>
         </is>
       </c>
     </row>
@@ -8761,22 +8761,22 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Croatia Zmijavci</t>
+          <t>Zrinski Jurjevac</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Bijelo Brdo</t>
+          <t>Sibenik</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>1.72</v>
+        <v>2.88</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -8784,15 +8784,15 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>1.63</v>
+        <v>3.22</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>19/11/2023 13:23</t>
+          <t>19/11/2023 13:27</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.47</v>
+        <v>3.08</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -8800,15 +8800,15 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3.41</v>
+        <v>2.68</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>19/11/2023 13:23</t>
+          <t>19/11/2023 13:27</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>4.07</v>
+        <v>2.26</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
@@ -8816,16 +8816,16 @@
         </is>
       </c>
       <c r="T91" t="n">
-        <v>6.12</v>
+        <v>2.58</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>19/11/2023 13:24</t>
+          <t>19/11/2023 13:27</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/croatia-zmijavci-bijelo-brdo/0UDITD11/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/zrinski-jurjevac-sibenik/0QcHlFwR/</t>
         </is>
       </c>
     </row>
@@ -8918,6 +8918,374 @@
       <c r="V92" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/croatia/prva-nl/vukovar-1991-sesvete/hOxdsXV0/</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>croatia</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>prva-nl</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>45255.53472222222</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Solin</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Cibalia</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>3</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>24/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>25/11/2023 12:36</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>24/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P93" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>25/11/2023 12:36</t>
+        </is>
+      </c>
+      <c r="R93" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>24/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T93" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>25/11/2023 12:18</t>
+        </is>
+      </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/solin-cibalia/EXwhrDGf/</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>croatia</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>prva-nl</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>45255.5625</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Bijelo Brdo</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Zrinski Jurjevac</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>24/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>25/11/2023 13:26</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
+        <v>3</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>24/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P94" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>25/11/2023 13:29</t>
+        </is>
+      </c>
+      <c r="R94" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>24/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T94" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>25/11/2023 13:29</t>
+        </is>
+      </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/bijelo-brdo-zrinski-jurjevac/67zppZor/</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>croatia</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>prva-nl</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>45255.5625</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Dubrava</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>2</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Croatia Zmijavci</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>24/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>25/11/2023 13:17</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>24/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P95" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>25/11/2023 13:17</t>
+        </is>
+      </c>
+      <c r="R95" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>24/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T95" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>25/11/2023 13:17</t>
+        </is>
+      </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/dubrava-zagreb-croatia-zmijavci/2gKn4fwE/</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>croatia</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>prva-nl</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>45255.5625</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Jarun</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Dugopolje</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>2</v>
+      </c>
+      <c r="J96" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>24/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>25/11/2023 13:26</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>24/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P96" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>25/11/2023 13:26</t>
+        </is>
+      </c>
+      <c r="R96" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>24/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T96" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>25/11/2023 13:26</t>
+        </is>
+      </c>
+      <c r="V96" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/jarun-dugopolje/zmS0tio7/</t>
         </is>
       </c>
     </row>

--- a/2023/croatia_prva-nl_2023-2024.xlsx
+++ b/2023/croatia_prva-nl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V96"/>
+  <dimension ref="A1:V97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5633,22 +5633,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Zrinski Jurjevac</t>
+          <t>Solin</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Croatia Zmijavci</t>
+          <t>Jarun</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>1.68</v>
+        <v>1.85</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,15 +5656,15 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.58</v>
+        <v>1.88</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>14/10/2023 14:53</t>
+          <t>14/10/2023 14:51</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.61</v>
+        <v>3.54</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -5672,15 +5672,15 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.86</v>
+        <v>3.62</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>14/10/2023 14:53</t>
+          <t>14/10/2023 14:51</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>4.26</v>
+        <v>3.41</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
@@ -5688,16 +5688,16 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>5.57</v>
+        <v>3.79</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>14/10/2023 14:53</t>
+          <t>14/10/2023 14:51</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/zrinski-jurjevac-croatia-zmijavci/dzj8RTZo/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/solin-jarun/6BAb7QlU/</t>
         </is>
       </c>
     </row>
@@ -5725,22 +5725,22 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Cibalia</t>
+          <t>Zrinski Jurjevac</t>
         </is>
       </c>
       <c r="G58" t="n">
+        <v>4</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Croatia Zmijavci</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>Sesvete</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
-        <v>1</v>
-      </c>
       <c r="J58" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -5748,15 +5748,15 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>1.75</v>
+        <v>1.58</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>14/10/2023 14:59</t>
+          <t>14/10/2023 14:53</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.53</v>
+        <v>3.61</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -5764,15 +5764,15 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.52</v>
+        <v>3.86</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>14/10/2023 14:59</t>
+          <t>14/10/2023 14:53</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>3.94</v>
+        <v>4.26</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
@@ -5780,16 +5780,16 @@
         </is>
       </c>
       <c r="T58" t="n">
-        <v>4.64</v>
+        <v>5.57</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>14/10/2023 14:59</t>
+          <t>14/10/2023 14:53</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/cibalia-sesvete/h2qHP74b/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/zrinski-jurjevac-croatia-zmijavci/dzj8RTZo/</t>
         </is>
       </c>
     </row>
@@ -5817,22 +5817,22 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Solin</t>
+          <t>Cibalia</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Jarun</t>
+          <t>Sesvete</t>
         </is>
       </c>
       <c r="I59" t="n">
         <v>1</v>
       </c>
       <c r="J59" t="n">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -5840,15 +5840,15 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>14/10/2023 14:51</t>
+          <t>14/10/2023 14:59</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.54</v>
+        <v>3.53</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -5856,15 +5856,15 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>3.62</v>
+        <v>3.52</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>14/10/2023 14:51</t>
+          <t>14/10/2023 14:59</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>3.41</v>
+        <v>3.94</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
@@ -5872,16 +5872,16 @@
         </is>
       </c>
       <c r="T59" t="n">
-        <v>3.79</v>
+        <v>4.64</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>14/10/2023 14:51</t>
+          <t>14/10/2023 14:59</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/solin-jarun/6BAb7QlU/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/cibalia-sesvete/h2qHP74b/</t>
         </is>
       </c>
     </row>
@@ -9286,6 +9286,98 @@
       <c r="V96" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/croatia/prva-nl/jarun-dugopolje/zmS0tio7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>croatia</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>prva-nl</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>45257.70833333334</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Sibenik</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>1</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Orijent</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>24/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>27/11/2023 16:58</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>24/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P97" t="n">
+        <v>6.98</v>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>27/11/2023 16:58</t>
+        </is>
+      </c>
+      <c r="R97" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>24/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T97" t="n">
+        <v>13.49</v>
+      </c>
+      <c r="U97" t="inlineStr">
+        <is>
+          <t>27/11/2023 16:58</t>
+        </is>
+      </c>
+      <c r="V97" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/sibenik-orijent/pbZmqg1l/</t>
         </is>
       </c>
     </row>

--- a/2023/croatia_prva-nl_2023-2024.xlsx
+++ b/2023/croatia_prva-nl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V97"/>
+  <dimension ref="A1:V99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,22 +665,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Cibalia</t>
+          <t>Solin</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Croatia Zmijavci</t>
+          <t>Bijelo Brdo</t>
         </is>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1.65</v>
+        <v>2.09</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -688,15 +688,15 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>12/08/2023 15:37</t>
+          <t>12/08/2023 17:27</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>3.47</v>
+        <v>3.27</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -704,15 +704,15 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3.47</v>
+        <v>3.53</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>12/08/2023 17:16</t>
+          <t>12/08/2023 17:27</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>4.52</v>
+        <v>3.12</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
@@ -720,16 +720,16 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>12/08/2023 17:16</t>
+          <t>12/08/2023 17:27</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/cibalia-croatia-zmijavci/E1yvQ72P/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/solin-bijelo-brdo/0vop4Qu6/</t>
         </is>
       </c>
     </row>
@@ -757,7 +757,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Solin</t>
+          <t>Sesvete</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -765,63 +765,63 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Bijelo Brdo</t>
+          <t>Dugopolje</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>2.09</v>
+        <v>2.49</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>11/08/2023 05:43</t>
+          <t>12/08/2023 17:11</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>2.1</v>
+        <v>2.26</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>12/08/2023 17:27</t>
+          <t>12/08/2023 17:25</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>3.27</v>
+        <v>2.94</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>11/08/2023 05:43</t>
+          <t>12/08/2023 17:11</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>3.53</v>
+        <v>3.14</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>12/08/2023 17:27</t>
+          <t>12/08/2023 17:25</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>3.12</v>
+        <v>2.65</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>11/08/2023 05:43</t>
+          <t>12/08/2023 17:11</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>3.2</v>
+        <v>3.23</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>12/08/2023 17:27</t>
+          <t>12/08/2023 17:25</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/solin-bijelo-brdo/0vop4Qu6/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/sesvete-dugopolje/jNS5LRAt/</t>
         </is>
       </c>
     </row>
@@ -849,71 +849,71 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Sesvete</t>
+          <t>Orijent</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Dugopolje</t>
+          <t>Dubrava</t>
         </is>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>2.49</v>
+        <v>2.12</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>12/08/2023 17:11</t>
+          <t>11/08/2023 05:43</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>2.26</v>
+        <v>2.01</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>12/08/2023 17:25</t>
+          <t>12/08/2023 17:29</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>2.94</v>
+        <v>3.2</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>12/08/2023 17:11</t>
+          <t>11/08/2023 05:43</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3.14</v>
+        <v>3.38</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>12/08/2023 17:25</t>
+          <t>12/08/2023 17:29</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>2.65</v>
+        <v>3.12</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>12/08/2023 17:11</t>
+          <t>11/08/2023 05:43</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>3.23</v>
+        <v>3.59</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>12/08/2023 17:25</t>
+          <t>12/08/2023 17:29</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/sesvete-dugopolje/jNS5LRAt/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/orijent-dubrava-zagreb/Cdce1OPO/</t>
         </is>
       </c>
     </row>
@@ -941,7 +941,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Orijent</t>
+          <t>Cibalia</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -949,14 +949,14 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Dubrava</t>
+          <t>Croatia Zmijavci</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>2.12</v>
+        <v>1.65</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -964,15 +964,15 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>2.01</v>
+        <v>2.02</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>12/08/2023 17:29</t>
+          <t>12/08/2023 15:37</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.2</v>
+        <v>3.47</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -980,15 +980,15 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.38</v>
+        <v>3.47</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>12/08/2023 17:29</t>
+          <t>12/08/2023 17:16</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>3.12</v>
+        <v>4.52</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>3.59</v>
+        <v>3.45</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>12/08/2023 17:29</t>
+          <t>12/08/2023 17:16</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/orijent-dubrava-zagreb/Cdce1OPO/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/cibalia-croatia-zmijavci/E1yvQ72P/</t>
         </is>
       </c>
     </row>
@@ -2321,22 +2321,22 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Vukovar 1991</t>
+          <t>Bijelo Brdo</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Cibalia</t>
+          <t>Croatia Zmijavci</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>2.07</v>
+        <v>2.03</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>1.98</v>
+        <v>2.42</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.14</v>
+        <v>3.16</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.32</v>
+        <v>3.18</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         </is>
       </c>
       <c r="R21" t="n">
-        <v>3.3</v>
+        <v>3.36</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>3.76</v>
+        <v>2.91</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/vukovar-1991-cibalia/Srlok6Bl/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/bijelo-brdo-croatia-zmijavci/rgN98fC9/</t>
         </is>
       </c>
     </row>
@@ -2413,22 +2413,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Solin</t>
+          <t>Vukovar 1991</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Orijent</t>
+          <t>Cibalia</t>
         </is>
       </c>
       <c r="I22" t="n">
         <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.34</v>
+        <v>3.14</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.65</v>
+        <v>3.32</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         </is>
       </c>
       <c r="R22" t="n">
-        <v>2.99</v>
+        <v>3.3</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>3.24</v>
+        <v>3.76</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/solin-orijent/A7wjlQQf/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/vukovar-1991-cibalia/Srlok6Bl/</t>
         </is>
       </c>
     </row>
@@ -2597,22 +2597,22 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Bijelo Brdo</t>
+          <t>Solin</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Croatia Zmijavci</t>
+          <t>Orijent</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>2.03</v>
+        <v>2.08</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2.42</v>
+        <v>2.05</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -2628,7 +2628,7 @@
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.16</v>
+        <v>3.34</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2636,7 +2636,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.18</v>
+        <v>3.65</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         </is>
       </c>
       <c r="R24" t="n">
-        <v>3.36</v>
+        <v>2.99</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>2.91</v>
+        <v>3.24</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/bijelo-brdo-croatia-zmijavci/rgN98fC9/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/solin-orijent/A7wjlQQf/</t>
         </is>
       </c>
     </row>
@@ -3609,22 +3609,22 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Solin</t>
+          <t>Bijelo Brdo</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Sesvete</t>
+          <t>Dubrava</t>
         </is>
       </c>
       <c r="I35" t="n">
         <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3632,15 +3632,15 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>1.79</v>
+        <v>2.54</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>16/09/2023 16:26</t>
+          <t>16/09/2023 16:29</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.3</v>
+        <v>3.12</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3648,15 +3648,15 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.75</v>
+        <v>3.11</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>16/09/2023 16:26</t>
+          <t>16/09/2023 16:29</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>3.17</v>
+        <v>3</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
@@ -3664,16 +3664,16 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>4.08</v>
+        <v>2.81</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>16/09/2023 16:26</t>
+          <t>16/09/2023 16:29</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/solin-sesvete/MurTaNP6/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/bijelo-brdo-dubrava-zagreb/zPuH2Pul/</t>
         </is>
       </c>
     </row>
@@ -3701,22 +3701,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Bijelo Brdo</t>
+          <t>Solin</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Dubrava</t>
+          <t>Sesvete</t>
         </is>
       </c>
       <c r="I36" t="n">
         <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3724,15 +3724,15 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>2.54</v>
+        <v>1.79</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>16/09/2023 16:29</t>
+          <t>16/09/2023 16:26</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.12</v>
+        <v>3.3</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3740,15 +3740,15 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.11</v>
+        <v>3.75</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>16/09/2023 16:29</t>
+          <t>16/09/2023 16:26</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>3</v>
+        <v>3.17</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
@@ -3756,16 +3756,16 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>2.81</v>
+        <v>4.08</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>16/09/2023 16:29</t>
+          <t>16/09/2023 16:26</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/bijelo-brdo-dubrava-zagreb/zPuH2Pul/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/solin-sesvete/MurTaNP6/</t>
         </is>
       </c>
     </row>
@@ -5633,22 +5633,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Solin</t>
+          <t>Cibalia</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Jarun</t>
+          <t>Sesvete</t>
         </is>
       </c>
       <c r="I57" t="n">
         <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,15 +5656,15 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>14/10/2023 14:51</t>
+          <t>14/10/2023 14:59</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.54</v>
+        <v>3.53</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -5672,15 +5672,15 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.62</v>
+        <v>3.52</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>14/10/2023 14:51</t>
+          <t>14/10/2023 14:59</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>3.41</v>
+        <v>3.94</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
@@ -5688,16 +5688,16 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>3.79</v>
+        <v>4.64</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>14/10/2023 14:51</t>
+          <t>14/10/2023 14:59</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/solin-jarun/6BAb7QlU/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/cibalia-sesvete/h2qHP74b/</t>
         </is>
       </c>
     </row>
@@ -5725,22 +5725,22 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Zrinski Jurjevac</t>
+          <t>Solin</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Croatia Zmijavci</t>
+          <t>Jarun</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="n">
-        <v>1.68</v>
+        <v>1.85</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -5748,15 +5748,15 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>1.58</v>
+        <v>1.88</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>14/10/2023 14:53</t>
+          <t>14/10/2023 14:51</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.61</v>
+        <v>3.54</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -5764,15 +5764,15 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.86</v>
+        <v>3.62</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>14/10/2023 14:53</t>
+          <t>14/10/2023 14:51</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>4.26</v>
+        <v>3.41</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
@@ -5780,16 +5780,16 @@
         </is>
       </c>
       <c r="T58" t="n">
-        <v>5.57</v>
+        <v>3.79</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>14/10/2023 14:53</t>
+          <t>14/10/2023 14:51</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/zrinski-jurjevac-croatia-zmijavci/dzj8RTZo/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/solin-jarun/6BAb7QlU/</t>
         </is>
       </c>
     </row>
@@ -5817,22 +5817,22 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Cibalia</t>
+          <t>Zrinski Jurjevac</t>
         </is>
       </c>
       <c r="G59" t="n">
+        <v>4</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Croatia Zmijavci</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Sesvete</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
-        <v>1</v>
-      </c>
       <c r="J59" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -5840,15 +5840,15 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>1.75</v>
+        <v>1.58</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>14/10/2023 14:59</t>
+          <t>14/10/2023 14:53</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.53</v>
+        <v>3.61</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -5856,15 +5856,15 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>3.52</v>
+        <v>3.86</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>14/10/2023 14:59</t>
+          <t>14/10/2023 14:53</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>3.94</v>
+        <v>4.26</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
@@ -5872,16 +5872,16 @@
         </is>
       </c>
       <c r="T59" t="n">
-        <v>4.64</v>
+        <v>5.57</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>14/10/2023 14:59</t>
+          <t>14/10/2023 14:53</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/cibalia-sesvete/h2qHP74b/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/zrinski-jurjevac-croatia-zmijavci/dzj8RTZo/</t>
         </is>
       </c>
     </row>
@@ -6829,7 +6829,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Dugopolje</t>
+          <t>Bijelo Brdo</t>
         </is>
       </c>
       <c r="G70" t="n">
@@ -6837,14 +6837,14 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Sesvete</t>
+          <t>Solin</t>
         </is>
       </c>
       <c r="I70" t="n">
         <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>1.72</v>
+        <v>2.14</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>1.68</v>
+        <v>2.68</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>27/10/2023 13:14</t>
+          <t>28/10/2023 14:57</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.47</v>
+        <v>3.17</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,15 +6868,15 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.76</v>
+        <v>2.66</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>28/10/2023 14:26</t>
+          <t>28/10/2023 14:56</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>4.07</v>
+        <v>3.02</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>4.74</v>
+        <v>3.1</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>28/10/2023 14:26</t>
+          <t>28/10/2023 14:57</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/dugopolje-sesvete/Yya1NxuS/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/bijelo-brdo-solin/hM3tS0Qd/</t>
         </is>
       </c>
     </row>
@@ -6921,7 +6921,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Bijelo Brdo</t>
+          <t>Dugopolje</t>
         </is>
       </c>
       <c r="G71" t="n">
@@ -6929,14 +6929,14 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Solin</t>
+          <t>Sesvete</t>
         </is>
       </c>
       <c r="I71" t="n">
         <v>1</v>
       </c>
       <c r="J71" t="n">
-        <v>2.14</v>
+        <v>1.72</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -6944,15 +6944,15 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>2.68</v>
+        <v>1.68</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>28/10/2023 14:57</t>
+          <t>27/10/2023 13:14</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.17</v>
+        <v>3.47</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -6960,15 +6960,15 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>2.66</v>
+        <v>3.76</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>28/10/2023 14:56</t>
+          <t>28/10/2023 14:26</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>3.02</v>
+        <v>4.07</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
@@ -6976,16 +6976,16 @@
         </is>
       </c>
       <c r="T71" t="n">
-        <v>3.1</v>
+        <v>4.74</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>28/10/2023 14:57</t>
+          <t>28/10/2023 14:26</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/bijelo-brdo-solin/hM3tS0Qd/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/dugopolje-sesvete/Yya1NxuS/</t>
         </is>
       </c>
     </row>
@@ -7381,22 +7381,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Cibalia</t>
+          <t>Orijent</t>
         </is>
       </c>
       <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Jarun</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
         <v>1</v>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>Dubrava</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
       <c r="J76" t="n">
-        <v>1.98</v>
+        <v>1.79</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,15 +7404,15 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>2.56</v>
+        <v>1.79</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>04/11/2023 13:59</t>
+          <t>04/11/2023 13:52</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.32</v>
+        <v>3.62</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,15 +7420,15 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.28</v>
+        <v>4.01</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>04/11/2023 13:59</t>
+          <t>04/11/2023 13:52</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>2.67</v>
+        <v>3.79</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>04/11/2023 13:59</t>
+          <t>04/11/2023 13:52</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/cibalia-dubrava-zagreb/nquxHzIe/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/orijent-jarun/QZwtGfX1/</t>
         </is>
       </c>
     </row>
@@ -7473,7 +7473,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Dugopolje</t>
+          <t>Cibalia</t>
         </is>
       </c>
       <c r="G77" t="n">
@@ -7481,14 +7481,14 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Bijelo Brdo</t>
+          <t>Dubrava</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>1.62</v>
+        <v>1.98</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>1.92</v>
+        <v>2.56</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.57</v>
+        <v>3.32</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.03</v>
+        <v>3.28</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         </is>
       </c>
       <c r="R77" t="n">
-        <v>4.6</v>
+        <v>3.25</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>4.54</v>
+        <v>2.67</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/dugopolje-bijelo-brdo/jHoTIdmq/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/cibalia-dubrava-zagreb/nquxHzIe/</t>
         </is>
       </c>
     </row>
@@ -7565,22 +7565,22 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Orijent</t>
+          <t>Dugopolje</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Jarun</t>
+          <t>Bijelo Brdo</t>
         </is>
       </c>
       <c r="I78" t="n">
         <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>1.79</v>
+        <v>1.62</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -7588,15 +7588,15 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>1.79</v>
+        <v>1.92</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>04/11/2023 13:52</t>
+          <t>04/11/2023 13:59</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.62</v>
+        <v>3.57</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -7604,15 +7604,15 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>4.01</v>
+        <v>3.03</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>04/11/2023 13:52</t>
+          <t>04/11/2023 13:59</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>3.55</v>
+        <v>4.6</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
@@ -7620,16 +7620,16 @@
         </is>
       </c>
       <c r="T78" t="n">
-        <v>3.79</v>
+        <v>4.54</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>04/11/2023 13:52</t>
+          <t>04/11/2023 13:59</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/orijent-jarun/QZwtGfX1/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/dugopolje-bijelo-brdo/jHoTIdmq/</t>
         </is>
       </c>
     </row>
@@ -8301,22 +8301,22 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Cibalia</t>
+          <t>Sesvete</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Vukovar 1991</t>
+          <t>Jarun</t>
         </is>
       </c>
       <c r="I86" t="n">
         <v>1</v>
       </c>
       <c r="J86" t="n">
-        <v>2.61</v>
+        <v>1.76</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,48 +8324,48 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>3.57</v>
+        <v>1.79</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>17/11/2023 13:25</t>
+          <t>17/11/2023 13:29</t>
         </is>
       </c>
       <c r="N86" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>16/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P86" t="n">
         <v>3.09</v>
       </c>
-      <c r="O86" t="inlineStr">
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>17/11/2023 13:29</t>
+        </is>
+      </c>
+      <c r="R86" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="S86" t="inlineStr">
         <is>
           <t>16/11/2023 01:42</t>
         </is>
       </c>
-      <c r="P86" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="Q86" t="inlineStr">
-        <is>
-          <t>17/11/2023 13:25</t>
-        </is>
-      </c>
-      <c r="R86" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="S86" t="inlineStr">
-        <is>
-          <t>16/11/2023 01:42</t>
-        </is>
-      </c>
       <c r="T86" t="n">
-        <v>2.04</v>
+        <v>5.3</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>17/11/2023 13:25</t>
+          <t>17/11/2023 13:29</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/cibalia-vukovar-1991/fTf9jy9E/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/sesvete-jarun/Gxd5iHg8/</t>
         </is>
       </c>
     </row>
@@ -8393,22 +8393,22 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Sesvete</t>
+          <t>Cibalia</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Jarun</t>
+          <t>Vukovar 1991</t>
         </is>
       </c>
       <c r="I87" t="n">
         <v>1</v>
       </c>
       <c r="J87" t="n">
-        <v>1.76</v>
+        <v>2.61</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,15 +8416,15 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>1.79</v>
+        <v>3.57</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>17/11/2023 13:29</t>
+          <t>17/11/2023 13:25</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.49</v>
+        <v>3.09</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,15 +8432,15 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.09</v>
+        <v>3.31</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>17/11/2023 13:29</t>
+          <t>17/11/2023 13:25</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>3.84</v>
+        <v>2.52</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,16 +8448,16 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>5.3</v>
+        <v>2.04</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>17/11/2023 13:29</t>
+          <t>17/11/2023 13:25</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/sesvete-jarun/Gxd5iHg8/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/cibalia-vukovar-1991/fTf9jy9E/</t>
         </is>
       </c>
     </row>
@@ -8485,7 +8485,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Dugopolje</t>
+          <t>Orijent</t>
         </is>
       </c>
       <c r="G88" t="n">
@@ -8493,14 +8493,14 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Dubrava</t>
+          <t>Solin</t>
         </is>
       </c>
       <c r="I88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J88" t="n">
-        <v>1.81</v>
+        <v>1.95</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -8508,15 +8508,15 @@
         </is>
       </c>
       <c r="L88" t="n">
-        <v>2.05</v>
+        <v>1.88</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>18/11/2023 13:21</t>
+          <t>18/11/2023 13:25</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>3.44</v>
+        <v>3.43</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -8524,15 +8524,15 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>3.39</v>
+        <v>3.71</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>18/11/2023 13:21</t>
+          <t>18/11/2023 13:25</t>
         </is>
       </c>
       <c r="R88" t="n">
-        <v>3.81</v>
+        <v>3.22</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
@@ -8540,16 +8540,16 @@
         </is>
       </c>
       <c r="T88" t="n">
-        <v>3.48</v>
+        <v>3.67</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>18/11/2023 13:21</t>
+          <t>18/11/2023 13:25</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/dugopolje-dubrava-zagreb/vLCMSXG7/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/orijent-solin/ljfDkeOK/</t>
         </is>
       </c>
     </row>
@@ -8577,7 +8577,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Orijent</t>
+          <t>Dugopolje</t>
         </is>
       </c>
       <c r="G89" t="n">
@@ -8585,14 +8585,14 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Solin</t>
+          <t>Dubrava</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J89" t="n">
-        <v>1.95</v>
+        <v>1.81</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -8600,15 +8600,15 @@
         </is>
       </c>
       <c r="L89" t="n">
-        <v>1.88</v>
+        <v>2.05</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>18/11/2023 13:25</t>
+          <t>18/11/2023 13:21</t>
         </is>
       </c>
       <c r="N89" t="n">
-        <v>3.43</v>
+        <v>3.44</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
@@ -8616,15 +8616,15 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>3.71</v>
+        <v>3.39</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>18/11/2023 13:25</t>
+          <t>18/11/2023 13:21</t>
         </is>
       </c>
       <c r="R89" t="n">
-        <v>3.22</v>
+        <v>3.81</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
@@ -8632,16 +8632,16 @@
         </is>
       </c>
       <c r="T89" t="n">
-        <v>3.67</v>
+        <v>3.48</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>18/11/2023 13:25</t>
+          <t>18/11/2023 13:21</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/orijent-solin/ljfDkeOK/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/dugopolje-dubrava-zagreb/vLCMSXG7/</t>
         </is>
       </c>
     </row>
@@ -9378,6 +9378,190 @@
       <c r="V97" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/croatia/prva-nl/sibenik-orijent/pbZmqg1l/</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>croatia</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>prva-nl</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>45261.54166666666</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Dubrava</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>2</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Bijelo Brdo</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>30/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>01/12/2023 12:58</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>30/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P98" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>01/12/2023 12:58</t>
+        </is>
+      </c>
+      <c r="R98" t="n">
+        <v>4</v>
+      </c>
+      <c r="S98" t="inlineStr">
+        <is>
+          <t>30/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T98" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="U98" t="inlineStr">
+        <is>
+          <t>01/12/2023 12:58</t>
+        </is>
+      </c>
+      <c r="V98" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/dubrava-zagreb-bijelo-brdo/tpJj3EhK/</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>croatia</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>prva-nl</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>45261.5625</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Sesvete</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>2</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Solin</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>30/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>01/12/2023 13:22</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>30/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P99" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>01/12/2023 13:05</t>
+        </is>
+      </c>
+      <c r="R99" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>30/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T99" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="U99" t="inlineStr">
+        <is>
+          <t>01/12/2023 13:22</t>
+        </is>
+      </c>
+      <c r="V99" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/sesvete-solin/IRLJdCVm/</t>
         </is>
       </c>
     </row>

--- a/2023/croatia_prva-nl_2023-2024.xlsx
+++ b/2023/croatia_prva-nl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V99"/>
+  <dimension ref="A1:V101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2321,30 +2321,30 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Bijelo Brdo</t>
+          <t>Jarun</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Croatia Zmijavci</t>
+          <t>Sesvete</t>
         </is>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>2.03</v>
+        <v>1.9</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>01/09/2023 04:43</t>
+          <t>02/09/2023 13:42</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>2.42</v>
+        <v>2.22</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -2352,40 +2352,40 @@
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.16</v>
+        <v>3.57</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>01/09/2023 04:43</t>
+          <t>02/09/2023 13:42</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.18</v>
+        <v>3.56</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
+          <t>02/09/2023 16:23</t>
+        </is>
+      </c>
+      <c r="R21" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>02/09/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T21" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
           <t>02/09/2023 16:28</t>
         </is>
       </c>
-      <c r="R21" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>01/09/2023 04:43</t>
-        </is>
-      </c>
-      <c r="T21" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>02/09/2023 16:28</t>
-        </is>
-      </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/bijelo-brdo-croatia-zmijavci/rgN98fC9/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/jarun-sesvete/lhksjndr/</t>
         </is>
       </c>
     </row>
@@ -2413,22 +2413,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Vukovar 1991</t>
+          <t>Bijelo Brdo</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Cibalia</t>
+          <t>Croatia Zmijavci</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>2.07</v>
+        <v>2.03</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>1.98</v>
+        <v>2.42</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.14</v>
+        <v>3.16</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.32</v>
+        <v>3.18</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         </is>
       </c>
       <c r="R22" t="n">
-        <v>3.3</v>
+        <v>3.36</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>3.76</v>
+        <v>2.91</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/vukovar-1991-cibalia/Srlok6Bl/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/bijelo-brdo-croatia-zmijavci/rgN98fC9/</t>
         </is>
       </c>
     </row>
@@ -2505,30 +2505,30 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Jarun</t>
+          <t>Solin</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Sesvete</t>
+          <t>Orijent</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>1.9</v>
+        <v>2.08</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>02/09/2023 13:42</t>
+          <t>01/09/2023 04:43</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2.22</v>
+        <v>2.05</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -2536,31 +2536,31 @@
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.57</v>
+        <v>3.34</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>02/09/2023 13:42</t>
+          <t>01/09/2023 04:43</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.56</v>
+        <v>3.65</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>02/09/2023 16:23</t>
+          <t>02/09/2023 16:28</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>3.54</v>
+        <v>2.99</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>02/09/2023 13:42</t>
+          <t>01/09/2023 04:43</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>2.94</v>
+        <v>3.24</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/jarun-sesvete/lhksjndr/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/solin-orijent/A7wjlQQf/</t>
         </is>
       </c>
     </row>
@@ -2597,22 +2597,22 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Solin</t>
+          <t>Vukovar 1991</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Orijent</t>
+          <t>Cibalia</t>
         </is>
       </c>
       <c r="I24" t="n">
         <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -2628,7 +2628,7 @@
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.34</v>
+        <v>3.14</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2636,7 +2636,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.65</v>
+        <v>3.32</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         </is>
       </c>
       <c r="R24" t="n">
-        <v>2.99</v>
+        <v>3.3</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>3.24</v>
+        <v>3.76</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/solin-orijent/A7wjlQQf/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/vukovar-1991-cibalia/Srlok6Bl/</t>
         </is>
       </c>
     </row>
@@ -2873,71 +2873,71 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Zrinski Jurjevac</t>
+          <t>Orijent</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Bijelo Brdo</t>
+          <t>Sibenik</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J27" t="n">
-        <v>2.1</v>
+        <v>4.75</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>08/09/2023 04:42</t>
+          <t>09/09/2023 14:42</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>1.85</v>
+        <v>3.89</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
+          <t>09/09/2023 16:26</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>09/09/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P27" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
           <t>09/09/2023 16:23</t>
         </is>
       </c>
-      <c r="N27" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>08/09/2023 04:42</t>
-        </is>
-      </c>
-      <c r="P27" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>09/09/2023 16:23</t>
-        </is>
-      </c>
       <c r="R27" t="n">
-        <v>3.2</v>
+        <v>1.63</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>08/09/2023 04:42</t>
+          <t>09/09/2023 14:42</t>
         </is>
       </c>
       <c r="T27" t="n">
-        <v>4.23</v>
+        <v>1.84</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>09/09/2023 16:23</t>
+          <t>09/09/2023 16:26</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/zrinski-jurjevac-bijelo-brdo/IXtbn4e7/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/orijent-sibenik/dOu2oOAD/</t>
         </is>
       </c>
     </row>
@@ -2965,71 +2965,71 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Orijent</t>
+          <t>Dugopolje</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Sibenik</t>
+          <t>Jarun</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>4.75</v>
+        <v>1.7</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>09/09/2023 14:42</t>
+          <t>08/09/2023 04:42</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>3.89</v>
+        <v>1.78</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>09/09/2023 16:26</t>
+          <t>09/09/2023 16:21</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.9</v>
+        <v>3.62</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>09/09/2023 14:42</t>
+          <t>08/09/2023 04:42</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.68</v>
+        <v>3.67</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>09/09/2023 16:23</t>
+          <t>09/09/2023 16:21</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>1.63</v>
+        <v>3.95</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>09/09/2023 14:42</t>
+          <t>08/09/2023 04:42</t>
         </is>
       </c>
       <c r="T28" t="n">
-        <v>1.84</v>
+        <v>4.23</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>09/09/2023 16:26</t>
+          <t>09/09/2023 16:21</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/orijent-sibenik/dOu2oOAD/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/dugopolje-jarun/Gvap8oIQ/</t>
         </is>
       </c>
     </row>
@@ -3057,22 +3057,22 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Dugopolje</t>
+          <t>Zrinski Jurjevac</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Jarun</t>
+          <t>Bijelo Brdo</t>
         </is>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3080,15 +3080,15 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>09/09/2023 16:21</t>
+          <t>09/09/2023 16:23</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.62</v>
+        <v>3.17</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3096,15 +3096,15 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.67</v>
+        <v>3.4</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>09/09/2023 16:21</t>
+          <t>09/09/2023 16:23</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>3.95</v>
+        <v>3.2</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -3116,12 +3116,12 @@
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>09/09/2023 16:21</t>
+          <t>09/09/2023 16:23</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/dugopolje-jarun/Gvap8oIQ/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/zrinski-jurjevac-bijelo-brdo/IXtbn4e7/</t>
         </is>
       </c>
     </row>
@@ -3609,22 +3609,22 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Bijelo Brdo</t>
+          <t>Solin</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Dubrava</t>
+          <t>Sesvete</t>
         </is>
       </c>
       <c r="I35" t="n">
         <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3632,15 +3632,15 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>2.54</v>
+        <v>1.79</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>16/09/2023 16:29</t>
+          <t>16/09/2023 16:26</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.12</v>
+        <v>3.3</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3648,15 +3648,15 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.11</v>
+        <v>3.75</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>16/09/2023 16:29</t>
+          <t>16/09/2023 16:26</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>3</v>
+        <v>3.17</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
@@ -3664,16 +3664,16 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>2.81</v>
+        <v>4.08</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>16/09/2023 16:29</t>
+          <t>16/09/2023 16:26</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/bijelo-brdo-dubrava-zagreb/zPuH2Pul/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/solin-sesvete/MurTaNP6/</t>
         </is>
       </c>
     </row>
@@ -3701,22 +3701,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Solin</t>
+          <t>Bijelo Brdo</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Sesvete</t>
+          <t>Dubrava</t>
         </is>
       </c>
       <c r="I36" t="n">
         <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3724,15 +3724,15 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>1.79</v>
+        <v>2.54</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>16/09/2023 16:26</t>
+          <t>16/09/2023 16:29</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.3</v>
+        <v>3.12</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3740,15 +3740,15 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.75</v>
+        <v>3.11</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>16/09/2023 16:26</t>
+          <t>16/09/2023 16:29</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>3.17</v>
+        <v>3</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
@@ -3756,16 +3756,16 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>4.08</v>
+        <v>2.81</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>16/09/2023 16:26</t>
+          <t>16/09/2023 16:29</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/solin-sesvete/MurTaNP6/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/bijelo-brdo-dubrava-zagreb/zPuH2Pul/</t>
         </is>
       </c>
     </row>
@@ -6277,22 +6277,22 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Dugopolje</t>
+          <t>Vukovar 1991</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Cibalia</t>
+          <t>Solin</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J64" t="n">
-        <v>1.94</v>
+        <v>1.5</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,15 +6300,15 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>21/10/2023 10:12</t>
+          <t>21/10/2023 14:58</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.21</v>
+        <v>4.02</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -6316,15 +6316,15 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.45</v>
+        <v>4.19</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>21/10/2023 13:03</t>
+          <t>21/10/2023 14:58</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>3.45</v>
+        <v>4.93</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
@@ -6332,16 +6332,16 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>5.04</v>
+        <v>4.78</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>21/10/2023 14:09</t>
+          <t>21/10/2023 14:56</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/dugopolje-cibalia/QFsPNoZA/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/vukovar-1991-solin/jHPc3Hmd/</t>
         </is>
       </c>
     </row>
@@ -6369,22 +6369,22 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Vukovar 1991</t>
+          <t>Dugopolje</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Solin</t>
+          <t>Cibalia</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>1.5</v>
+        <v>1.94</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -6392,15 +6392,15 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>1.6</v>
+        <v>1.71</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>21/10/2023 14:58</t>
+          <t>21/10/2023 10:12</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>4.02</v>
+        <v>3.21</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -6408,15 +6408,15 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>4.19</v>
+        <v>3.45</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>21/10/2023 14:58</t>
+          <t>21/10/2023 13:03</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>4.93</v>
+        <v>3.45</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
@@ -6424,16 +6424,16 @@
         </is>
       </c>
       <c r="T65" t="n">
-        <v>4.78</v>
+        <v>5.04</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>21/10/2023 14:56</t>
+          <t>21/10/2023 14:09</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/vukovar-1991-solin/jHPc3Hmd/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/dugopolje-cibalia/QFsPNoZA/</t>
         </is>
       </c>
     </row>
@@ -7473,7 +7473,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Cibalia</t>
+          <t>Dugopolje</t>
         </is>
       </c>
       <c r="G77" t="n">
@@ -7481,14 +7481,14 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Dubrava</t>
+          <t>Bijelo Brdo</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>1.98</v>
+        <v>1.62</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>2.56</v>
+        <v>1.92</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.32</v>
+        <v>3.57</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.28</v>
+        <v>3.03</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         </is>
       </c>
       <c r="R77" t="n">
-        <v>3.25</v>
+        <v>4.6</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>2.67</v>
+        <v>4.54</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/cibalia-dubrava-zagreb/nquxHzIe/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/dugopolje-bijelo-brdo/jHoTIdmq/</t>
         </is>
       </c>
     </row>
@@ -7565,7 +7565,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Dugopolje</t>
+          <t>Cibalia</t>
         </is>
       </c>
       <c r="G78" t="n">
@@ -7573,14 +7573,14 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Bijelo Brdo</t>
+          <t>Dubrava</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>1.62</v>
+        <v>1.98</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -7588,7 +7588,7 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>1.92</v>
+        <v>2.56</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.57</v>
+        <v>3.32</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -7604,7 +7604,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.03</v>
+        <v>3.28</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -7612,7 +7612,7 @@
         </is>
       </c>
       <c r="R78" t="n">
-        <v>4.6</v>
+        <v>3.25</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         </is>
       </c>
       <c r="T78" t="n">
-        <v>4.54</v>
+        <v>2.67</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
@@ -7629,7 +7629,7 @@
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/dugopolje-bijelo-brdo/jHoTIdmq/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/cibalia-dubrava-zagreb/nquxHzIe/</t>
         </is>
       </c>
     </row>
@@ -8301,22 +8301,22 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Sesvete</t>
+          <t>Cibalia</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Jarun</t>
+          <t>Vukovar 1991</t>
         </is>
       </c>
       <c r="I86" t="n">
         <v>1</v>
       </c>
       <c r="J86" t="n">
-        <v>1.76</v>
+        <v>2.61</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,15 +8324,15 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>1.79</v>
+        <v>3.57</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>17/11/2023 13:29</t>
+          <t>17/11/2023 13:25</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.49</v>
+        <v>3.09</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,15 +8340,15 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.09</v>
+        <v>3.31</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>17/11/2023 13:29</t>
+          <t>17/11/2023 13:25</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>3.84</v>
+        <v>2.52</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -8356,16 +8356,16 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>5.3</v>
+        <v>2.04</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>17/11/2023 13:29</t>
+          <t>17/11/2023 13:25</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/sesvete-jarun/Gxd5iHg8/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/cibalia-vukovar-1991/fTf9jy9E/</t>
         </is>
       </c>
     </row>
@@ -8393,22 +8393,22 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Cibalia</t>
+          <t>Sesvete</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Vukovar 1991</t>
+          <t>Jarun</t>
         </is>
       </c>
       <c r="I87" t="n">
         <v>1</v>
       </c>
       <c r="J87" t="n">
-        <v>2.61</v>
+        <v>1.76</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,48 +8416,48 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>3.57</v>
+        <v>1.79</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>17/11/2023 13:25</t>
+          <t>17/11/2023 13:29</t>
         </is>
       </c>
       <c r="N87" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>16/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P87" t="n">
         <v>3.09</v>
       </c>
-      <c r="O87" t="inlineStr">
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>17/11/2023 13:29</t>
+        </is>
+      </c>
+      <c r="R87" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="S87" t="inlineStr">
         <is>
           <t>16/11/2023 01:42</t>
         </is>
       </c>
-      <c r="P87" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="Q87" t="inlineStr">
-        <is>
-          <t>17/11/2023 13:25</t>
-        </is>
-      </c>
-      <c r="R87" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="S87" t="inlineStr">
-        <is>
-          <t>16/11/2023 01:42</t>
-        </is>
-      </c>
       <c r="T87" t="n">
-        <v>2.04</v>
+        <v>5.3</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>17/11/2023 13:25</t>
+          <t>17/11/2023 13:29</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/cibalia-vukovar-1991/fTf9jy9E/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/sesvete-jarun/Gxd5iHg8/</t>
         </is>
       </c>
     </row>
@@ -9562,6 +9562,190 @@
       <c r="V99" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/croatia/prva-nl/sesvete-solin/IRLJdCVm/</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>croatia</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>prva-nl</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>45262.52083333334</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Cibalia</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>1</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Sibenik</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>3</v>
+      </c>
+      <c r="J100" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>01/12/2023 00:42</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>02/12/2023 12:29</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>01/12/2023 00:42</t>
+        </is>
+      </c>
+      <c r="P100" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>02/12/2023 12:29</t>
+        </is>
+      </c>
+      <c r="R100" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>01/12/2023 00:42</t>
+        </is>
+      </c>
+      <c r="T100" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="U100" t="inlineStr">
+        <is>
+          <t>02/12/2023 12:29</t>
+        </is>
+      </c>
+      <c r="V100" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/cibalia-sibenik/WUPNeWpf/</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>croatia</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>prva-nl</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>45262.5625</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Dugopolje</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>1</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Vukovar 1991</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>2</v>
+      </c>
+      <c r="J101" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>01/12/2023 01:42</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>02/12/2023 13:28</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>01/12/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P101" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>02/12/2023 13:20</t>
+        </is>
+      </c>
+      <c r="R101" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>01/12/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T101" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="U101" t="inlineStr">
+        <is>
+          <t>02/12/2023 13:28</t>
+        </is>
+      </c>
+      <c r="V101" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/dugopolje-vukovar-1991/O4MFchGs/</t>
         </is>
       </c>
     </row>

--- a/2023/croatia_prva-nl_2023-2024.xlsx
+++ b/2023/croatia_prva-nl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V101"/>
+  <dimension ref="A1:V103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5173,7 +5173,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Cibalia</t>
+          <t>Dugopolje</t>
         </is>
       </c>
       <c r="G52" t="n">
@@ -5181,14 +5181,14 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Bijelo Brdo</t>
+          <t>Zrinski Jurjevac</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>1.69</v>
+        <v>2.05</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5196,15 +5196,15 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>1.78</v>
+        <v>2.15</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>07/10/2023 14:42</t>
+          <t>07/10/2023 14:02</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.44</v>
+        <v>3.21</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5212,15 +5212,15 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.57</v>
+        <v>3.39</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>07/10/2023 14:42</t>
+          <t>07/10/2023 14:02</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>4.27</v>
+        <v>3.17</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>4.38</v>
+        <v>3.2</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>07/10/2023 14:42</t>
+          <t>07/10/2023 14:02</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/cibalia-bijelo-brdo/IVBVDA5n/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/dugopolje-zrinski-jurjevac/Ec5vClza/</t>
         </is>
       </c>
     </row>
@@ -5265,7 +5265,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Dugopolje</t>
+          <t>Cibalia</t>
         </is>
       </c>
       <c r="G53" t="n">
@@ -5273,14 +5273,14 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Zrinski Jurjevac</t>
+          <t>Bijelo Brdo</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>2.05</v>
+        <v>1.69</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -5288,15 +5288,15 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>2.15</v>
+        <v>1.78</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>07/10/2023 14:02</t>
+          <t>07/10/2023 14:42</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.21</v>
+        <v>3.44</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -5304,15 +5304,15 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.39</v>
+        <v>3.57</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>07/10/2023 14:02</t>
+          <t>07/10/2023 14:42</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>3.17</v>
+        <v>4.27</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
@@ -5320,16 +5320,16 @@
         </is>
       </c>
       <c r="T53" t="n">
-        <v>3.2</v>
+        <v>4.38</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>07/10/2023 14:02</t>
+          <t>07/10/2023 14:42</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/dugopolje-zrinski-jurjevac/Ec5vClza/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/cibalia-bijelo-brdo/IVBVDA5n/</t>
         </is>
       </c>
     </row>
@@ -6277,22 +6277,22 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Vukovar 1991</t>
+          <t>Dugopolje</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Solin</t>
+          <t>Cibalia</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>1.5</v>
+        <v>1.94</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,15 +6300,15 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>1.6</v>
+        <v>1.71</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>21/10/2023 14:58</t>
+          <t>21/10/2023 10:12</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>4.02</v>
+        <v>3.21</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -6316,15 +6316,15 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>4.19</v>
+        <v>3.45</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>21/10/2023 14:58</t>
+          <t>21/10/2023 13:03</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>4.93</v>
+        <v>3.45</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
@@ -6332,16 +6332,16 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>4.78</v>
+        <v>5.04</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>21/10/2023 14:56</t>
+          <t>21/10/2023 14:09</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/vukovar-1991-solin/jHPc3Hmd/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/dugopolje-cibalia/QFsPNoZA/</t>
         </is>
       </c>
     </row>
@@ -6369,22 +6369,22 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Dugopolje</t>
+          <t>Vukovar 1991</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Cibalia</t>
+          <t>Solin</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J65" t="n">
-        <v>1.94</v>
+        <v>1.5</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -6392,15 +6392,15 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>21/10/2023 10:12</t>
+          <t>21/10/2023 14:58</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>3.21</v>
+        <v>4.02</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -6408,15 +6408,15 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3.45</v>
+        <v>4.19</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>21/10/2023 13:03</t>
+          <t>21/10/2023 14:58</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>3.45</v>
+        <v>4.93</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
@@ -6424,16 +6424,16 @@
         </is>
       </c>
       <c r="T65" t="n">
-        <v>5.04</v>
+        <v>4.78</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>21/10/2023 14:09</t>
+          <t>21/10/2023 14:56</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/dugopolje-cibalia/QFsPNoZA/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/vukovar-1991-solin/jHPc3Hmd/</t>
         </is>
       </c>
     </row>
@@ -7381,22 +7381,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Orijent</t>
+          <t>Dugopolje</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Jarun</t>
+          <t>Bijelo Brdo</t>
         </is>
       </c>
       <c r="I76" t="n">
         <v>1</v>
       </c>
       <c r="J76" t="n">
-        <v>1.79</v>
+        <v>1.62</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,15 +7404,15 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>1.79</v>
+        <v>1.92</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>04/11/2023 13:52</t>
+          <t>04/11/2023 13:59</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.62</v>
+        <v>3.57</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,15 +7420,15 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>4.01</v>
+        <v>3.03</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>04/11/2023 13:52</t>
+          <t>04/11/2023 13:59</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>3.55</v>
+        <v>4.6</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>3.79</v>
+        <v>4.54</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>04/11/2023 13:52</t>
+          <t>04/11/2023 13:59</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/orijent-jarun/QZwtGfX1/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/dugopolje-bijelo-brdo/jHoTIdmq/</t>
         </is>
       </c>
     </row>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Dugopolje</t>
+          <t>Orijent</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Bijelo Brdo</t>
+          <t>Jarun</t>
         </is>
       </c>
       <c r="I77" t="n">
         <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>1.62</v>
+        <v>1.79</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>04/11/2023 13:59</t>
+          <t>04/11/2023 13:52</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.57</v>
+        <v>3.62</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,15 +7512,15 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.03</v>
+        <v>4.01</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>04/11/2023 13:59</t>
+          <t>04/11/2023 13:52</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>4.6</v>
+        <v>3.55</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,16 +7528,16 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>4.54</v>
+        <v>3.79</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>04/11/2023 13:59</t>
+          <t>04/11/2023 13:52</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/croatia/prva-nl/dugopolje-bijelo-brdo/jHoTIdmq/</t>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/orijent-jarun/QZwtGfX1/</t>
         </is>
       </c>
     </row>
@@ -9746,6 +9746,190 @@
       <c r="V101" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/croatia/prva-nl/dugopolje-vukovar-1991/O4MFchGs/</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>croatia</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>prva-nl</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>45263.53472222222</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Orijent</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Zrinski Jurjevac</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>1</v>
+      </c>
+      <c r="J102" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>02/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>03/12/2023 12:40</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>02/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P102" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>03/12/2023 12:40</t>
+        </is>
+      </c>
+      <c r="R102" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>02/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T102" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="U102" t="inlineStr">
+        <is>
+          <t>03/12/2023 12:40</t>
+        </is>
+      </c>
+      <c r="V102" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/orijent-zrinski-jurjevac/EgFSfj00/</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>croatia</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>prva-nl</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>45263.5625</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Croatia Zmijavci</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>1</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Jarun</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>02/12/2023 01:42</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:23</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>02/12/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P103" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:23</t>
+        </is>
+      </c>
+      <c r="R103" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="S103" t="inlineStr">
+        <is>
+          <t>02/12/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T103" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="U103" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:23</t>
+        </is>
+      </c>
+      <c r="V103" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/croatia/prva-nl/croatia-zmijavci-jarun/Mezl2Y7Q/</t>
         </is>
       </c>
     </row>
